--- a/30d_portfolio_returns.xlsx
+++ b/30d_portfolio_returns.xlsx
@@ -8,17 +8,20 @@
   </bookViews>
   <sheets>
     <sheet name="current_portfolio" sheetId="1" r:id="rId1"/>
-    <sheet name="beta_portfolio" sheetId="2" r:id="rId2"/>
-    <sheet name="alpha" sheetId="3" r:id="rId3"/>
-    <sheet name="portfolio_prices" sheetId="4" r:id="rId4"/>
-    <sheet name="beta_price_moves" sheetId="5" r:id="rId5"/>
+    <sheet name="Sigma Moves PnL" sheetId="2" r:id="rId2"/>
+    <sheet name="beta_portfolio" sheetId="3" r:id="rId3"/>
+    <sheet name="alpha" sheetId="4" r:id="rId4"/>
+    <sheet name="portfolio_prices" sheetId="5" r:id="rId5"/>
+    <sheet name="beta_price_moves" sheetId="6" r:id="rId6"/>
+    <sheet name="5 day standard deviations" sheetId="7" r:id="rId7"/>
+    <sheet name="30 day standard deviations" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="18">
   <si>
     <t>ACCU</t>
   </si>
@@ -41,7 +44,37 @@
     <t>Date</t>
   </si>
   <si>
+    <t>-99%</t>
+  </si>
+  <si>
+    <t>-2 sig</t>
+  </si>
+  <si>
+    <t>-1 sig</t>
+  </si>
+  <si>
+    <t>1 sig</t>
+  </si>
+  <si>
+    <t>2 sig</t>
+  </si>
+  <si>
+    <t>+99%</t>
+  </si>
+  <si>
     <t>LGC</t>
+  </si>
+  <si>
+    <t>Mkt</t>
+  </si>
+  <si>
+    <t>TwoSigma</t>
+  </si>
+  <si>
+    <t>OnePointFive</t>
+  </si>
+  <si>
+    <t>OneSigma</t>
   </si>
 </sst>
 </file>
@@ -405,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,22 +472,22 @@
         <v>44377</v>
       </c>
       <c r="B2">
-        <v>-26168.26</v>
+        <v>-61818.77</v>
       </c>
       <c r="C2">
-        <v>324510.79</v>
+        <v>340304.51</v>
       </c>
       <c r="D2">
-        <v>-100355.76</v>
+        <v>-50494.9</v>
       </c>
       <c r="E2">
-        <v>-50149.78</v>
+        <v>-31233.48</v>
       </c>
       <c r="F2">
-        <v>291596.66</v>
+        <v>253493.67</v>
       </c>
       <c r="G2">
-        <v>439433.6499999999</v>
+        <v>450251.03</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -462,22 +495,22 @@
         <v>44407</v>
       </c>
       <c r="B3">
-        <v>-78111.57000000001</v>
+        <v>59116.34</v>
       </c>
       <c r="C3">
-        <v>162956.72</v>
+        <v>207738.75</v>
       </c>
       <c r="D3">
-        <v>68261.25</v>
+        <v>65829.38</v>
       </c>
       <c r="E3">
-        <v>-68516.53999999999</v>
+        <v>-45380.2</v>
       </c>
       <c r="F3">
-        <v>40199.71</v>
+        <v>21733.82</v>
       </c>
       <c r="G3">
-        <v>124789.57</v>
+        <v>309038.09</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -485,22 +518,22 @@
         <v>44439</v>
       </c>
       <c r="B4">
-        <v>-20666.64</v>
+        <v>-55502.76</v>
       </c>
       <c r="C4">
-        <v>93811.19</v>
+        <v>82706.98</v>
       </c>
       <c r="D4">
-        <v>-198181.1</v>
+        <v>-111791.43</v>
       </c>
       <c r="E4">
-        <v>251305.74</v>
+        <v>185969.47</v>
       </c>
       <c r="F4">
-        <v>272791.98</v>
+        <v>234429.12</v>
       </c>
       <c r="G4">
-        <v>399061.17</v>
+        <v>335811.38</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -508,22 +541,22 @@
         <v>44469</v>
       </c>
       <c r="B5">
-        <v>-64624.44</v>
+        <v>33909.41</v>
       </c>
       <c r="C5">
-        <v>554468.8</v>
+        <v>532529.73</v>
       </c>
       <c r="D5">
-        <v>10359.12</v>
+        <v>23685.86</v>
       </c>
       <c r="E5">
-        <v>504928.11</v>
+        <v>332198.37</v>
       </c>
       <c r="F5">
-        <v>229158.78</v>
+        <v>191357.79</v>
       </c>
       <c r="G5">
-        <v>1234290.37</v>
+        <v>1113681.16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -531,22 +564,22 @@
         <v>44498</v>
       </c>
       <c r="B6">
-        <v>-95295.98</v>
+        <v>636949.47</v>
       </c>
       <c r="C6">
-        <v>47928.44</v>
+        <v>-17399.94</v>
       </c>
       <c r="D6">
-        <v>65927.19</v>
+        <v>64024.76</v>
       </c>
       <c r="E6">
-        <v>-377575.23</v>
+        <v>-284232.58</v>
       </c>
       <c r="F6">
-        <v>299105.23</v>
+        <v>261193.36</v>
       </c>
       <c r="G6">
-        <v>-59910.34999999998</v>
+        <v>660535.0700000001</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -554,22 +587,22 @@
         <v>44530</v>
       </c>
       <c r="B7">
-        <v>-94101.92999999999</v>
+        <v>99509.62</v>
       </c>
       <c r="C7">
-        <v>39360.17</v>
+        <v>-31368.12</v>
       </c>
       <c r="D7">
-        <v>-579281.1899999999</v>
+        <v>-327640.15</v>
       </c>
       <c r="E7">
-        <v>443871.46</v>
+        <v>301053.27</v>
       </c>
       <c r="F7">
-        <v>100766.77</v>
+        <v>73311.69</v>
       </c>
       <c r="G7">
-        <v>-89384.71999999993</v>
+        <v>114866.31</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -577,22 +610,22 @@
         <v>44561</v>
       </c>
       <c r="B8">
-        <v>-120512.89</v>
+        <v>252987.01</v>
       </c>
       <c r="C8">
-        <v>85723.45</v>
+        <v>61689.92</v>
       </c>
       <c r="D8">
-        <v>-55214.6</v>
+        <v>-20973</v>
       </c>
       <c r="E8">
-        <v>22608.68</v>
+        <v>24070.1</v>
       </c>
       <c r="F8">
-        <v>46645.25</v>
+        <v>27105.7</v>
       </c>
       <c r="G8">
-        <v>-20750.11000000002</v>
+        <v>344879.73</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -600,22 +633,22 @@
         <v>44592</v>
       </c>
       <c r="B9">
-        <v>-44960.15</v>
+        <v>6008.46</v>
       </c>
       <c r="C9">
-        <v>125309.67</v>
+        <v>175213.84</v>
       </c>
       <c r="D9">
-        <v>-132780.92</v>
+        <v>-71187.89</v>
       </c>
       <c r="E9">
-        <v>174384.39</v>
+        <v>134017.95</v>
       </c>
       <c r="F9">
-        <v>-290788.91</v>
+        <v>-222519.11</v>
       </c>
       <c r="G9">
-        <v>-168835.92</v>
+        <v>21533.25</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -623,22 +656,22 @@
         <v>44620</v>
       </c>
       <c r="B10">
-        <v>108912.14</v>
+        <v>173299.49</v>
       </c>
       <c r="C10">
-        <v>103754.24</v>
+        <v>110348.82</v>
       </c>
       <c r="D10">
-        <v>93451.53</v>
+        <v>72889.71000000001</v>
       </c>
       <c r="E10">
-        <v>-77654.91</v>
+        <v>-52441.49</v>
       </c>
       <c r="F10">
-        <v>29393.41</v>
+        <v>12788.56</v>
       </c>
       <c r="G10">
-        <v>257856.41</v>
+        <v>316885.09</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -646,22 +679,22 @@
         <v>44651</v>
       </c>
       <c r="B11">
-        <v>497062.94</v>
+        <v>888693.48</v>
       </c>
       <c r="C11">
-        <v>-54077.3</v>
+        <v>-130074.28</v>
       </c>
       <c r="D11">
-        <v>73636.10000000001</v>
+        <v>70095</v>
       </c>
       <c r="E11">
-        <v>-31235.69</v>
+        <v>-16735.7</v>
       </c>
       <c r="F11">
-        <v>97918.50999999999</v>
+        <v>70830</v>
       </c>
       <c r="G11">
-        <v>583304.5599999999</v>
+        <v>882808.5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -669,22 +702,22 @@
         <v>44680</v>
       </c>
       <c r="B12">
-        <v>18519.37</v>
+        <v>20227.04</v>
       </c>
       <c r="C12">
-        <v>39360.17</v>
+        <v>-31368.12</v>
       </c>
       <c r="D12">
-        <v>-119457.53</v>
+        <v>-62733.7</v>
       </c>
       <c r="E12">
-        <v>97661.95</v>
+        <v>79514.86</v>
       </c>
       <c r="F12">
-        <v>-54075.04</v>
+        <v>-53821.27</v>
       </c>
       <c r="G12">
-        <v>-17991.08000000001</v>
+        <v>-48181.19</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -692,22 +725,22 @@
         <v>44712</v>
       </c>
       <c r="B13">
-        <v>-121956.27</v>
+        <v>350803.54</v>
       </c>
       <c r="C13">
-        <v>53176.62</v>
+        <v>-8199.700000000001</v>
       </c>
       <c r="D13">
-        <v>32971.97</v>
+        <v>39709.75</v>
       </c>
       <c r="E13">
-        <v>39323.21</v>
+        <v>36575.57</v>
       </c>
       <c r="F13">
-        <v>169843.25</v>
+        <v>135277.64</v>
       </c>
       <c r="G13">
-        <v>173358.78</v>
+        <v>554166.8</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -715,22 +748,22 @@
         <v>44742</v>
       </c>
       <c r="B14">
-        <v>-28708.24</v>
+        <v>-59983.18</v>
       </c>
       <c r="C14">
-        <v>25679.07</v>
+        <v>-51281.7</v>
       </c>
       <c r="D14">
-        <v>-71547.88</v>
+        <v>-31757.27</v>
       </c>
       <c r="E14">
-        <v>47941.57</v>
+        <v>42990.37</v>
       </c>
       <c r="F14">
-        <v>-55789.51</v>
+        <v>-100706</v>
       </c>
       <c r="G14">
-        <v>-82424.99000000001</v>
+        <v>-200737.78</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -738,22 +771,22 @@
         <v>44771</v>
       </c>
       <c r="B15">
-        <v>146449.17</v>
+        <v>238061.97</v>
       </c>
       <c r="C15">
-        <v>91454.14</v>
+        <v>76437.64999999999</v>
       </c>
       <c r="D15">
-        <v>244223.56</v>
+        <v>72995.55</v>
       </c>
       <c r="E15">
-        <v>-102918.36</v>
+        <v>-72030.58</v>
       </c>
       <c r="F15">
-        <v>-233061.39</v>
+        <v>-151071.49</v>
       </c>
       <c r="G15">
-        <v>146147.12</v>
+        <v>164393.1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -761,22 +794,22 @@
         <v>44804</v>
       </c>
       <c r="B16">
-        <v>-26947.72</v>
+        <v>-56723.95</v>
       </c>
       <c r="C16">
-        <v>107632.13</v>
+        <v>121595.91</v>
       </c>
       <c r="D16">
-        <v>9984.809999999999</v>
+        <v>23423.78</v>
       </c>
       <c r="E16">
-        <v>314390.83</v>
+        <v>226226.76</v>
       </c>
       <c r="F16">
-        <v>-159504.77</v>
+        <v>-132150.17</v>
       </c>
       <c r="G16">
-        <v>245555.2800000001</v>
+        <v>182372.33</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -784,22 +817,22 @@
         <v>44834</v>
       </c>
       <c r="B17">
-        <v>-5142.67</v>
+        <v>-30904.21</v>
       </c>
       <c r="C17">
-        <v>-149460.82</v>
+        <v>-183989.57</v>
       </c>
       <c r="D17">
-        <v>329225.27</v>
+        <v>63256.4</v>
       </c>
       <c r="E17">
-        <v>-312568.69</v>
+        <v>-235239.53</v>
       </c>
       <c r="F17">
-        <v>-45844.95</v>
+        <v>-47442.84</v>
       </c>
       <c r="G17">
-        <v>-183791.86</v>
+        <v>-434319.75</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -807,22 +840,22 @@
         <v>44865</v>
       </c>
       <c r="B18">
-        <v>-20472.6</v>
+        <v>-45360.15</v>
       </c>
       <c r="C18">
-        <v>115679.57</v>
+        <v>145606.34</v>
       </c>
       <c r="D18">
-        <v>-338726.08</v>
+        <v>-194861.86</v>
       </c>
       <c r="E18">
-        <v>55964.8</v>
+        <v>48941.01</v>
       </c>
       <c r="F18">
-        <v>292520.42</v>
+        <v>254438.23</v>
       </c>
       <c r="G18">
-        <v>104966.11</v>
+        <v>208763.57</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -830,22 +863,22 @@
         <v>44895</v>
       </c>
       <c r="B19">
-        <v>-3082.61</v>
+        <v>-34385.33</v>
       </c>
       <c r="C19">
-        <v>17349</v>
+        <v>-62164.17</v>
       </c>
       <c r="D19">
-        <v>-46864.49</v>
+        <v>-15411.88</v>
       </c>
       <c r="E19">
-        <v>-107422.29</v>
+        <v>-75532.16</v>
       </c>
       <c r="F19">
-        <v>-253911.39</v>
+        <v>-197697.47</v>
       </c>
       <c r="G19">
-        <v>-393931.78</v>
+        <v>-385191.01</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -853,22 +886,22 @@
         <v>44925</v>
       </c>
       <c r="B20">
-        <v>-18069.95</v>
+        <v>-52432.43</v>
       </c>
       <c r="C20">
-        <v>-110632.35</v>
+        <v>-165176.28</v>
       </c>
       <c r="D20">
-        <v>59443.48</v>
+        <v>59099.38</v>
       </c>
       <c r="E20">
-        <v>-26977.72</v>
+        <v>-13482.67</v>
       </c>
       <c r="F20">
-        <v>203072.82</v>
+        <v>166354.39</v>
       </c>
       <c r="G20">
-        <v>106836.28</v>
+        <v>-5637.609999999986</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -876,22 +909,22 @@
         <v>44957</v>
       </c>
       <c r="B21">
-        <v>-78839.03999999999</v>
+        <v>60665.19</v>
       </c>
       <c r="C21">
-        <v>-49567.84</v>
+        <v>-126744.73</v>
       </c>
       <c r="D21">
-        <v>-131650.58</v>
+        <v>-70473.2</v>
       </c>
       <c r="E21">
-        <v>86821.59</v>
+        <v>71625.50999999999</v>
       </c>
       <c r="F21">
-        <v>-92880.42</v>
+        <v>-83364.28</v>
       </c>
       <c r="G21">
-        <v>-266116.29</v>
+        <v>-148291.51</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -899,22 +932,22 @@
         <v>44985</v>
       </c>
       <c r="B22">
-        <v>8062.52</v>
+        <v>2716.31</v>
       </c>
       <c r="C22">
-        <v>-74134.21000000001</v>
+        <v>-143817.87</v>
       </c>
       <c r="D22">
-        <v>-64566.69</v>
+        <v>-27162.66</v>
       </c>
       <c r="E22">
-        <v>148403.17</v>
+        <v>115837.39</v>
       </c>
       <c r="F22">
-        <v>43609.89</v>
+        <v>24572.55</v>
       </c>
       <c r="G22">
-        <v>61374.68000000001</v>
+        <v>-27854.28</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -922,22 +955,22 @@
         <v>45016</v>
       </c>
       <c r="B23">
-        <v>-12697.32</v>
+        <v>-25385.77</v>
       </c>
       <c r="C23">
-        <v>-459252.12</v>
+        <v>-316833.73</v>
       </c>
       <c r="D23">
-        <v>73628.58</v>
+        <v>70088.87</v>
       </c>
       <c r="E23">
-        <v>-119177.59</v>
+        <v>-84682.60000000001</v>
       </c>
       <c r="F23">
-        <v>82260.50999999999</v>
+        <v>57287.63</v>
       </c>
       <c r="G23">
-        <v>-435237.9399999999</v>
+        <v>-299525.6</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -945,22 +978,22 @@
         <v>45044</v>
       </c>
       <c r="B24">
-        <v>-22196.92</v>
+        <v>-48336.32</v>
       </c>
       <c r="C24">
-        <v>67359.7</v>
+        <v>19400.92</v>
       </c>
       <c r="D24">
-        <v>66148.28</v>
+        <v>64194.83</v>
       </c>
       <c r="E24">
-        <v>-235634.64</v>
+        <v>-175697.01</v>
       </c>
       <c r="F24">
-        <v>79295.23</v>
+        <v>54742.01</v>
       </c>
       <c r="G24">
-        <v>-45028.35000000002</v>
+        <v>-85695.57000000001</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -968,22 +1001,22 @@
         <v>45077</v>
       </c>
       <c r="B25">
-        <v>12872.55</v>
+        <v>10769.63</v>
       </c>
       <c r="C25">
-        <v>17063.52</v>
+        <v>-62522.21</v>
       </c>
       <c r="D25">
-        <v>75380.77</v>
+        <v>71538.78</v>
       </c>
       <c r="E25">
-        <v>-200971.75</v>
+        <v>-148612.65</v>
       </c>
       <c r="F25">
-        <v>-28964.06</v>
+        <v>-34233.13</v>
       </c>
       <c r="G25">
-        <v>-124618.97</v>
+        <v>-163059.58</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -991,22 +1024,22 @@
         <v>45107</v>
       </c>
       <c r="B26">
-        <v>20079.65</v>
+        <v>22841.26</v>
       </c>
       <c r="C26">
-        <v>-631246.51</v>
+        <v>-508900.64</v>
       </c>
       <c r="D26">
-        <v>-136006.6</v>
+        <v>-73224.89</v>
       </c>
       <c r="E26">
-        <v>51935.65</v>
+        <v>45955.28</v>
       </c>
       <c r="F26">
-        <v>84497.14999999999</v>
+        <v>63542.18</v>
       </c>
       <c r="G26">
-        <v>-610740.6599999999</v>
+        <v>-449786.81</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1014,22 +1047,22 @@
         <v>45138</v>
       </c>
       <c r="B27">
-        <v>18170.97</v>
+        <v>19643.36</v>
       </c>
       <c r="C27">
-        <v>1107548.49</v>
+        <v>1604802.51</v>
       </c>
       <c r="D27">
-        <v>52238.13</v>
+        <v>53729.57</v>
       </c>
       <c r="E27">
-        <v>-213328.82</v>
+        <v>-158276.48</v>
       </c>
       <c r="F27">
-        <v>362040.36</v>
+        <v>322065.38</v>
       </c>
       <c r="G27">
-        <v>1326669.13</v>
+        <v>1841964.34</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1037,22 +1070,22 @@
         <v>45169</v>
       </c>
       <c r="B28">
-        <v>-14900.75</v>
+        <v>-48648.36</v>
       </c>
       <c r="C28">
-        <v>63089.53</v>
+        <v>10648.5</v>
       </c>
       <c r="D28">
-        <v>37793.56</v>
+        <v>43181.24</v>
       </c>
       <c r="E28">
-        <v>61100.62</v>
+        <v>52739.1</v>
       </c>
       <c r="F28">
-        <v>-50753.98</v>
+        <v>-51252.24</v>
       </c>
       <c r="G28">
-        <v>96328.97999999998</v>
+        <v>6668.239999999998</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1060,22 +1093,22 @@
         <v>45198</v>
       </c>
       <c r="B29">
-        <v>-25627.95</v>
+        <v>-54353.1</v>
       </c>
       <c r="C29">
-        <v>-24893.06</v>
+        <v>-106650.16</v>
       </c>
       <c r="D29">
-        <v>59321.25</v>
+        <v>59007.5</v>
       </c>
       <c r="E29">
-        <v>-234082.61</v>
+        <v>-174486.24</v>
       </c>
       <c r="F29">
-        <v>-20488.73</v>
+        <v>-27535.86</v>
       </c>
       <c r="G29">
-        <v>-245771.1</v>
+        <v>-304017.86</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1083,22 +1116,22 @@
         <v>45230</v>
       </c>
       <c r="B30">
-        <v>-30368</v>
+        <v>-63293.15</v>
       </c>
       <c r="C30">
-        <v>110752.34</v>
+        <v>130807.11</v>
       </c>
       <c r="D30">
-        <v>55681.27</v>
+        <v>56284.46</v>
       </c>
       <c r="E30">
-        <v>4217.08</v>
+        <v>10216.89</v>
       </c>
       <c r="F30">
-        <v>80354.83</v>
+        <v>55650.96</v>
       </c>
       <c r="G30">
-        <v>220637.52</v>
+        <v>189666.27</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1106,22 +1139,22 @@
         <v>45260</v>
       </c>
       <c r="B31">
-        <v>-24732.76</v>
+        <v>-60209.75</v>
       </c>
       <c r="C31">
-        <v>86161.5</v>
+        <v>62791.84</v>
       </c>
       <c r="D31">
-        <v>171702.25</v>
+        <v>75193.55</v>
       </c>
       <c r="E31">
-        <v>60317.88</v>
+        <v>52160.81</v>
       </c>
       <c r="F31">
-        <v>44738.72</v>
+        <v>25513.9</v>
       </c>
       <c r="G31">
-        <v>338187.59</v>
+        <v>155450.35</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1129,22 +1162,22 @@
         <v>45289</v>
       </c>
       <c r="B32">
-        <v>-12439.17</v>
+        <v>-45691.39</v>
       </c>
       <c r="C32">
-        <v>-68020.69</v>
+        <v>-139801.22</v>
       </c>
       <c r="D32">
-        <v>-121803.22</v>
+        <v>-64226.93</v>
       </c>
       <c r="E32">
-        <v>124280.19</v>
+        <v>98698.05</v>
       </c>
       <c r="F32">
-        <v>77035.8</v>
+        <v>52806.37</v>
       </c>
       <c r="G32">
-        <v>-947.0900000000111</v>
+        <v>-98215.12</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1152,22 +1185,22 @@
         <v>45322</v>
       </c>
       <c r="B33">
-        <v>-23229.97</v>
+        <v>-58490.01</v>
       </c>
       <c r="C33">
-        <v>88127.33</v>
+        <v>67789.11</v>
       </c>
       <c r="D33">
-        <v>418193.57</v>
+        <v>40864.06</v>
       </c>
       <c r="E33">
-        <v>-339934.56</v>
+        <v>-256065.64</v>
       </c>
       <c r="F33">
-        <v>67817.94</v>
+        <v>44945.46</v>
       </c>
       <c r="G33">
-        <v>210974.31</v>
+        <v>-160957.02</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1175,22 +1208,22 @@
         <v>45351</v>
       </c>
       <c r="B34">
-        <v>-28952.35</v>
+        <v>-64760.1</v>
       </c>
       <c r="C34">
-        <v>-54323.33</v>
+        <v>-130253.23</v>
       </c>
       <c r="D34">
-        <v>243834.67</v>
+        <v>73020.62</v>
       </c>
       <c r="E34">
-        <v>35352.21</v>
+        <v>33612.14</v>
       </c>
       <c r="F34">
-        <v>-69544.85000000001</v>
+        <v>-65702.71000000001</v>
       </c>
       <c r="G34">
-        <v>126366.35</v>
+        <v>-154083.28</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1198,22 +1231,22 @@
         <v>45379</v>
       </c>
       <c r="B35">
-        <v>70.34</v>
+        <v>-10668.75</v>
       </c>
       <c r="C35">
-        <v>-248500.32</v>
+        <v>-219664.42</v>
       </c>
       <c r="D35">
-        <v>-149029.68</v>
+        <v>-81411.02</v>
       </c>
       <c r="E35">
-        <v>150643.12</v>
+        <v>117416.46</v>
       </c>
       <c r="F35">
-        <v>-149130.84</v>
+        <v>-124705.92</v>
       </c>
       <c r="G35">
-        <v>-395947.38</v>
+        <v>-319033.65</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1221,22 +1254,45 @@
         <v>45412</v>
       </c>
       <c r="B36">
-        <v>-30821.24</v>
+        <v>-64314.23</v>
       </c>
       <c r="C36">
-        <v>-40316.39</v>
+        <v>-119602.49</v>
       </c>
       <c r="D36">
-        <v>-134479.74</v>
+        <v>-72261.16</v>
       </c>
       <c r="E36">
-        <v>-53091.64</v>
+        <v>-33495.08</v>
       </c>
       <c r="F36">
-        <v>-51466.13</v>
+        <v>-51803.68</v>
       </c>
       <c r="G36">
-        <v>-310175.14</v>
+        <v>-341476.64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2">
+        <v>45443</v>
+      </c>
+      <c r="B37">
+        <v>-53496.65</v>
+      </c>
+      <c r="C37">
+        <v>-178585.87</v>
+      </c>
+      <c r="D37">
+        <v>-38809.06</v>
+      </c>
+      <c r="E37">
+        <v>300409.97</v>
+      </c>
+      <c r="F37">
+        <v>-20154.66</v>
+      </c>
+      <c r="G37">
+        <v>9363.730000000014</v>
       </c>
     </row>
   </sheetData>
@@ -1246,7 +1302,178 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>-64760.1</v>
+      </c>
+      <c r="C2">
+        <v>-508900.64</v>
+      </c>
+      <c r="D2">
+        <v>-327640.15</v>
+      </c>
+      <c r="E2">
+        <v>-284232.58</v>
+      </c>
+      <c r="F2">
+        <v>-222519.11</v>
+      </c>
+      <c r="G2">
+        <v>-449786.81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>-63293.15</v>
+      </c>
+      <c r="C3">
+        <v>-219664.42</v>
+      </c>
+      <c r="D3">
+        <v>-111791.43</v>
+      </c>
+      <c r="E3">
+        <v>-235239.53</v>
+      </c>
+      <c r="F3">
+        <v>-151071.49</v>
+      </c>
+      <c r="G3">
+        <v>-385191.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>-52432.43</v>
+      </c>
+      <c r="C4">
+        <v>-119602.49</v>
+      </c>
+      <c r="D4">
+        <v>-38809.06</v>
+      </c>
+      <c r="E4">
+        <v>-45380.2</v>
+      </c>
+      <c r="F4">
+        <v>-47442.84</v>
+      </c>
+      <c r="G4">
+        <v>-148291.51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>20227.04</v>
+      </c>
+      <c r="C5">
+        <v>67789.11</v>
+      </c>
+      <c r="D5">
+        <v>59099.38</v>
+      </c>
+      <c r="E5">
+        <v>52739.1</v>
+      </c>
+      <c r="F5">
+        <v>57287.63</v>
+      </c>
+      <c r="G5">
+        <v>189666.27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>350803.54</v>
+      </c>
+      <c r="C6">
+        <v>340304.51</v>
+      </c>
+      <c r="D6">
+        <v>72995.55</v>
+      </c>
+      <c r="E6">
+        <v>300409.97</v>
+      </c>
+      <c r="F6">
+        <v>254438.23</v>
+      </c>
+      <c r="G6">
+        <v>882808.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>888693.48</v>
+      </c>
+      <c r="C7">
+        <v>1604802.51</v>
+      </c>
+      <c r="D7">
+        <v>75193.55</v>
+      </c>
+      <c r="E7">
+        <v>332198.37</v>
+      </c>
+      <c r="F7">
+        <v>322065.38</v>
+      </c>
+      <c r="G7">
+        <v>1841964.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1280,22 +1507,22 @@
         <v>44377</v>
       </c>
       <c r="B2">
-        <v>99180.25259750402</v>
+        <v>98844.20039903373</v>
       </c>
       <c r="C2">
-        <v>460832.0447138558</v>
+        <v>459270.6086648845</v>
       </c>
       <c r="D2">
-        <v>239439.0367822745</v>
+        <v>238627.7461008838</v>
       </c>
       <c r="E2">
-        <v>-108674.680313024</v>
+        <v>-108306.4581691915</v>
       </c>
       <c r="F2">
-        <v>316190.4008153655</v>
+        <v>315119.0536817732</v>
       </c>
       <c r="G2">
-        <v>1006967.054595976</v>
+        <v>1003555.150677384</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1303,22 +1530,22 @@
         <v>44407</v>
       </c>
       <c r="B3">
-        <v>368677.4452588211</v>
+        <v>367428.2564055865</v>
       </c>
       <c r="C3">
-        <v>311005.3351194148</v>
+        <v>309951.556530777</v>
       </c>
       <c r="D3">
-        <v>-141806.8517616802</v>
+        <v>-141326.3679653131</v>
       </c>
       <c r="E3">
-        <v>-142819.5637404065</v>
+        <v>-142335.648574609</v>
       </c>
       <c r="F3">
-        <v>60243.57278221969</v>
+        <v>60039.44963726957</v>
       </c>
       <c r="G3">
-        <v>455299.937658369</v>
+        <v>453757.2460337111</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1326,22 +1553,22 @@
         <v>44439</v>
       </c>
       <c r="B4">
-        <v>131768.0498795415</v>
+        <v>131321.5805301447</v>
       </c>
       <c r="C4">
-        <v>157254.051296572</v>
+        <v>156721.2277931765</v>
       </c>
       <c r="D4">
-        <v>368000.8600239443</v>
+        <v>366753.9636427466</v>
       </c>
       <c r="E4">
-        <v>490160.3674464069</v>
+        <v>488499.5583158635</v>
       </c>
       <c r="F4">
-        <v>296795.6951712724</v>
+        <v>295790.0630696516</v>
       </c>
       <c r="G4">
-        <v>1443979.023817737</v>
+        <v>1439086.393351583</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1349,22 +1576,22 @@
         <v>44469</v>
       </c>
       <c r="B5">
-        <v>330846.1858447356</v>
+        <v>329725.1805518786</v>
       </c>
       <c r="C5">
-        <v>665236.7566734136</v>
+        <v>662982.7366570419</v>
       </c>
       <c r="D5">
-        <v>44269.89818087354</v>
+        <v>44119.8985970844</v>
       </c>
       <c r="E5">
-        <v>1113561.280423732</v>
+        <v>1109788.203559966</v>
       </c>
       <c r="F5">
-        <v>252222.4192259046</v>
+        <v>251367.8146421836</v>
       </c>
       <c r="G5">
-        <v>2406136.54034866</v>
+        <v>2397983.834008154</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1372,22 +1599,22 @@
         <v>44498</v>
       </c>
       <c r="B6">
-        <v>988260.3740965611</v>
+        <v>984911.853976086</v>
       </c>
       <c r="C6">
-        <v>20429.15502008386</v>
+        <v>20359.93496591392</v>
       </c>
       <c r="D6">
-        <v>-129335.014944934</v>
+        <v>-128896.7894416387</v>
       </c>
       <c r="E6">
-        <v>-728098.388822264</v>
+        <v>-725631.3748970263</v>
       </c>
       <c r="F6">
-        <v>323973.2067491242</v>
+        <v>322875.4891539146</v>
       </c>
       <c r="G6">
-        <v>475229.3320985711</v>
+        <v>473619.1137572495</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1395,22 +1622,22 @@
         <v>44530</v>
       </c>
       <c r="B7">
-        <v>423869.2513607627</v>
+        <v>422433.0562508156</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>747830.2541281425</v>
+        <v>745296.3827737056</v>
       </c>
       <c r="E7">
-        <v>948141.0516472033</v>
+        <v>944928.4677252875</v>
       </c>
       <c r="F7">
-        <v>122319.8926538637</v>
+        <v>121905.4364716454</v>
       </c>
       <c r="G7">
-        <v>2242160.449789972</v>
+        <v>2234563.343221454</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1418,22 +1645,22 @@
         <v>44561</v>
       </c>
       <c r="B8">
-        <v>603275.4090870575</v>
+        <v>601231.3325476508</v>
       </c>
       <c r="C8">
-        <v>129740.849112164</v>
+        <v>129301.2485219885</v>
       </c>
       <c r="D8">
-        <v>169583.3997388284</v>
+        <v>169008.800735359</v>
       </c>
       <c r="E8">
-        <v>28150.93916900649</v>
+        <v>28055.55541317824</v>
       </c>
       <c r="F8">
-        <v>66911.88828389106</v>
+        <v>66685.17090242894</v>
       </c>
       <c r="G8">
-        <v>997662.4853909474</v>
+        <v>994282.1081206055</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1441,22 +1668,22 @@
         <v>44592</v>
       </c>
       <c r="B9">
-        <v>284205.5977794034</v>
+        <v>283242.6246728615</v>
       </c>
       <c r="C9">
-        <v>272423.6808360019</v>
+        <v>271500.6283687741</v>
       </c>
       <c r="D9">
-        <v>284823.9821629584</v>
+        <v>283858.9137861771</v>
       </c>
       <c r="E9">
-        <v>327456.1022751746</v>
+        <v>326346.5835938827</v>
       </c>
       <c r="F9">
-        <v>-353006.2911450723</v>
+        <v>-351810.2008235979</v>
       </c>
       <c r="G9">
-        <v>815903.0719084661</v>
+        <v>813138.5495980976</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1464,22 +1691,22 @@
         <v>44620</v>
       </c>
       <c r="B10">
-        <v>-396470.2385756116</v>
+        <v>-395126.8794712321</v>
       </c>
       <c r="C10">
-        <v>192617.7473322202</v>
+        <v>191965.1011071884</v>
       </c>
       <c r="D10">
-        <v>-209607.4052533153</v>
+        <v>-208897.1930134154</v>
       </c>
       <c r="E10">
-        <v>-159767.2914486183</v>
+        <v>-159225.9523399865</v>
       </c>
       <c r="F10">
-        <v>49021.52734064921</v>
+        <v>48855.42782382243</v>
       </c>
       <c r="G10">
-        <v>-524205.6606046757</v>
+        <v>-522429.4958936233</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1487,22 +1714,22 @@
         <v>44651</v>
       </c>
       <c r="B11">
-        <v>-960808.6970383235</v>
+        <v>-957553.1913656393</v>
       </c>
       <c r="C11">
-        <v>-158284.8401029785</v>
+        <v>-157748.5239804832</v>
       </c>
       <c r="D11">
-        <v>-177150.8859294737</v>
+        <v>-176550.6460317271</v>
       </c>
       <c r="E11">
-        <v>-73373.20688855775</v>
+        <v>-73124.59663764625</v>
       </c>
       <c r="F11">
-        <v>119424.5430088508</v>
+        <v>119019.8971324949</v>
       </c>
       <c r="G11">
-        <v>-1250193.086950482</v>
+        <v>-1245957.060883001</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1510,22 +1737,22 @@
         <v>44680</v>
       </c>
       <c r="B12">
-        <v>-216013.1965238383</v>
+        <v>-215281.2795576144</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>266574.7759617564</v>
+        <v>265671.5413240877</v>
       </c>
       <c r="E12">
-        <v>173209.6841494304</v>
+        <v>172622.7982156846</v>
       </c>
       <c r="F12">
-        <v>-40071.81070422788</v>
+        <v>-39936.03548959437</v>
       </c>
       <c r="G12">
-        <v>183699.4528831206</v>
+        <v>183077.0244925635</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1533,22 +1760,22 @@
         <v>44712</v>
       </c>
       <c r="B13">
-        <v>705900.2672118291</v>
+        <v>703508.4671257754</v>
       </c>
       <c r="C13">
-        <v>33679.84410623339</v>
+        <v>33565.72677582108</v>
       </c>
       <c r="D13">
-        <v>-11916.19680014902</v>
+        <v>-11875.82118073685</v>
       </c>
       <c r="E13">
-        <v>60050.33109061448</v>
+        <v>59846.86270599764</v>
       </c>
       <c r="F13">
-        <v>192197.8125706842</v>
+        <v>191546.5892095405</v>
       </c>
       <c r="G13">
-        <v>979912.0581792122</v>
+        <v>976591.8246363978</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1556,22 +1783,22 @@
         <v>44742</v>
       </c>
       <c r="B14">
-        <v>-29694.20842355868</v>
+        <v>-29593.59561242672</v>
       </c>
       <c r="C14">
-        <v>-29826.51317684446</v>
+        <v>-29725.45207785275</v>
       </c>
       <c r="D14">
-        <v>195935.2785681924</v>
+        <v>195271.3915604829</v>
       </c>
       <c r="E14">
-        <v>76581.50374401218</v>
+        <v>76322.02282899787</v>
       </c>
       <c r="F14">
-        <v>-41959.20755502851</v>
+        <v>-110171.8097527849</v>
       </c>
       <c r="G14">
-        <v>171036.853156773</v>
+        <v>102102.5569464165</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1579,22 +1806,22 @@
         <v>44771</v>
       </c>
       <c r="B15">
-        <v>-457997.2104075231</v>
+        <v>-456445.3796204465</v>
       </c>
       <c r="C15">
-        <v>149105.9511794811</v>
+        <v>148600.7358630588</v>
       </c>
       <c r="D15">
-        <v>-340415.4559638355</v>
+        <v>-339262.0271372901</v>
       </c>
       <c r="E15">
-        <v>-206512.5808207428</v>
+        <v>-205812.8547666229</v>
       </c>
       <c r="F15">
-        <v>-261568.1886221142</v>
+        <v>-196415.7867948475</v>
       </c>
       <c r="G15">
-        <v>-1117387.484634735</v>
+        <v>-1049335.312456148</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1602,22 +1829,22 @@
         <v>44804</v>
       </c>
       <c r="B16">
-        <v>-45437.2585791522</v>
+        <v>-45283.30363108436</v>
       </c>
       <c r="C16">
-        <v>206759.3310687695</v>
+        <v>206058.76895141</v>
       </c>
       <c r="D16">
-        <v>45117.97287302594</v>
+        <v>44965.0997599066</v>
       </c>
       <c r="E16">
-        <v>631167.7813711728</v>
+        <v>629029.1971774587</v>
       </c>
       <c r="F16">
-        <v>-162946.3276576024</v>
+        <v>-162394.2170286421</v>
       </c>
       <c r="G16">
-        <v>674661.4990762137</v>
+        <v>672375.5452290488</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1625,22 +1852,22 @@
         <v>44834</v>
       </c>
       <c r="B17">
-        <v>208054.8155992762</v>
+        <v>207349.8639949656</v>
       </c>
       <c r="C17">
-        <v>-261710.2145413526</v>
+        <v>-260823.4624848139</v>
       </c>
       <c r="D17">
-        <v>-426371.6825646262</v>
+        <v>-424927.008473374</v>
       </c>
       <c r="E17">
-        <v>-598785.2879478186</v>
+        <v>-596756.4252744862</v>
       </c>
       <c r="F17">
-        <v>-31049.90866086377</v>
+        <v>-30944.70233405443</v>
       </c>
       <c r="G17">
-        <v>-1109862.278115385</v>
+        <v>-1106101.734571763</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1648,22 +1875,22 @@
         <v>44865</v>
       </c>
       <c r="B18">
-        <v>-85702.79666962032</v>
+        <v>-85412.41010090688</v>
       </c>
       <c r="C18">
-        <v>236506.7561940485</v>
+        <v>235705.4009515416</v>
       </c>
       <c r="D18">
-        <v>522885.9524666953</v>
+        <v>521114.259319382</v>
       </c>
       <c r="E18">
-        <v>92025.1341288549</v>
+        <v>91713.32560015441</v>
       </c>
       <c r="F18">
-        <v>317146.6476236352</v>
+        <v>316072.0604414066</v>
       </c>
       <c r="G18">
-        <v>1082861.693743614</v>
+        <v>1079192.636211578</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1671,22 +1898,22 @@
         <v>44895</v>
       </c>
       <c r="B19">
-        <v>199313.0166245163</v>
+        <v>198637.6848355129</v>
       </c>
       <c r="C19">
-        <v>-46506.37054572085</v>
+        <v>-46348.79312828646</v>
       </c>
       <c r="D19">
-        <v>155544.2985496903</v>
+        <v>155017.2681971932</v>
       </c>
       <c r="E19">
-        <v>-214833.678232453</v>
+        <v>-214105.7578250658</v>
       </c>
       <c r="F19">
-        <v>-292720.509875403</v>
+        <v>-291728.6857137901</v>
       </c>
       <c r="G19">
-        <v>-199203.2434793703</v>
+        <v>-198528.2836344361</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1694,22 +1921,22 @@
         <v>44925</v>
       </c>
       <c r="B20">
-        <v>144121.3045557485</v>
+        <v>143632.9787048459</v>
       </c>
       <c r="C20">
-        <v>-223453.3636280605</v>
+        <v>-222696.2371624972</v>
       </c>
       <c r="D20">
-        <v>-99576.4533527593</v>
+        <v>-99239.05870827391</v>
       </c>
       <c r="E20">
-        <v>-65403.6590821054</v>
+        <v>-65182.05202982499</v>
       </c>
       <c r="F20">
-        <v>225775.4090715674</v>
+        <v>225010.4148253135</v>
       </c>
       <c r="G20">
-        <v>-18536.76243560936</v>
+        <v>-18473.95437043661</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1717,22 +1944,22 @@
         <v>44957</v>
       </c>
       <c r="B21">
-        <v>370902.6589201911</v>
+        <v>369645.9303811488</v>
       </c>
       <c r="C21">
-        <v>-152424.7004625943</v>
+        <v>-151908.2402363885</v>
       </c>
       <c r="D21">
-        <v>283295.6477959954</v>
+        <v>282335.7578706761</v>
       </c>
       <c r="E21">
-        <v>151945.3285454959</v>
+        <v>151430.4925739417</v>
       </c>
       <c r="F21">
-        <v>-83546.9372082546</v>
+        <v>-83263.85533268952</v>
       </c>
       <c r="G21">
-        <v>570171.9975908335</v>
+        <v>568240.0852566886</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1740,22 +1967,22 @@
         <v>44985</v>
       </c>
       <c r="B22">
-        <v>-188240.0712564877</v>
+        <v>-187602.2579002067</v>
       </c>
       <c r="C22">
-        <v>-183011.1803882518</v>
+        <v>-182391.0840696456</v>
       </c>
       <c r="D22">
-        <v>184839.9862730192</v>
+        <v>184213.6934160686</v>
       </c>
       <c r="E22">
-        <v>274427.2055675059</v>
+        <v>273497.364562509</v>
       </c>
       <c r="F22">
-        <v>63773.86043992</v>
+        <v>63557.77563024794</v>
       </c>
       <c r="G22">
-        <v>151789.8006357055</v>
+        <v>151275.4916389732</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1763,22 +1990,22 @@
         <v>45016</v>
       </c>
       <c r="B23">
-        <v>221149.1746230066</v>
+        <v>220399.855435208</v>
       </c>
       <c r="C23">
-        <v>-491671.8279087367</v>
+        <v>-490005.8975005403</v>
       </c>
       <c r="D23">
-        <v>-177091.2020259529</v>
+        <v>-176491.1643550252</v>
       </c>
       <c r="E23">
-        <v>-236540.0353661306</v>
+        <v>-235738.5673638894</v>
       </c>
       <c r="F23">
-        <v>103473.1732897025</v>
+        <v>103122.5753989325</v>
       </c>
       <c r="G23">
-        <v>-580680.7173881111</v>
+        <v>-578713.1983853146</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1786,22 +2013,22 @@
         <v>45044</v>
       </c>
       <c r="B24">
-        <v>-76510.48057521776</v>
+        <v>-76251.24030782586</v>
       </c>
       <c r="C24">
-        <v>72532.87149332574</v>
+        <v>72287.10854870384</v>
       </c>
       <c r="D24">
-        <v>-130466.3120130438</v>
+        <v>-130024.2533387605</v>
       </c>
       <c r="E24">
-        <v>-452356.7030897829</v>
+        <v>-450823.984019353</v>
       </c>
       <c r="F24">
-        <v>100445.0530676547</v>
+        <v>100104.7153489571</v>
       </c>
       <c r="G24">
-        <v>-486355.571117064</v>
+        <v>-484707.6537682784</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1809,22 +2036,22 @@
         <v>45077</v>
       </c>
       <c r="B25">
-        <v>-201373.0994836844</v>
+        <v>-200690.7875211514</v>
       </c>
       <c r="C25">
-        <v>-47060.01781412202</v>
+        <v>-46900.56447505185</v>
       </c>
       <c r="D25">
-        <v>-192350.8844440346</v>
+        <v>-191699.1424298503</v>
       </c>
       <c r="E25">
-        <v>-387730.2839368613</v>
+        <v>-386416.53839863</v>
       </c>
       <c r="F25">
-        <v>-12731.21254874783</v>
+        <v>-12688.07541354062</v>
       </c>
       <c r="G25">
-        <v>-841245.4982274502</v>
+        <v>-838395.1082382243</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1832,22 +2059,22 @@
         <v>45107</v>
       </c>
       <c r="B26">
-        <v>-219929.4069931914</v>
+        <v>-219184.2207409611</v>
       </c>
       <c r="C26">
-        <v>-598945.681270643</v>
+        <v>-596916.2751370218</v>
       </c>
       <c r="D26">
-        <v>289165.9648402134</v>
+        <v>288186.1845345334</v>
       </c>
       <c r="E26">
-        <v>84262.93061414296</v>
+        <v>83977.42273993557</v>
       </c>
       <c r="F26">
-        <v>105755.5869583372</v>
+        <v>110497.122776174</v>
       </c>
       <c r="G26">
-        <v>-339690.6058511407</v>
+        <v>-333439.7658273401</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1855,22 +2082,22 @@
         <v>45138</v>
       </c>
       <c r="B27">
-        <v>-215131.510007415</v>
+        <v>-214402.5804573796</v>
       </c>
       <c r="C27">
-        <v>1426195.363402096</v>
+        <v>1421362.98926745</v>
       </c>
       <c r="D27">
-        <v>-71800.34905015313</v>
+        <v>-71557.06810946846</v>
       </c>
       <c r="E27">
-        <v>-410705.6100141551</v>
+        <v>-409314.0172368147</v>
       </c>
       <c r="F27">
-        <v>390302.3754988279</v>
+        <v>383361.1357091182</v>
       </c>
       <c r="G27">
-        <v>1118860.269829201</v>
+        <v>1109450.459172905</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1878,22 +2105,22 @@
         <v>45169</v>
       </c>
       <c r="B28">
-        <v>157671.1707960324</v>
+        <v>157136.9339676948</v>
       </c>
       <c r="C28">
-        <v>60351.778570782</v>
+        <v>60147.28879243253</v>
       </c>
       <c r="D28">
-        <v>-25526.00688120489</v>
+        <v>-25439.51717679358</v>
       </c>
       <c r="E28">
-        <v>101939.2385881288</v>
+        <v>101593.8381244197</v>
       </c>
       <c r="F28">
-        <v>-36423.68858458874</v>
+        <v>-36300.27429288541</v>
       </c>
       <c r="G28">
-        <v>258012.4924891496</v>
+        <v>257138.2694148681</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1901,22 +2128,22 @@
         <v>45198</v>
       </c>
       <c r="B29">
-        <v>-55257.56930432372</v>
+        <v>-55070.34022231883</v>
       </c>
       <c r="C29">
-        <v>-118001.2386980968</v>
+        <v>-117601.4154001298</v>
       </c>
       <c r="D29">
-        <v>-99066.71673715251</v>
+        <v>-98731.04923194974</v>
       </c>
       <c r="E29">
-        <v>-449450.05587351</v>
+        <v>-447927.1853884749</v>
       </c>
       <c r="F29">
-        <v>-3620.996149478807</v>
+        <v>-3608.727137403841</v>
       </c>
       <c r="G29">
-        <v>-725396.5767625618</v>
+        <v>-722938.7173802771</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1924,22 +2151,22 @@
         <v>45230</v>
       </c>
       <c r="B30">
-        <v>-8683.232282012812</v>
+        <v>-8653.810908082249</v>
       </c>
       <c r="C30">
-        <v>218240.8326129904</v>
+        <v>217501.3677530521</v>
       </c>
       <c r="D30">
-        <v>-84543.23268872262</v>
+        <v>-84256.77506770659</v>
       </c>
       <c r="E30">
-        <v>-6722.859687731797</v>
+        <v>-6700.080639293338</v>
       </c>
       <c r="F30">
-        <v>101527.3912115344</v>
+        <v>101183.3862092472</v>
       </c>
       <c r="G30">
-        <v>219818.8991660576</v>
+        <v>219074.0873472171</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1947,22 +2174,22 @@
         <v>45260</v>
       </c>
       <c r="B31">
-        <v>108899.2147764805</v>
+        <v>108530.231843095</v>
       </c>
       <c r="C31">
-        <v>131197.6254211891</v>
+        <v>130753.0888395384</v>
       </c>
       <c r="D31">
-        <v>-274704.2962700623</v>
+        <v>-273773.5163993401</v>
       </c>
       <c r="E31">
-        <v>100426.8001639476</v>
+        <v>100086.524291517</v>
       </c>
       <c r="F31">
-        <v>64941.32823951944</v>
+        <v>64721.28770166126</v>
       </c>
       <c r="G31">
-        <v>130760.6723310742</v>
+        <v>130317.6162764716</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1970,22 +2197,22 @@
         <v>45289</v>
       </c>
       <c r="B32">
-        <v>167324.5077835447</v>
+        <v>166757.5625779619</v>
       </c>
       <c r="C32">
-        <v>-175690.7331727215</v>
+        <v>-175095.4407068594</v>
       </c>
       <c r="D32">
-        <v>269825.8329689807</v>
+        <v>268911.5827830959</v>
       </c>
       <c r="E32">
-        <v>225943.736674454</v>
+        <v>225178.1720842096</v>
       </c>
       <c r="F32">
-        <v>98136.01852937153</v>
+        <v>97803.50450654686</v>
       </c>
       <c r="G32">
-        <v>585539.3627836294</v>
+        <v>583555.3812449549</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1993,22 +2220,22 @@
         <v>45322</v>
       </c>
       <c r="B33">
-        <v>118001.2386980965</v>
+        <v>117601.4154001292</v>
       </c>
       <c r="C33">
-        <v>137783.969682584</v>
+        <v>137317.1166073679</v>
       </c>
       <c r="D33">
-        <v>-531731.177453953</v>
+        <v>-529929.5140532361</v>
       </c>
       <c r="E33">
-        <v>-652411.8103861118</v>
+        <v>-650201.2451027367</v>
       </c>
       <c r="F33">
-        <v>88699.51001614596</v>
+        <v>88398.9696911967</v>
       </c>
       <c r="G33">
-        <v>-839658.2694432383</v>
+        <v>-836813.257457279</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2016,22 +2243,22 @@
         <v>45351</v>
       </c>
       <c r="B34">
-        <v>75296.02850259472</v>
+        <v>75040.90316008269</v>
       </c>
       <c r="C34">
-        <v>-158601.1517094548</v>
+        <v>-158063.7638291452</v>
       </c>
       <c r="D34">
-        <v>-340046.5803343004</v>
+        <v>-338894.4013681157</v>
       </c>
       <c r="E34">
-        <v>52452.90284710382</v>
+        <v>52275.17680934641</v>
       </c>
       <c r="F34">
-        <v>-57207.5469809875</v>
+        <v>-57013.71079456346</v>
       </c>
       <c r="G34">
-        <v>-428106.3476750441</v>
+        <v>-426655.7960223953</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2039,22 +2266,22 @@
         <v>45379</v>
       </c>
       <c r="B35">
-        <v>-164710.0623494269</v>
+        <v>-164151.975662681</v>
       </c>
       <c r="C35">
-        <v>-345363.764390161</v>
+        <v>-344193.5692227177</v>
       </c>
       <c r="D35">
-        <v>306414.7391707778</v>
+        <v>305376.5148867558</v>
       </c>
       <c r="E35">
-        <v>278964.8838372316</v>
+        <v>278019.6678284556</v>
       </c>
       <c r="F35">
-        <v>-150090.8260462237</v>
+        <v>-149582.2736807866</v>
       </c>
       <c r="G35">
-        <v>-74785.02977780209</v>
+        <v>-74531.63585097389</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2065,860 +2292,42 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>-140010.6099834031</v>
+        <v>-139536.2123885003</v>
       </c>
       <c r="D36">
-        <v>287114.2717745053</v>
+        <v>286141.4432152387</v>
       </c>
       <c r="E36">
-        <v>-114152.0004304045</v>
+        <v>-113765.2194967026</v>
       </c>
       <c r="F36">
-        <v>-37205.09643657642</v>
+        <v>-37079.03450262902</v>
       </c>
       <c r="G36">
-        <v>-4253.435075878755</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2">
-        <v>44377</v>
-      </c>
-      <c r="B2">
-        <v>-125348.512597504</v>
-      </c>
-      <c r="C2">
-        <v>-136321.2547138559</v>
-      </c>
-      <c r="D2">
-        <v>-339794.7967822746</v>
-      </c>
-      <c r="E2">
-        <v>58524.90031302396</v>
-      </c>
-      <c r="F2">
-        <v>-24593.74081536551</v>
-      </c>
-      <c r="G2">
-        <v>-567533.4045959761</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2">
-        <v>44407</v>
-      </c>
-      <c r="B3">
-        <v>-446789.0152588211</v>
-      </c>
-      <c r="C3">
-        <v>-148048.6151194148</v>
-      </c>
-      <c r="D3">
-        <v>210068.1017616802</v>
-      </c>
-      <c r="E3">
-        <v>74303.02374040651</v>
-      </c>
-      <c r="F3">
-        <v>-20043.86278221969</v>
-      </c>
-      <c r="G3">
-        <v>-330510.367658369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2">
-        <v>44439</v>
-      </c>
-      <c r="B4">
-        <v>-152434.6898795415</v>
-      </c>
-      <c r="C4">
-        <v>-63442.86129657202</v>
-      </c>
-      <c r="D4">
-        <v>-566181.9600239443</v>
-      </c>
-      <c r="E4">
-        <v>-238854.6274464069</v>
-      </c>
-      <c r="F4">
-        <v>-24003.7151712724</v>
-      </c>
-      <c r="G4">
-        <v>-1044917.853817737</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2">
-        <v>44469</v>
-      </c>
-      <c r="B5">
-        <v>-395470.6258447356</v>
-      </c>
-      <c r="C5">
-        <v>-110767.9566734135</v>
-      </c>
-      <c r="D5">
-        <v>-33910.77818087354</v>
-      </c>
-      <c r="E5">
-        <v>-608633.1704237323</v>
-      </c>
-      <c r="F5">
-        <v>-23063.6392259046</v>
-      </c>
-      <c r="G5">
-        <v>-1171846.17034866</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2">
-        <v>44498</v>
-      </c>
-      <c r="B6">
-        <v>-1083556.354096561</v>
-      </c>
-      <c r="C6">
-        <v>27499.28497991614</v>
-      </c>
-      <c r="D6">
-        <v>195262.204944934</v>
-      </c>
-      <c r="E6">
-        <v>350523.1588222641</v>
-      </c>
-      <c r="F6">
-        <v>-24867.97674912418</v>
-      </c>
-      <c r="G6">
-        <v>-535139.682098571</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2">
-        <v>44530</v>
-      </c>
-      <c r="B7">
-        <v>-517971.1813607627</v>
-      </c>
-      <c r="C7">
-        <v>39360.17</v>
-      </c>
-      <c r="D7">
-        <v>-1327111.444128142</v>
-      </c>
-      <c r="E7">
-        <v>-504269.5916472033</v>
-      </c>
-      <c r="F7">
-        <v>-21553.12265386371</v>
-      </c>
-      <c r="G7">
-        <v>-2331545.169789972</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2">
-        <v>44561</v>
-      </c>
-      <c r="B8">
-        <v>-723788.2990870575</v>
-      </c>
-      <c r="C8">
-        <v>-44017.39911216396</v>
-      </c>
-      <c r="D8">
-        <v>-224797.9997388284</v>
-      </c>
-      <c r="E8">
-        <v>-5542.259169006495</v>
-      </c>
-      <c r="F8">
-        <v>-20266.63828389106</v>
-      </c>
-      <c r="G8">
-        <v>-1018412.595390947</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2">
-        <v>44592</v>
-      </c>
-      <c r="B9">
-        <v>-329165.7477794035</v>
-      </c>
-      <c r="C9">
-        <v>-147114.0108360019</v>
-      </c>
-      <c r="D9">
-        <v>-417604.9021629584</v>
-      </c>
-      <c r="E9">
-        <v>-153071.7122751746</v>
-      </c>
-      <c r="F9">
-        <v>62217.38114507234</v>
-      </c>
-      <c r="G9">
-        <v>-984738.991908466</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2">
-        <v>44620</v>
-      </c>
-      <c r="B10">
-        <v>505382.3785756116</v>
-      </c>
-      <c r="C10">
-        <v>-88863.50733222019</v>
-      </c>
-      <c r="D10">
-        <v>303058.9352533153</v>
-      </c>
-      <c r="E10">
-        <v>82112.38144861825</v>
-      </c>
-      <c r="F10">
-        <v>-19628.11734064921</v>
-      </c>
-      <c r="G10">
-        <v>782062.0706046757</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2">
-        <v>44651</v>
-      </c>
-      <c r="B11">
-        <v>1457871.637038324</v>
-      </c>
-      <c r="C11">
-        <v>104207.5401029785</v>
-      </c>
-      <c r="D11">
-        <v>250786.9859294737</v>
-      </c>
-      <c r="E11">
-        <v>42137.51688855774</v>
-      </c>
-      <c r="F11">
-        <v>-21506.03300885079</v>
-      </c>
-      <c r="G11">
-        <v>1833497.646950482</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2">
-        <v>44680</v>
-      </c>
-      <c r="B12">
-        <v>234532.5665238383</v>
-      </c>
-      <c r="C12">
-        <v>39360.17</v>
-      </c>
-      <c r="D12">
-        <v>-386032.3059617564</v>
-      </c>
-      <c r="E12">
-        <v>-75547.73414943043</v>
-      </c>
-      <c r="F12">
-        <v>-14003.22929577212</v>
-      </c>
-      <c r="G12">
-        <v>-201690.5328831206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2">
-        <v>44712</v>
-      </c>
-      <c r="B13">
-        <v>-827856.5372118291</v>
-      </c>
-      <c r="C13">
-        <v>19496.77589376661</v>
-      </c>
-      <c r="D13">
-        <v>44888.16680014903</v>
-      </c>
-      <c r="E13">
-        <v>-20727.12109061448</v>
-      </c>
-      <c r="F13">
-        <v>-22354.56257068421</v>
-      </c>
-      <c r="G13">
-        <v>-806553.2781792121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2">
-        <v>44742</v>
-      </c>
-      <c r="B14">
-        <v>985.9684235586756</v>
-      </c>
-      <c r="C14">
-        <v>55505.58317684446</v>
-      </c>
-      <c r="D14">
-        <v>-267483.1585681924</v>
-      </c>
-      <c r="E14">
-        <v>-28639.93374401218</v>
-      </c>
-      <c r="F14">
-        <v>-13830.30244497149</v>
-      </c>
-      <c r="G14">
-        <v>-253461.843156773</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2">
-        <v>44771</v>
-      </c>
-      <c r="B15">
-        <v>604446.3804075231</v>
-      </c>
-      <c r="C15">
-        <v>-57651.81117948105</v>
-      </c>
-      <c r="D15">
-        <v>584639.0159638354</v>
-      </c>
-      <c r="E15">
-        <v>103594.2208207428</v>
-      </c>
-      <c r="F15">
-        <v>28506.79862211423</v>
-      </c>
-      <c r="G15">
-        <v>1263534.604634735</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2">
-        <v>44804</v>
-      </c>
-      <c r="B16">
-        <v>18489.5385791522</v>
-      </c>
-      <c r="C16">
-        <v>-99127.20106876953</v>
-      </c>
-      <c r="D16">
-        <v>-35133.16287302595</v>
-      </c>
-      <c r="E16">
-        <v>-316776.9513711727</v>
-      </c>
-      <c r="F16">
-        <v>3441.557657602389</v>
-      </c>
-      <c r="G16">
-        <v>-429106.2190762137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2">
-        <v>44834</v>
-      </c>
-      <c r="B17">
-        <v>-213197.4855992762</v>
-      </c>
-      <c r="C17">
-        <v>112249.3945413526</v>
-      </c>
-      <c r="D17">
-        <v>755596.9525646262</v>
-      </c>
-      <c r="E17">
-        <v>286216.5979478186</v>
-      </c>
-      <c r="F17">
-        <v>-14795.04133913623</v>
-      </c>
-      <c r="G17">
-        <v>926070.418115385</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2">
-        <v>44865</v>
-      </c>
-      <c r="B18">
-        <v>65230.19666962032</v>
-      </c>
-      <c r="C18">
-        <v>-120827.1861940485</v>
-      </c>
-      <c r="D18">
-        <v>-861612.0324666953</v>
-      </c>
-      <c r="E18">
-        <v>-36060.3341288549</v>
-      </c>
-      <c r="F18">
-        <v>-24626.22762363526</v>
-      </c>
-      <c r="G18">
-        <v>-977895.5837436136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2">
-        <v>44895</v>
-      </c>
-      <c r="B19">
-        <v>-202395.6266245162</v>
-      </c>
-      <c r="C19">
-        <v>63855.37054572085</v>
-      </c>
-      <c r="D19">
-        <v>-202408.7885496903</v>
-      </c>
-      <c r="E19">
-        <v>107411.388232453</v>
-      </c>
-      <c r="F19">
-        <v>38809.11987540295</v>
-      </c>
-      <c r="G19">
-        <v>-194728.5365206297</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2">
-        <v>44925</v>
-      </c>
-      <c r="B20">
-        <v>-162191.2545557485</v>
-      </c>
-      <c r="C20">
-        <v>112821.0136280605</v>
-      </c>
-      <c r="D20">
-        <v>159019.9333527593</v>
-      </c>
-      <c r="E20">
-        <v>38425.9390821054</v>
-      </c>
-      <c r="F20">
-        <v>-22702.58907156734</v>
-      </c>
-      <c r="G20">
-        <v>125373.0424356094</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2">
-        <v>44957</v>
-      </c>
-      <c r="B21">
-        <v>-449741.698920191</v>
-      </c>
-      <c r="C21">
-        <v>102856.8604625943</v>
-      </c>
-      <c r="D21">
-        <v>-414946.2277959954</v>
-      </c>
-      <c r="E21">
-        <v>-65123.73854549587</v>
-      </c>
-      <c r="F21">
-        <v>-9333.482791745395</v>
-      </c>
-      <c r="G21">
-        <v>-836288.2875908334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2">
-        <v>44985</v>
-      </c>
-      <c r="B22">
-        <v>196302.5912564877</v>
-      </c>
-      <c r="C22">
-        <v>108876.9703882518</v>
-      </c>
-      <c r="D22">
-        <v>-249406.6762730192</v>
-      </c>
-      <c r="E22">
-        <v>-126024.0355675058</v>
-      </c>
-      <c r="F22">
-        <v>-20163.97043992</v>
-      </c>
-      <c r="G22">
-        <v>-90415.12063570552</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2">
-        <v>45016</v>
-      </c>
-      <c r="B23">
-        <v>-233846.4946230066</v>
-      </c>
-      <c r="C23">
-        <v>32419.70790873666</v>
-      </c>
-      <c r="D23">
-        <v>250719.7820259529</v>
-      </c>
-      <c r="E23">
-        <v>117362.4453661306</v>
-      </c>
-      <c r="F23">
-        <v>-21212.66328970247</v>
-      </c>
-      <c r="G23">
-        <v>145442.7773881111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2">
-        <v>45044</v>
-      </c>
-      <c r="B24">
-        <v>54313.56057521777</v>
-      </c>
-      <c r="C24">
-        <v>-5173.171493325746</v>
-      </c>
-      <c r="D24">
-        <v>196614.5920130438</v>
-      </c>
-      <c r="E24">
-        <v>216722.0630897829</v>
-      </c>
-      <c r="F24">
-        <v>-21149.82306765474</v>
-      </c>
-      <c r="G24">
-        <v>441327.2211170639</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="2">
-        <v>45077</v>
-      </c>
-      <c r="B25">
-        <v>214245.6494836844</v>
-      </c>
-      <c r="C25">
-        <v>64123.53781412201</v>
-      </c>
-      <c r="D25">
-        <v>267731.6544440346</v>
-      </c>
-      <c r="E25">
-        <v>186758.5339368613</v>
-      </c>
-      <c r="F25">
-        <v>-16232.84745125217</v>
-      </c>
-      <c r="G25">
-        <v>716626.5282274502</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2">
-        <v>45107</v>
-      </c>
-      <c r="B26">
-        <v>240009.0569931914</v>
-      </c>
-      <c r="C26">
-        <v>-32300.82872935699</v>
-      </c>
-      <c r="D26">
-        <v>-425172.5648402134</v>
-      </c>
-      <c r="E26">
-        <v>-32327.28061414295</v>
-      </c>
-      <c r="F26">
-        <v>-21258.43695833725</v>
-      </c>
-      <c r="G26">
-        <v>-271050.0541488592</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2">
-        <v>45138</v>
-      </c>
-      <c r="B27">
-        <v>233302.480007415</v>
-      </c>
-      <c r="C27">
-        <v>-318646.8734020959</v>
-      </c>
-      <c r="D27">
-        <v>124038.4790501531</v>
-      </c>
-      <c r="E27">
-        <v>197376.7900141551</v>
-      </c>
-      <c r="F27">
-        <v>-28262.01549882791</v>
-      </c>
-      <c r="G27">
-        <v>207808.8601707993</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="2">
-        <v>45169</v>
-      </c>
-      <c r="B28">
-        <v>-172571.9207960324</v>
-      </c>
-      <c r="C28">
-        <v>2737.751429217999</v>
-      </c>
-      <c r="D28">
-        <v>63319.56688120489</v>
-      </c>
-      <c r="E28">
-        <v>-40838.6185881288</v>
-      </c>
-      <c r="F28">
-        <v>-14330.29141541127</v>
-      </c>
-      <c r="G28">
-        <v>-161683.5124891496</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="2">
-        <v>45198</v>
-      </c>
-      <c r="B29">
-        <v>29629.61930432372</v>
-      </c>
-      <c r="C29">
-        <v>93108.17869809683</v>
-      </c>
-      <c r="D29">
-        <v>158387.9667371525</v>
-      </c>
-      <c r="E29">
-        <v>215367.44587351</v>
-      </c>
-      <c r="F29">
-        <v>-16867.73385052119</v>
-      </c>
-      <c r="G29">
-        <v>479625.4767625618</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="2">
-        <v>45230</v>
-      </c>
-      <c r="B30">
-        <v>-21684.76771798719</v>
-      </c>
-      <c r="C30">
-        <v>-107488.4926129904</v>
-      </c>
-      <c r="D30">
-        <v>140224.5026887226</v>
-      </c>
-      <c r="E30">
-        <v>10939.9396877318</v>
-      </c>
-      <c r="F30">
-        <v>-21172.56121153444</v>
-      </c>
-      <c r="G30">
-        <v>818.6208339423174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="2">
-        <v>45260</v>
-      </c>
-      <c r="B31">
-        <v>-133631.9747764805</v>
-      </c>
-      <c r="C31">
-        <v>-45036.12542118906</v>
-      </c>
-      <c r="D31">
-        <v>446406.5462700623</v>
-      </c>
-      <c r="E31">
-        <v>-40108.92016394756</v>
-      </c>
-      <c r="F31">
-        <v>-20202.60823951944</v>
-      </c>
-      <c r="G31">
-        <v>207426.9176689257</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2">
-        <v>45289</v>
-      </c>
-      <c r="B32">
-        <v>-179763.6777835447</v>
-      </c>
-      <c r="C32">
-        <v>107670.0431727215</v>
-      </c>
-      <c r="D32">
-        <v>-391629.0529689806</v>
-      </c>
-      <c r="E32">
-        <v>-101663.546674454</v>
-      </c>
-      <c r="F32">
-        <v>-21100.21852937153</v>
-      </c>
-      <c r="G32">
-        <v>-586486.4527836294</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="2">
-        <v>45322</v>
-      </c>
-      <c r="B33">
-        <v>-141231.2086980965</v>
-      </c>
-      <c r="C33">
-        <v>-49656.63968258396</v>
-      </c>
-      <c r="D33">
-        <v>949924.7474539529</v>
-      </c>
-      <c r="E33">
-        <v>312477.2503861118</v>
-      </c>
-      <c r="F33">
-        <v>-20881.57001614595</v>
-      </c>
-      <c r="G33">
-        <v>1050632.579443238</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="2">
-        <v>45351</v>
-      </c>
-      <c r="B34">
-        <v>-104248.3785025947</v>
-      </c>
-      <c r="C34">
-        <v>104277.8217094548</v>
-      </c>
-      <c r="D34">
-        <v>583881.2503343005</v>
-      </c>
-      <c r="E34">
-        <v>-17100.69284710382</v>
-      </c>
-      <c r="F34">
-        <v>-12337.30301901251</v>
-      </c>
-      <c r="G34">
-        <v>554472.6976750441</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="2">
-        <v>45379</v>
-      </c>
-      <c r="B35">
-        <v>164780.4023494268</v>
-      </c>
-      <c r="C35">
-        <v>96863.44439016096</v>
-      </c>
-      <c r="D35">
-        <v>-455444.4191707778</v>
-      </c>
-      <c r="E35">
-        <v>-128321.7638372316</v>
-      </c>
-      <c r="F35">
-        <v>959.9860462236684</v>
-      </c>
-      <c r="G35">
-        <v>-321162.3502221979</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="2">
-        <v>45412</v>
-      </c>
-      <c r="B36">
-        <v>-30821.24</v>
-      </c>
-      <c r="C36">
-        <v>99694.21998340306</v>
-      </c>
-      <c r="D36">
-        <v>-421594.0117745053</v>
-      </c>
-      <c r="E36">
-        <v>61060.36043040454</v>
-      </c>
-      <c r="F36">
-        <v>-14261.03356342358</v>
-      </c>
-      <c r="G36">
-        <v>-305921.7049241213</v>
+        <v>-4239.023172593275</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2">
+        <v>45443</v>
+      </c>
+      <c r="B37">
+        <v>-58365.14690228672</v>
+      </c>
+      <c r="C37">
+        <v>-249570.4245369269</v>
+      </c>
+      <c r="D37">
+        <v>211897.2808792449</v>
+      </c>
+      <c r="E37">
+        <v>941786.4048081371</v>
+      </c>
+      <c r="F37">
+        <v>6268.333199529207</v>
+      </c>
+      <c r="G37">
+        <v>852016.4474476976</v>
       </c>
     </row>
   </sheetData>
@@ -2942,19 +2351,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2962,22 +2371,22 @@
         <v>44377</v>
       </c>
       <c r="B2">
-        <v>33.72311827956989</v>
+        <v>-160662.9703990337</v>
       </c>
       <c r="C2">
-        <v>37.73049645390071</v>
+        <v>-118966.0986648845</v>
       </c>
       <c r="D2">
-        <v>53.16263513513513</v>
+        <v>-289122.6461008838</v>
       </c>
       <c r="E2">
-        <v>82.47964161177839</v>
+        <v>77072.97816919153</v>
       </c>
       <c r="F2">
-        <v>43.9401030927835</v>
+        <v>-61625.38368177324</v>
       </c>
       <c r="G2">
-        <v>45.4039859437751</v>
+        <v>-553304.1206773837</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2985,22 +2394,22 @@
         <v>44407</v>
       </c>
       <c r="B3">
-        <v>37.04663212435234</v>
+        <v>-308311.9164055865</v>
       </c>
       <c r="C3">
-        <v>40.90225563909775</v>
+        <v>-102212.806530777</v>
       </c>
       <c r="D3">
-        <v>50.59006211180125</v>
+        <v>207155.7479653131</v>
       </c>
       <c r="E3">
-        <v>71.5414810868407</v>
+        <v>96955.44857460896</v>
       </c>
       <c r="F3">
-        <v>43.34630967741935</v>
+        <v>-38305.62963726957</v>
       </c>
       <c r="G3">
-        <v>41.46673240699238</v>
+        <v>-144719.1560337112</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3008,22 +2417,22 @@
         <v>44439</v>
       </c>
       <c r="B4">
-        <v>34.125</v>
+        <v>-186824.3405301447</v>
       </c>
       <c r="C4">
-        <v>40.23529411764706</v>
+        <v>-74014.24779317652</v>
       </c>
       <c r="D4">
-        <v>47.95010288065843</v>
+        <v>-478545.3936427466</v>
       </c>
       <c r="E4">
-        <v>86.16815315315314</v>
+        <v>-302530.0883158635</v>
       </c>
       <c r="F4">
-        <v>54.35408822191905</v>
+        <v>-61360.94306965161</v>
       </c>
       <c r="G4">
-        <v>45.10563540753725</v>
+        <v>-1103275.013351583</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3031,22 +2440,22 @@
         <v>44469</v>
       </c>
       <c r="B5">
-        <v>36.58008658008657</v>
+        <v>-295815.7705518786</v>
       </c>
       <c r="C5">
-        <v>47.71929824561403</v>
+        <v>-130453.006657042</v>
       </c>
       <c r="D5">
-        <v>56.67233009708738</v>
+        <v>-20434.0385970844</v>
       </c>
       <c r="E5">
-        <v>76.88012845849802</v>
+        <v>-777589.8335599661</v>
       </c>
       <c r="F5">
-        <v>65.19528374233128</v>
+        <v>-60010.02464218362</v>
       </c>
       <c r="G5">
-        <v>44.41996061441512</v>
+        <v>-1284302.674008155</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3054,22 +2463,22 @@
         <v>44498</v>
       </c>
       <c r="B6">
-        <v>44.6875</v>
+        <v>-347962.383976086</v>
       </c>
       <c r="C6">
-        <v>39.01960784313725</v>
+        <v>-37759.87496591391</v>
       </c>
       <c r="D6">
-        <v>45.60077519379845</v>
+        <v>192921.5494416387</v>
       </c>
       <c r="E6">
-        <v>71.89930515063168</v>
+        <v>441398.7948970263</v>
       </c>
       <c r="F6">
-        <v>33.16807277628033</v>
+        <v>-61682.12915391463</v>
       </c>
       <c r="G6">
-        <v>45.52370956146657</v>
+        <v>186915.9562427505</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3077,22 +2486,22 @@
         <v>44530</v>
       </c>
       <c r="B7">
-        <v>37.72727272727273</v>
+        <v>-322923.4362508156</v>
       </c>
       <c r="C7">
-        <v>42.16080402010051</v>
+        <v>-31368.12</v>
       </c>
       <c r="D7">
-        <v>45.25</v>
+        <v>-1072936.532773706</v>
       </c>
       <c r="E7">
-        <v>97.06567365014479</v>
+        <v>-643875.1977252875</v>
       </c>
       <c r="F7">
-        <v>62.31855865921787</v>
+        <v>-48593.74647164538</v>
       </c>
       <c r="G7">
-        <v>42.42165813060179</v>
+        <v>-2119697.033221454</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3100,22 +2509,22 @@
         <v>44561</v>
       </c>
       <c r="B8">
-        <v>39.93975903614458</v>
+        <v>-348244.3225476508</v>
       </c>
       <c r="C8">
-        <v>41.23957091775924</v>
+        <v>-67611.32852198851</v>
       </c>
       <c r="D8">
-        <v>47.47769230769231</v>
+        <v>-189981.800735359</v>
       </c>
       <c r="E8">
-        <v>80.47544381053468</v>
+        <v>-3985.455413178242</v>
       </c>
       <c r="F8">
-        <v>46.31955628594906</v>
+        <v>-39579.47090242895</v>
       </c>
       <c r="G8">
-        <v>41.56931171612114</v>
+        <v>-649402.3781206055</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3123,22 +2532,22 @@
         <v>44592</v>
       </c>
       <c r="B9">
-        <v>36.00490196078432</v>
+        <v>-277234.1646728615</v>
       </c>
       <c r="C9">
-        <v>43.93063583815029</v>
+        <v>-96286.78836877414</v>
       </c>
       <c r="D9">
-        <v>49.92760263929618</v>
+        <v>-355046.8037861771</v>
       </c>
       <c r="E9">
-        <v>83.78176140613314</v>
+        <v>-192328.6335938827</v>
       </c>
       <c r="F9">
-        <v>51.5245948509485</v>
+        <v>129291.0908235979</v>
       </c>
       <c r="G9">
-        <v>35.10967183770883</v>
+        <v>-791605.2995980976</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3146,22 +2555,22 @@
         <v>44620</v>
       </c>
       <c r="B10">
-        <v>27.61061946902655</v>
+        <v>568426.3694712322</v>
       </c>
       <c r="C10">
-        <v>37.47368421052632</v>
+        <v>-81616.28110718835</v>
       </c>
       <c r="D10">
-        <v>48.55730897009967</v>
+        <v>281786.9030134155</v>
       </c>
       <c r="E10">
-        <v>69.59624479694003</v>
+        <v>106784.4623399865</v>
       </c>
       <c r="F10">
-        <v>43.05158179703507</v>
+        <v>-36066.86782382243</v>
       </c>
       <c r="G10">
-        <v>41.29410265242852</v>
+        <v>839314.5858936233</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3169,22 +2578,22 @@
         <v>44651</v>
       </c>
       <c r="B11">
-        <v>20.65104166666666</v>
+        <v>1846246.671365639</v>
       </c>
       <c r="C11">
-        <v>43.14606741573034</v>
+        <v>27674.24398048324</v>
       </c>
       <c r="D11">
-        <v>42.53219814241486</v>
+        <v>246645.6460317271</v>
       </c>
       <c r="E11">
-        <v>70.52744072353948</v>
+        <v>56388.89663764625</v>
       </c>
       <c r="F11">
-        <v>44.55401007877984</v>
+        <v>-48189.89713249492</v>
       </c>
       <c r="G11">
-        <v>42.37711870138654</v>
+        <v>2128765.560883001</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3192,22 +2601,22 @@
         <v>44680</v>
       </c>
       <c r="B12">
-        <v>29.83606557377049</v>
+        <v>235508.3195576144</v>
       </c>
       <c r="C12">
-        <v>40.41666666666667</v>
+        <v>-31368.12</v>
       </c>
       <c r="D12">
-        <v>45.25</v>
+        <v>-328405.2413240877</v>
       </c>
       <c r="E12">
-        <v>83.25818134171909</v>
+        <v>-93107.93821568457</v>
       </c>
       <c r="F12">
-        <v>48.84218688135146</v>
+        <v>-13885.23451040563</v>
       </c>
       <c r="G12">
-        <v>39.92357165965707</v>
+        <v>-231258.2144925635</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3215,22 +2624,22 @@
         <v>44712</v>
       </c>
       <c r="B13">
-        <v>41.20535714285714</v>
+        <v>-352704.9271257754</v>
       </c>
       <c r="C13">
-        <v>39.17525773195876</v>
+        <v>-41765.42677582108</v>
       </c>
       <c r="D13">
-        <v>45.82829380764164</v>
+        <v>51585.57118073685</v>
       </c>
       <c r="E13">
-        <v>75.2681175630652</v>
+        <v>-23271.29270599764</v>
       </c>
       <c r="F13">
-        <v>46.87429969040247</v>
+        <v>-56268.94920954047</v>
       </c>
       <c r="G13">
-        <v>43.49659658344283</v>
+        <v>-422425.0246363977</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3238,22 +2647,22 @@
         <v>44742</v>
       </c>
       <c r="B14">
-        <v>32.13380281690141</v>
+        <v>-30389.58438757328</v>
       </c>
       <c r="C14">
-        <v>41.47368421052632</v>
+        <v>-21556.24792214725</v>
       </c>
       <c r="D14">
-        <v>44.73786912969949</v>
+        <v>-227028.6615604829</v>
       </c>
       <c r="E14">
-        <v>81.2314941429596</v>
+        <v>-33331.65282899787</v>
       </c>
       <c r="F14">
-        <v>47.16178350889938</v>
+        <v>9465.809752784859</v>
       </c>
       <c r="G14">
-        <v>39.89453766074709</v>
+        <v>-302840.3369464165</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3261,22 +2670,22 @@
         <v>44771</v>
       </c>
       <c r="B15">
-        <v>26.85185185185185</v>
+        <v>694507.3496204464</v>
       </c>
       <c r="C15">
-        <v>41.42131979695431</v>
+        <v>-72163.08586305878</v>
       </c>
       <c r="D15">
-        <v>47.81019736842105</v>
+        <v>412257.5771372901</v>
       </c>
       <c r="E15">
-        <v>65.84328771695594</v>
+        <v>133782.2747666229</v>
       </c>
       <c r="F15">
-        <v>42.23866219555241</v>
+        <v>45344.2967948475</v>
       </c>
       <c r="G15">
-        <v>36.51627255756067</v>
+        <v>1213728.412456148</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3284,22 +2693,22 @@
         <v>44804</v>
       </c>
       <c r="B16">
-        <v>31.93965517241379</v>
+        <v>-11440.64636891564</v>
       </c>
       <c r="C16">
-        <v>46.07843137254902</v>
+        <v>-84462.85895141002</v>
       </c>
       <c r="D16">
-        <v>48.80012453300124</v>
+        <v>-21541.3197599066</v>
       </c>
       <c r="E16">
-        <v>76.90446020186535</v>
+        <v>-402802.4371774587</v>
       </c>
       <c r="F16">
-        <v>56.80626452189455</v>
+        <v>30244.04702864206</v>
       </c>
       <c r="G16">
-        <v>38.0333816925734</v>
+        <v>-490003.2152290489</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3307,22 +2716,22 @@
         <v>44834</v>
       </c>
       <c r="B17">
-        <v>35.06578947368421</v>
+        <v>-238254.0739949656</v>
       </c>
       <c r="C17">
-        <v>43.74468085106383</v>
+        <v>76833.8924848139</v>
       </c>
       <c r="D17">
-        <v>40.75635103926097</v>
+        <v>488183.408473374</v>
       </c>
       <c r="E17">
-        <v>63.37715488004019</v>
+        <v>361516.8952744862</v>
       </c>
       <c r="F17">
-        <v>35.41688021423421</v>
+        <v>-16498.13766594556</v>
       </c>
       <c r="G17">
-        <v>40.06235640648012</v>
+        <v>671781.9845717631</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3330,22 +2739,22 @@
         <v>44865</v>
       </c>
       <c r="B18">
-        <v>31.44308943089431</v>
+        <v>40052.26010090688</v>
       </c>
       <c r="C18">
-        <v>40.46692607003891</v>
+        <v>-90099.06095154161</v>
       </c>
       <c r="D18">
-        <v>49.31089743589743</v>
+        <v>-715976.1193193819</v>
       </c>
       <c r="E18">
-        <v>90.61189420050951</v>
+        <v>-42772.3156001544</v>
       </c>
       <c r="F18">
-        <v>47.43035452485672</v>
+        <v>-61633.83044140655</v>
       </c>
       <c r="G18">
-        <v>45.41869597615499</v>
+        <v>-870429.0662115777</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3353,22 +2762,22 @@
         <v>44895</v>
       </c>
       <c r="B19">
-        <v>34.95798319327731</v>
+        <v>-233023.0148355129</v>
       </c>
       <c r="C19">
-        <v>40.15384615384615</v>
+        <v>-15815.37687171354</v>
       </c>
       <c r="D19">
-        <v>44.45147058823529</v>
+        <v>-170429.1481971933</v>
       </c>
       <c r="E19">
-        <v>80.0726540440165</v>
+        <v>138573.5978250657</v>
       </c>
       <c r="F19">
-        <v>42.09395492594977</v>
+        <v>94031.21571379006</v>
       </c>
       <c r="G19">
-        <v>36.03705354173595</v>
+        <v>-186662.7263655639</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3376,22 +2785,22 @@
         <v>44925</v>
       </c>
       <c r="B20">
-        <v>34.27734375</v>
+        <v>-196065.4087048459</v>
       </c>
       <c r="C20">
-        <v>34.94252873563219</v>
+        <v>57519.95716249716</v>
       </c>
       <c r="D20">
-        <v>41.41323353293414</v>
+        <v>158338.4387082739</v>
       </c>
       <c r="E20">
-        <v>72.75309514146832</v>
+        <v>51699.38202982499</v>
       </c>
       <c r="F20">
-        <v>44.69260375771172</v>
+        <v>-58656.02482531354</v>
       </c>
       <c r="G20">
-        <v>44.01312383090161</v>
+        <v>12836.34437043662</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3399,22 +2808,22 @@
         <v>44957</v>
       </c>
       <c r="B21">
-        <v>37.07407407407408</v>
+        <v>-308980.7403811488</v>
       </c>
       <c r="C21">
-        <v>35.20701754385965</v>
+        <v>25163.51023638847</v>
       </c>
       <c r="D21">
-        <v>42.63281863386548</v>
+        <v>-352808.9578706761</v>
       </c>
       <c r="E21">
-        <v>83.73791262731623</v>
+        <v>-79804.98257394168</v>
       </c>
       <c r="F21">
-        <v>48.47239108554997</v>
+        <v>-100.424667310479</v>
       </c>
       <c r="G21">
-        <v>39.25478980013784</v>
+        <v>-716531.5952566887</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3422,22 +2831,22 @@
         <v>44985</v>
       </c>
       <c r="B22">
-        <v>30.17857142857143</v>
+        <v>190318.5679002067</v>
       </c>
       <c r="C22">
-        <v>34.48275862068965</v>
+        <v>38573.21406964556</v>
       </c>
       <c r="D22">
-        <v>42.10763888888889</v>
+        <v>-211376.3534160686</v>
       </c>
       <c r="E22">
-        <v>80.91316392132964</v>
+        <v>-157659.974562509</v>
       </c>
       <c r="F22">
-        <v>50.6024007612833</v>
+        <v>-38985.22563024794</v>
       </c>
       <c r="G22">
-        <v>41.52103914590747</v>
+        <v>-179129.7716389732</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3445,22 +2854,22 @@
         <v>45016</v>
       </c>
       <c r="B23">
-        <v>35.22727272727273</v>
+        <v>-245785.625435208</v>
       </c>
       <c r="C23">
-        <v>45.31791907514452</v>
+        <v>173172.1675005403</v>
       </c>
       <c r="D23">
-        <v>36.80783582089553</v>
+        <v>246580.0343550252</v>
       </c>
       <c r="E23">
-        <v>70.5291530885435</v>
+        <v>151055.9673638894</v>
       </c>
       <c r="F23">
-        <v>41.71647254370845</v>
+        <v>-45834.94539893248</v>
       </c>
       <c r="G23">
-        <v>42.13173731758165</v>
+        <v>279187.5983853146</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3468,22 +2877,22 @@
         <v>45044</v>
       </c>
       <c r="B24">
-        <v>31.55645161290322</v>
+        <v>27914.92030782587</v>
       </c>
       <c r="C24">
-        <v>44.28571428571429</v>
+        <v>-52886.18854870384</v>
       </c>
       <c r="D24">
-        <v>46.4954128440367</v>
+        <v>194219.0833387605</v>
       </c>
       <c r="E24">
-        <v>71.86684759684759</v>
+        <v>275126.974019353</v>
       </c>
       <c r="F24">
-        <v>37.96333288245637</v>
+        <v>-45362.70534895709</v>
       </c>
       <c r="G24">
-        <v>42.0851554663992</v>
+        <v>399012.0837682784</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3491,22 +2900,22 @@
         <v>45077</v>
       </c>
       <c r="B25">
-        <v>30.01661129568107</v>
+        <v>211460.4175211514</v>
       </c>
       <c r="C25">
-        <v>43.13364055299539</v>
+        <v>-15621.64552494815</v>
       </c>
       <c r="D25">
-        <v>44.44196428571428</v>
+        <v>263237.9224298503</v>
       </c>
       <c r="E25">
-        <v>70.09134415508584</v>
+        <v>237803.88839863</v>
       </c>
       <c r="F25">
-        <v>39.08721260613977</v>
+        <v>-21545.05458645938</v>
       </c>
       <c r="G25">
-        <v>40.34415458937198</v>
+        <v>675335.5282382243</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3514,22 +2923,22 @@
         <v>45107</v>
       </c>
       <c r="B26">
-        <v>29.78776978417266</v>
+        <v>242025.4807409611</v>
       </c>
       <c r="C26">
-        <v>39.14529914529914</v>
+        <v>88015.63513702177</v>
       </c>
       <c r="D26">
-        <v>34.96590909090909</v>
+        <v>-361411.0745345334</v>
       </c>
       <c r="E26">
-        <v>83.9063353489544</v>
+        <v>-38022.14273993557</v>
       </c>
       <c r="F26">
-        <v>47.29536664752058</v>
+        <v>-46954.94277617397</v>
       </c>
       <c r="G26">
-        <v>42.16684789644012</v>
+        <v>-116347.0441726599</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3537,22 +2946,22 @@
         <v>45138</v>
       </c>
       <c r="B27">
-        <v>29.8469387755102</v>
+        <v>234045.9404573796</v>
       </c>
       <c r="C27">
-        <v>39.12663755458515</v>
+        <v>183439.5207325502</v>
       </c>
       <c r="D27">
-        <v>69.73823529411764</v>
+        <v>125286.6381094684</v>
       </c>
       <c r="E27">
-        <v>73.55000730956975</v>
+        <v>251037.5372368147</v>
       </c>
       <c r="F27">
-        <v>38.68766233766234</v>
+        <v>-61295.75570911821</v>
       </c>
       <c r="G27">
-        <v>46.54405724953328</v>
+        <v>732513.8808270951</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3560,22 +2969,22 @@
         <v>45169</v>
       </c>
       <c r="B28">
-        <v>34.44444444444444</v>
+        <v>-205785.2939676949</v>
       </c>
       <c r="C28">
-        <v>38.57142857142857</v>
+        <v>-49498.78879243253</v>
       </c>
       <c r="D28">
-        <v>46.28625954198473</v>
+        <v>68620.75717679357</v>
       </c>
       <c r="E28">
-        <v>74.87764440163899</v>
+        <v>-48854.73812441967</v>
       </c>
       <c r="F28">
-        <v>47.60276483516483</v>
+        <v>-14951.96570711458</v>
       </c>
       <c r="G28">
-        <v>39.97969105691057</v>
+        <v>-250470.0294148681</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3583,22 +2992,22 @@
         <v>45198</v>
       </c>
       <c r="B29">
-        <v>31.81854838709678</v>
+        <v>717.2402223188328</v>
       </c>
       <c r="C29">
-        <v>38.14814814814815</v>
+        <v>10951.2554001298</v>
       </c>
       <c r="D29">
-        <v>43.22388059701493</v>
+        <v>157738.5492319497</v>
       </c>
       <c r="E29">
-        <v>72.76771977374499</v>
+        <v>273440.9453884749</v>
       </c>
       <c r="F29">
-        <v>38.01388066017774</v>
+        <v>-23927.13286259616</v>
       </c>
       <c r="G29">
-        <v>40.48429788403408</v>
+        <v>418920.8573802771</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3606,22 +3015,22 @@
         <v>45230</v>
       </c>
       <c r="B30">
-        <v>32.39291598023064</v>
+        <v>-54639.33909191775</v>
       </c>
       <c r="C30">
-        <v>37.47572935900642</v>
+        <v>-86694.25775305206</v>
       </c>
       <c r="D30">
-        <v>48.997265625</v>
+        <v>140541.2350677066</v>
       </c>
       <c r="E30">
-        <v>73.1844067589078</v>
+        <v>16916.97063929334</v>
       </c>
       <c r="F30">
-        <v>45.71308673469387</v>
+        <v>-45532.42620924724</v>
       </c>
       <c r="G30">
-        <v>42.10180517336268</v>
+        <v>-29407.81734721712</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3629,22 +3038,22 @@
         <v>45260</v>
       </c>
       <c r="B31">
-        <v>33.84297520661157</v>
+        <v>-168739.981843095</v>
       </c>
       <c r="C31">
-        <v>39.99999871525775</v>
+        <v>-67961.24883953837</v>
       </c>
       <c r="D31">
-        <v>47.50270562770564</v>
+        <v>348967.0663993401</v>
       </c>
       <c r="E31">
-        <v>67.72857811511702</v>
+        <v>-47925.71429151703</v>
       </c>
       <c r="F31">
-        <v>47.57646291560103</v>
+        <v>-39207.38770166126</v>
       </c>
       <c r="G31">
-        <v>41.53899841017488</v>
+        <v>25132.73372352844</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3652,22 +3061,22 @@
         <v>45289</v>
       </c>
       <c r="B32">
-        <v>34.56349206349206</v>
+        <v>-212448.9525779619</v>
       </c>
       <c r="C32">
-        <v>41.0362694300515</v>
+        <v>35294.2207068594</v>
       </c>
       <c r="D32">
-        <v>42.23333333333334</v>
+        <v>-333138.5127830959</v>
       </c>
       <c r="E32">
-        <v>83.35145600903827</v>
+        <v>-126480.1220842096</v>
       </c>
       <c r="F32">
-        <v>49.75925351071692</v>
+        <v>-44997.13450654686</v>
       </c>
       <c r="G32">
-        <v>42.04963537626067</v>
+        <v>-681770.5012449549</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3675,22 +3084,22 @@
         <v>45322</v>
       </c>
       <c r="B33">
-        <v>33.95522388059701</v>
+        <v>-176091.4254001293</v>
       </c>
       <c r="C33">
-        <v>37.17171717171717</v>
+        <v>-69528.0066073679</v>
       </c>
       <c r="D33">
-        <v>47.61579528718704</v>
+        <v>570793.5740532361</v>
       </c>
       <c r="E33">
-        <v>60.35433128362798</v>
+        <v>394135.6051027367</v>
       </c>
       <c r="F33">
-        <v>34.48429316995689</v>
+        <v>-43453.5096911967</v>
       </c>
       <c r="G33">
-        <v>41.90447270007479</v>
+        <v>675856.237457279</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3698,22 +3107,22 @@
         <v>45351</v>
       </c>
       <c r="B34">
-        <v>33.42857142857142</v>
+        <v>-139801.0031600827</v>
       </c>
       <c r="C34">
-        <v>38.47826086956522</v>
+        <v>27810.53382914521</v>
       </c>
       <c r="D34">
-        <v>42.52676696990903</v>
+        <v>411915.0213681157</v>
       </c>
       <c r="E34">
-        <v>65.85387096774194</v>
+        <v>-18663.03680934641</v>
       </c>
       <c r="F34">
-        <v>46.7421773220748</v>
+        <v>-8688.99920543655</v>
       </c>
       <c r="G34">
-        <v>39.65997105643994</v>
+        <v>272572.5160223953</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3721,22 +3130,22 @@
         <v>45379</v>
       </c>
       <c r="B35">
-        <v>30.46875</v>
+        <v>153483.225662681</v>
       </c>
       <c r="C35">
-        <v>41.35593220338983</v>
+        <v>124529.1492227176</v>
       </c>
       <c r="D35">
-        <v>39.31999255398362</v>
+        <v>-386787.5348867558</v>
       </c>
       <c r="E35">
-        <v>84.40121245623732</v>
+        <v>-160603.2078284556</v>
       </c>
       <c r="F35">
-        <v>50.68131283264341</v>
+        <v>24876.3536807866</v>
       </c>
       <c r="G35">
-        <v>38.23113905325443</v>
+        <v>-244502.0141490261</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3744,45 +3153,45 @@
         <v>45412</v>
       </c>
       <c r="B36">
-        <v>32.5</v>
+        <v>-64314.23</v>
       </c>
       <c r="C36">
-        <v>40.65573770491803</v>
+        <v>19933.72238850033</v>
       </c>
       <c r="D36">
-        <v>42.84597257926307</v>
+        <v>-358402.6032152387</v>
       </c>
       <c r="E36">
-        <v>83.84747111257843</v>
+        <v>80270.1394967026</v>
       </c>
       <c r="F36">
-        <v>43.84485026737968</v>
+        <v>-14724.64549737098</v>
       </c>
       <c r="G36">
-        <v>39.96767058823529</v>
+        <v>-337237.6168274067</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45435</v>
+        <v>45443</v>
       </c>
       <c r="B37">
-        <v>31.29629629629629</v>
+        <v>4868.496902286715</v>
       </c>
       <c r="C37">
-        <v>39.65591397849462</v>
+        <v>70984.55453692688</v>
       </c>
       <c r="D37">
-        <v>36.8552036199095</v>
+        <v>-250706.3408792449</v>
       </c>
       <c r="E37">
-        <v>83.54466061327777</v>
+        <v>-641376.4348081371</v>
       </c>
       <c r="F37">
-        <v>56.97368362213526</v>
+        <v>-26422.99319952921</v>
       </c>
       <c r="G37">
-        <v>41.84080615221427</v>
+        <v>-842652.7174476977</v>
       </c>
     </row>
   </sheetData>
@@ -3792,7 +3201,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3806,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -3826,22 +3235,22 @@
         <v>44377</v>
       </c>
       <c r="B2">
-        <v>1.223118279569889</v>
+        <v>35.53897849462366</v>
       </c>
       <c r="C2">
-        <v>-2.269503546099287</v>
+        <v>36.31560283687944</v>
       </c>
       <c r="D2">
-        <v>7.912635135135133</v>
+        <v>59.74187837837837</v>
       </c>
       <c r="E2">
-        <v>6.869641611778391</v>
+        <v>74.09095699341343</v>
       </c>
       <c r="F2">
-        <v>-1.889896907216496</v>
+        <v>45.57958762886598</v>
       </c>
       <c r="G2">
-        <v>4.863985943775099</v>
+        <v>41.08086345381526</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3849,22 +3258,22 @@
         <v>44407</v>
       </c>
       <c r="B3">
-        <v>4.546632124352335</v>
+        <v>39.04145077720207</v>
       </c>
       <c r="C3">
-        <v>0.9022556390977456</v>
+        <v>39.36842105263158</v>
       </c>
       <c r="D3">
-        <v>5.340062111801245</v>
+        <v>56.85093167701864</v>
       </c>
       <c r="E3">
-        <v>-4.068518913159295</v>
+        <v>64.26527437400107</v>
       </c>
       <c r="F3">
-        <v>-2.483690322580649</v>
+        <v>44.96363870967741</v>
       </c>
       <c r="G3">
-        <v>0.9267324069923788</v>
+        <v>37.51849394890184</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3872,22 +3281,22 @@
         <v>44439</v>
       </c>
       <c r="B4">
-        <v>1.625</v>
+        <v>35.9625</v>
       </c>
       <c r="C4">
-        <v>0.235294117647058</v>
+        <v>38.72647058823529</v>
       </c>
       <c r="D4">
-        <v>2.700102880658434</v>
+        <v>53.88425925925925</v>
       </c>
       <c r="E4">
-        <v>10.55815315315314</v>
+        <v>77.40432432432432</v>
       </c>
       <c r="F4">
-        <v>8.524088221919051</v>
+        <v>56.38213733515234</v>
       </c>
       <c r="G4">
-        <v>4.565635407537251</v>
+        <v>40.81092024539878</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3895,22 +3304,22 @@
         <v>44469</v>
       </c>
       <c r="B5">
-        <v>4.080086580086572</v>
+        <v>38.54978354978355</v>
       </c>
       <c r="C5">
-        <v>7.719298245614027</v>
+        <v>45.9298245614035</v>
       </c>
       <c r="D5">
-        <v>11.42233009708738</v>
+        <v>63.68592233009709</v>
       </c>
       <c r="E5">
-        <v>1.270128458498021</v>
+        <v>69.0609486166008</v>
       </c>
       <c r="F5">
-        <v>19.36528374233129</v>
+        <v>67.62783742331288</v>
       </c>
       <c r="G5">
-        <v>3.879960614415126</v>
+        <v>40.19053170539583</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3918,22 +3327,22 @@
         <v>44498</v>
       </c>
       <c r="B6">
-        <v>12.1875</v>
+        <v>47.09375</v>
       </c>
       <c r="C6">
-        <v>-0.9803921568627487</v>
+        <v>37.55637254901961</v>
       </c>
       <c r="D6">
-        <v>0.350775193798448</v>
+        <v>51.24418604651163</v>
       </c>
       <c r="E6">
-        <v>-3.710694849368323</v>
+        <v>64.5867055393586</v>
       </c>
       <c r="F6">
-        <v>-12.66192722371967</v>
+        <v>34.4056334231806</v>
       </c>
       <c r="G6">
-        <v>4.983709561466569</v>
+        <v>41.18918763479511</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3941,22 +3350,22 @@
         <v>44530</v>
       </c>
       <c r="B7">
-        <v>5.227272727272727</v>
+        <v>39.75874125874126</v>
       </c>
       <c r="C7">
-        <v>2.160804020100507</v>
+        <v>40.57977386934674</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>50.85</v>
       </c>
       <c r="E7">
-        <v>21.45567365014479</v>
+        <v>87.19350025549311</v>
       </c>
       <c r="F7">
-        <v>16.48855865921787</v>
+        <v>64.64377653631284</v>
       </c>
       <c r="G7">
-        <v>1.881658130601792</v>
+        <v>38.38249679897567</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3964,22 +3373,22 @@
         <v>44561</v>
       </c>
       <c r="B8">
-        <v>7.439759036144579</v>
+        <v>42.09036144578313</v>
       </c>
       <c r="C8">
-        <v>1.239570917759238</v>
+        <v>39.69308700834326</v>
       </c>
       <c r="D8">
-        <v>2.227692307692308</v>
+        <v>53.35338461538461</v>
       </c>
       <c r="E8">
-        <v>4.865443810534686</v>
+        <v>72.29059838131882</v>
       </c>
       <c r="F8">
-        <v>0.4895562859490568</v>
+        <v>48.04782251437963</v>
       </c>
       <c r="G8">
-        <v>1.029311716121143</v>
+        <v>37.61130620985011</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3987,22 +3396,22 @@
         <v>44592</v>
       </c>
       <c r="B9">
-        <v>3.504901960784316</v>
+        <v>37.94362745098039</v>
       </c>
       <c r="C9">
-        <v>3.930635838150287</v>
+        <v>42.28323699421966</v>
       </c>
       <c r="D9">
-        <v>4.677602639296182</v>
+        <v>56.10648826979472</v>
       </c>
       <c r="E9">
-        <v>8.171761406133143</v>
+        <v>75.26064323111444</v>
       </c>
       <c r="F9">
-        <v>5.694594850948505</v>
+        <v>53.4470704607046</v>
       </c>
       <c r="G9">
-        <v>-5.430328162291168</v>
+        <v>31.76671837708831</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4010,22 +3419,22 @@
         <v>44620</v>
       </c>
       <c r="B10">
-        <v>-4.889380530973451</v>
+        <v>29.09734513274336</v>
       </c>
       <c r="C10">
-        <v>-2.526315789473685</v>
+        <v>36.06842105263158</v>
       </c>
       <c r="D10">
-        <v>3.307308970099669</v>
+        <v>54.56661129568106</v>
       </c>
       <c r="E10">
-        <v>-6.013755203059972</v>
+        <v>62.51788052649341</v>
       </c>
       <c r="F10">
-        <v>-2.778418202964929</v>
+        <v>44.65791400024105</v>
       </c>
       <c r="G10">
-        <v>0.7541026524285215</v>
+        <v>37.36230106786083</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4033,22 +3442,22 @@
         <v>44651</v>
       </c>
       <c r="B11">
-        <v>-11.84895833333334</v>
+        <v>21.76302083333333</v>
       </c>
       <c r="C11">
-        <v>3.146067415730336</v>
+        <v>41.52808988764045</v>
       </c>
       <c r="D11">
-        <v>-2.717801857585137</v>
+        <v>47.79585139318886</v>
       </c>
       <c r="E11">
-        <v>-5.082559276460515</v>
+        <v>63.35436812515278</v>
       </c>
       <c r="F11">
-        <v>-1.275989921220159</v>
+        <v>46.21640059230185</v>
       </c>
       <c r="G11">
-        <v>1.837118701386544</v>
+        <v>38.34219817382482</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4056,22 +3465,22 @@
         <v>44680</v>
       </c>
       <c r="B12">
-        <v>-2.663934426229506</v>
+        <v>31.44262295081967</v>
       </c>
       <c r="C12">
-        <v>0.4166666666666714</v>
+        <v>38.90104166666667</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>50.85</v>
       </c>
       <c r="E12">
-        <v>7.648181341719095</v>
+        <v>74.79031446540881</v>
       </c>
       <c r="F12">
-        <v>3.012186881351461</v>
+        <v>50.66457700937046</v>
       </c>
       <c r="G12">
-        <v>-0.616428340342928</v>
+        <v>36.12226463927531</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4079,22 +3488,22 @@
         <v>44712</v>
       </c>
       <c r="B13">
-        <v>8.705357142857139</v>
+        <v>43.42410714285714</v>
       </c>
       <c r="C13">
-        <v>-0.8247422680412413</v>
+        <v>37.70618556701031</v>
       </c>
       <c r="D13">
-        <v>0.5782938076416357</v>
+        <v>51.49986166007906</v>
       </c>
       <c r="E13">
-        <v>-0.3418824369347959</v>
+        <v>67.61288910042836</v>
       </c>
       <c r="F13">
-        <v>1.044299690402475</v>
+        <v>48.62326439628482</v>
       </c>
       <c r="G13">
-        <v>2.956596583442831</v>
+        <v>39.35508541392903</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4102,22 +3511,22 @@
         <v>44742</v>
       </c>
       <c r="B14">
-        <v>-0.3661971830985919</v>
+        <v>33.86408450704226</v>
       </c>
       <c r="C14">
-        <v>1.473684210526315</v>
+        <v>39.91842105263157</v>
       </c>
       <c r="D14">
-        <v>-0.5121308703005099</v>
+        <v>50.2744893976844</v>
       </c>
       <c r="E14">
-        <v>5.621494142959605</v>
+        <v>72.96975376524026</v>
       </c>
       <c r="F14">
-        <v>1.331783508899377</v>
+        <v>48.92147475481293</v>
       </c>
       <c r="G14">
-        <v>-0.6454623392529086</v>
+        <v>35.14137170851195</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4125,22 +3534,22 @@
         <v>44771</v>
       </c>
       <c r="B15">
-        <v>-5.648148148148149</v>
+        <v>28.2977207977208</v>
       </c>
       <c r="C15">
-        <v>1.421319796954315</v>
+        <v>39.86802030456852</v>
       </c>
       <c r="D15">
-        <v>2.560197368421051</v>
+        <v>53.72703947368421</v>
       </c>
       <c r="E15">
-        <v>-9.766712283044058</v>
+        <v>59.14662216288384</v>
       </c>
       <c r="F15">
-        <v>-3.591337804447583</v>
+        <v>43.81466290151783</v>
       </c>
       <c r="G15">
-        <v>-4.023727442439331</v>
+        <v>33.93691275167785</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4148,22 +3557,22 @@
         <v>44804</v>
       </c>
       <c r="B16">
-        <v>-0.5603448275862064</v>
+        <v>33.65948275862069</v>
       </c>
       <c r="C16">
-        <v>6.078431372549019</v>
+        <v>44.35049019607843</v>
       </c>
       <c r="D16">
-        <v>3.550124533001238</v>
+        <v>54.83947696139477</v>
       </c>
       <c r="E16">
-        <v>1.294460201865348</v>
+        <v>69.08280567267153</v>
       </c>
       <c r="F16">
-        <v>10.97626452189455</v>
+        <v>58.92580875781948</v>
       </c>
       <c r="G16">
-        <v>-2.506618307426599</v>
+        <v>34.41204835924007</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4171,22 +3580,22 @@
         <v>44834</v>
       </c>
       <c r="B17">
-        <v>2.565789473684212</v>
+        <v>36.95394736842105</v>
       </c>
       <c r="C17">
-        <v>3.744680851063826</v>
+        <v>42.10425531914893</v>
       </c>
       <c r="D17">
-        <v>-4.49364896073903</v>
+        <v>45.80023094688222</v>
       </c>
       <c r="E17">
-        <v>-12.2328451199598</v>
+        <v>56.93131013691747</v>
       </c>
       <c r="F17">
-        <v>-10.41311978576579</v>
+        <v>36.73834792460604</v>
       </c>
       <c r="G17">
-        <v>-0.4776435935198791</v>
+        <v>36.2478350515464</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4194,22 +3603,22 @@
         <v>44865</v>
       </c>
       <c r="B18">
-        <v>-1.056910569105689</v>
+        <v>33.13617886178862</v>
       </c>
       <c r="C18">
-        <v>0.4669260700389088</v>
+        <v>38.94941634241245</v>
       </c>
       <c r="D18">
-        <v>4.060897435897431</v>
+        <v>55.41346153846153</v>
       </c>
       <c r="E18">
-        <v>15.00189420050951</v>
+        <v>81.39610969578901</v>
       </c>
       <c r="F18">
-        <v>1.600354524856726</v>
+        <v>49.20006664001066</v>
       </c>
       <c r="G18">
-        <v>4.878695976154987</v>
+        <v>41.09417287630402</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4217,22 +3626,22 @@
         <v>44895</v>
       </c>
       <c r="B19">
-        <v>2.457983193277308</v>
+        <v>36.84033613445378</v>
       </c>
       <c r="C19">
-        <v>0.1538461538461533</v>
+        <v>38.64807692307692</v>
       </c>
       <c r="D19">
-        <v>-0.7985294117647115</v>
+        <v>49.95264705882353</v>
       </c>
       <c r="E19">
-        <v>4.462654044016503</v>
+        <v>71.9287748005502</v>
       </c>
       <c r="F19">
-        <v>-3.736045074050232</v>
+        <v>43.66455634256278</v>
       </c>
       <c r="G19">
-        <v>-4.502946458264049</v>
+        <v>32.60579980046558</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4240,22 +3649,22 @@
         <v>44925</v>
       </c>
       <c r="B20">
-        <v>1.77734375</v>
+        <v>36.123046875</v>
       </c>
       <c r="C20">
-        <v>-5.057471264367813</v>
+        <v>33.63218390804598</v>
       </c>
       <c r="D20">
-        <v>-3.836766467065864</v>
+        <v>46.53840718562874</v>
       </c>
       <c r="E20">
-        <v>-2.856904858531678</v>
+        <v>65.3536598599197</v>
       </c>
       <c r="F20">
-        <v>-1.137396242288276</v>
+        <v>46.36016545148626</v>
       </c>
       <c r="G20">
-        <v>3.473123830901606</v>
+        <v>39.82243172465395</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4263,22 +3672,22 @@
         <v>44957</v>
       </c>
       <c r="B21">
-        <v>4.574074074074076</v>
+        <v>39.07037037037038</v>
       </c>
       <c r="C21">
-        <v>-4.792982456140351</v>
+        <v>33.88675438596491</v>
       </c>
       <c r="D21">
-        <v>-2.617181366134517</v>
+        <v>47.90892436534939</v>
       </c>
       <c r="E21">
-        <v>8.127912627316235</v>
+        <v>75.22125414161248</v>
       </c>
       <c r="F21">
-        <v>2.642391085549967</v>
+        <v>50.280983465133</v>
       </c>
       <c r="G21">
-        <v>-1.285210199862156</v>
+        <v>35.5171605789111</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4286,22 +3695,22 @@
         <v>44985</v>
       </c>
       <c r="B22">
-        <v>-2.321428571428569</v>
+        <v>31.80357142857143</v>
       </c>
       <c r="C22">
-        <v>-5.517241379310349</v>
+        <v>33.18965517241379</v>
       </c>
       <c r="D22">
-        <v>-3.142361111111107</v>
+        <v>47.31875</v>
       </c>
       <c r="E22">
-        <v>5.303163921329642</v>
+        <v>72.68379967645429</v>
       </c>
       <c r="F22">
-        <v>4.772400761283301</v>
+        <v>52.49046764545948</v>
       </c>
       <c r="G22">
-        <v>0.9810391459074665</v>
+        <v>37.56762989323843</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4309,22 +3718,22 @@
         <v>45016</v>
       </c>
       <c r="B23">
-        <v>2.727272727272727</v>
+        <v>37.12412587412587</v>
       </c>
       <c r="C23">
-        <v>5.317919075144516</v>
+        <v>43.61849710982659</v>
       </c>
       <c r="D23">
-        <v>-8.442164179104473</v>
+        <v>41.36305970149254</v>
       </c>
       <c r="E23">
-        <v>-5.080846911456504</v>
+        <v>63.35590633215017</v>
       </c>
       <c r="F23">
-        <v>-4.11352745629155</v>
+        <v>43.27298941147501</v>
       </c>
       <c r="G23">
-        <v>1.591737317581654</v>
+        <v>38.12018068102849</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4332,22 +3741,22 @@
         <v>45044</v>
       </c>
       <c r="B24">
-        <v>-0.9435483870967758</v>
+        <v>33.25564516129032</v>
       </c>
       <c r="C24">
-        <v>4.285714285714292</v>
+        <v>42.625</v>
       </c>
       <c r="D24">
-        <v>1.2454128440367</v>
+        <v>52.24954128440368</v>
       </c>
       <c r="E24">
-        <v>-3.743152403152408</v>
+        <v>64.55754911754912</v>
       </c>
       <c r="F24">
-        <v>-7.866667117543628</v>
+        <v>39.37981333694034</v>
       </c>
       <c r="G24">
-        <v>1.545155466399201</v>
+        <v>38.07803410230692</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4355,22 +3764,22 @@
         <v>45077</v>
       </c>
       <c r="B25">
-        <v>-2.483388704318934</v>
+        <v>31.63289036544851</v>
       </c>
       <c r="C25">
-        <v>3.133640552995388</v>
+        <v>41.51612903225806</v>
       </c>
       <c r="D25">
-        <v>-0.8080357142857153</v>
+        <v>49.94196428571428</v>
       </c>
       <c r="E25">
-        <v>-5.518655844914164</v>
+        <v>62.9626252481607</v>
       </c>
       <c r="F25">
-        <v>-6.742787393860226</v>
+        <v>40.54562704114957</v>
       </c>
       <c r="G25">
-        <v>-0.1958454106280172</v>
+        <v>36.50280193236715</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4378,22 +3787,22 @@
         <v>45107</v>
       </c>
       <c r="B26">
-        <v>-2.712230215827336</v>
+        <v>31.39172661870504</v>
       </c>
       <c r="C26">
-        <v>-0.8547008547008588</v>
+        <v>37.67735042735043</v>
       </c>
       <c r="D26">
-        <v>-10.28409090909091</v>
+        <v>39.29318181818182</v>
       </c>
       <c r="E26">
-        <v>8.296335348954401</v>
+        <v>75.37254724111868</v>
       </c>
       <c r="F26">
-        <v>1.465366647520582</v>
+        <v>49.06004212138618</v>
       </c>
       <c r="G26">
-        <v>1.626847896440125</v>
+        <v>38.2231715210356</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4401,22 +3810,22 @@
         <v>45138</v>
       </c>
       <c r="B27">
-        <v>-2.6530612244898</v>
+        <v>31.45408163265306</v>
       </c>
       <c r="C27">
-        <v>-0.8733624454148483</v>
+        <v>37.65938864628821</v>
       </c>
       <c r="D27">
-        <v>24.48823529411764</v>
+        <v>78.36882352941177</v>
       </c>
       <c r="E27">
-        <v>-2.059992690430249</v>
+        <v>66.06952118061074</v>
       </c>
       <c r="F27">
-        <v>-7.14233766233766</v>
+        <v>40.13116883116884</v>
       </c>
       <c r="G27">
-        <v>6.004057249533282</v>
+        <v>42.03391304347826</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4424,22 +3833,22 @@
         <v>45169</v>
       </c>
       <c r="B28">
-        <v>1.944444444444443</v>
+        <v>36.2991452991453</v>
       </c>
       <c r="C28">
-        <v>-1.428571428571431</v>
+        <v>37.125</v>
       </c>
       <c r="D28">
-        <v>1.036259541984727</v>
+        <v>52.01450381679389</v>
       </c>
       <c r="E28">
-        <v>-0.7323555983610106</v>
+        <v>67.26212945059278</v>
       </c>
       <c r="F28">
-        <v>1.772764835164836</v>
+        <v>49.37890989010989</v>
       </c>
       <c r="G28">
-        <v>-0.5603089430894315</v>
+        <v>36.17304065040651</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4447,22 +3856,22 @@
         <v>45198</v>
       </c>
       <c r="B29">
-        <v>-0.6814516129032242</v>
+        <v>33.53185483870968</v>
       </c>
       <c r="C29">
-        <v>-1.851851851851848</v>
+        <v>36.7175925925926</v>
       </c>
       <c r="D29">
-        <v>-2.026119402985074</v>
+        <v>48.57313432835821</v>
       </c>
       <c r="E29">
-        <v>-2.842280226255014</v>
+        <v>65.36679707753947</v>
       </c>
       <c r="F29">
-        <v>-7.816119339822258</v>
+        <v>39.43224714346171</v>
       </c>
       <c r="G29">
-        <v>-0.05570211596592145</v>
+        <v>36.62960153888432</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4470,22 +3879,22 @@
         <v>45230</v>
       </c>
       <c r="B30">
-        <v>-0.1070840197693599</v>
+        <v>34.13714991762767</v>
       </c>
       <c r="C30">
-        <v>-2.524270640993585</v>
+        <v>36.07038950804368</v>
       </c>
       <c r="D30">
-        <v>3.747265624999997</v>
+        <v>55.061015625</v>
       </c>
       <c r="E30">
-        <v>-2.425593241092201</v>
+        <v>65.74110444471654</v>
       </c>
       <c r="F30">
-        <v>-0.116913265306124</v>
+        <v>47.41872448979591</v>
       </c>
       <c r="G30">
-        <v>1.561805173362686</v>
+        <v>38.09309851403412</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -4493,22 +3902,22 @@
         <v>45260</v>
       </c>
       <c r="B31">
-        <v>1.34297520661157</v>
+        <v>35.66528925619835</v>
       </c>
       <c r="C31">
-        <v>-1.284742253915283E-06</v>
+        <v>38.49999876343558</v>
       </c>
       <c r="D31">
-        <v>2.252705627705637</v>
+        <v>53.38149350649351</v>
       </c>
       <c r="E31">
-        <v>-7.881421884882982</v>
+        <v>60.84016698292221</v>
       </c>
       <c r="F31">
-        <v>1.746462915601029</v>
+        <v>49.35162659846547</v>
       </c>
       <c r="G31">
-        <v>0.9989984101748774</v>
+        <v>37.58387917329094</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4516,22 +3925,22 @@
         <v>45289</v>
       </c>
       <c r="B32">
-        <v>2.063492063492063</v>
+        <v>36.42460317460318</v>
       </c>
       <c r="C32">
-        <v>1.036269430051497</v>
+        <v>39.49740932642457</v>
       </c>
       <c r="D32">
-        <v>-3.016666666666659</v>
+        <v>47.46000000000001</v>
       </c>
       <c r="E32">
-        <v>7.741456009038274</v>
+        <v>74.87410252789155</v>
       </c>
       <c r="F32">
-        <v>3.929253510716926</v>
+        <v>51.61586104951958</v>
       </c>
       <c r="G32">
-        <v>1.509635376260668</v>
+        <v>38.04589604344453</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -4539,22 +3948,22 @@
         <v>45322</v>
       </c>
       <c r="B33">
-        <v>1.455223880597011</v>
+        <v>35.78358208955223</v>
       </c>
       <c r="C33">
-        <v>-2.828282828282831</v>
+        <v>35.77777777777778</v>
       </c>
       <c r="D33">
-        <v>2.365795287187041</v>
+        <v>53.50857879234168</v>
       </c>
       <c r="E33">
-        <v>-15.25566871637202</v>
+        <v>54.21592621060723</v>
       </c>
       <c r="F33">
-        <v>-11.34570683004311</v>
+        <v>35.77096437485817</v>
       </c>
       <c r="G33">
-        <v>1.364472700074792</v>
+        <v>37.91455497382199</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -4562,22 +3971,22 @@
         <v>45351</v>
       </c>
       <c r="B34">
-        <v>0.9285714285714235</v>
+        <v>35.22857142857143</v>
       </c>
       <c r="C34">
-        <v>-1.521739130434781</v>
+        <v>37.03532608695652</v>
       </c>
       <c r="D34">
-        <v>-2.723233030090967</v>
+        <v>47.78974807557734</v>
       </c>
       <c r="E34">
-        <v>-9.756129032258059</v>
+        <v>59.15612903225806</v>
       </c>
       <c r="F34">
-        <v>0.9121773220747968</v>
+        <v>48.48621230398071</v>
       </c>
       <c r="G34">
-        <v>-0.8800289435600561</v>
+        <v>35.88376266280753</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -4585,22 +3994,22 @@
         <v>45379</v>
       </c>
       <c r="B35">
-        <v>-2.03125</v>
+        <v>32.109375</v>
       </c>
       <c r="C35">
-        <v>1.355932203389827</v>
+        <v>39.80508474576271</v>
       </c>
       <c r="D35">
-        <v>-5.930007446016383</v>
+        <v>44.18611317944899</v>
       </c>
       <c r="E35">
-        <v>8.791212456237318</v>
+        <v>75.81709231619678</v>
       </c>
       <c r="F35">
-        <v>4.851312832643409</v>
+        <v>52.57232406859846</v>
       </c>
       <c r="G35">
-        <v>-2.308860946745568</v>
+        <v>34.59097633136094</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -4608,22 +4017,1190 @@
         <v>45412</v>
       </c>
       <c r="B36">
+        <v>34.25</v>
+      </c>
+      <c r="C36">
+        <v>39.1311475409836</v>
+      </c>
+      <c r="D36">
+        <v>48.14845758354755</v>
+      </c>
+      <c r="E36">
+        <v>75.31966985803898</v>
+      </c>
+      <c r="F36">
+        <v>45.48078074866311</v>
+      </c>
+      <c r="G36">
+        <v>36.16216470588235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2">
+        <v>45443</v>
+      </c>
+      <c r="B37">
+        <v>33.48888888888889</v>
+      </c>
+      <c r="C37">
+        <v>38.08602150537634</v>
+      </c>
+      <c r="D37">
+        <v>46.01809954751131</v>
+      </c>
+      <c r="E37">
+        <v>73.39970229234891</v>
+      </c>
+      <c r="F37">
+        <v>64.5869032979318</v>
+      </c>
+      <c r="G37">
+        <v>36.76754176610978</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2">
+        <v>45463</v>
+      </c>
+      <c r="B38">
+        <v>35.54734848484848</v>
+      </c>
+      <c r="C38">
+        <v>37.78858695652173</v>
+      </c>
+      <c r="D38">
+        <v>49.833</v>
+      </c>
+      <c r="E38">
+        <v>63.39200000000001</v>
+      </c>
+      <c r="F38">
+        <v>44.54735651100596</v>
+      </c>
+      <c r="G38">
+        <v>34.09881481481482</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B2">
+        <v>1.288978494623656</v>
+      </c>
+      <c r="C2">
+        <v>-2.184397163120565</v>
+      </c>
+      <c r="D2">
+        <v>8.891878378378372</v>
+      </c>
+      <c r="E2">
+        <v>6.170956993413427</v>
+      </c>
+      <c r="F2">
+        <v>-1.960412371134019</v>
+      </c>
+      <c r="G2">
+        <v>4.400863453815262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
+        <v>44407</v>
+      </c>
+      <c r="B3">
+        <v>4.791450777202073</v>
+      </c>
+      <c r="C3">
+        <v>0.8684210526315752</v>
+      </c>
+      <c r="D3">
+        <v>6.000931677018642</v>
+      </c>
+      <c r="E3">
+        <v>-3.654725625998935</v>
+      </c>
+      <c r="F3">
+        <v>-2.576361290322588</v>
+      </c>
+      <c r="G3">
+        <v>0.8384939489018421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
+        <v>44439</v>
+      </c>
+      <c r="B4">
+        <v>1.712499999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.2264705882352942</v>
+      </c>
+      <c r="D4">
+        <v>3.034259259259251</v>
+      </c>
+      <c r="E4">
+        <v>9.484324324324319</v>
+      </c>
+      <c r="F4">
+        <v>8.842137335152337</v>
+      </c>
+      <c r="G4">
+        <v>4.130920245398777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B5">
+        <v>4.299783549783548</v>
+      </c>
+      <c r="C5">
+        <v>7.4298245614035</v>
+      </c>
+      <c r="D5">
+        <v>12.83592233009709</v>
+      </c>
+      <c r="E5">
+        <v>1.140948616600795</v>
+      </c>
+      <c r="F5">
+        <v>20.08783742331288</v>
+      </c>
+      <c r="G5">
+        <v>3.510531705395827</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2">
+        <v>44498</v>
+      </c>
+      <c r="B6">
+        <v>12.84375</v>
+      </c>
+      <c r="C6">
+        <v>-0.9436274509803937</v>
+      </c>
+      <c r="D6">
+        <v>0.3941860465116278</v>
+      </c>
+      <c r="E6">
+        <v>-3.333294460641397</v>
+      </c>
+      <c r="F6">
+        <v>-13.1343665768194</v>
+      </c>
+      <c r="G6">
+        <v>4.509187634795111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="B7">
+        <v>5.50874125874126</v>
+      </c>
+      <c r="C7">
+        <v>2.079773869346738</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>19.2735002554931</v>
+      </c>
+      <c r="F7">
+        <v>17.10377653631284</v>
+      </c>
+      <c r="G7">
+        <v>1.702496798975673</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2">
+        <v>44561</v>
+      </c>
+      <c r="B8">
+        <v>7.840361445783131</v>
+      </c>
+      <c r="C8">
+        <v>1.193087008343262</v>
+      </c>
+      <c r="D8">
+        <v>2.503384615384611</v>
+      </c>
+      <c r="E8">
+        <v>4.370598381318814</v>
+      </c>
+      <c r="F8">
+        <v>0.507822514379626</v>
+      </c>
+      <c r="G8">
+        <v>0.9313062098501064</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2">
+        <v>44592</v>
+      </c>
+      <c r="B9">
+        <v>3.693627450980394</v>
+      </c>
+      <c r="C9">
+        <v>3.783236994219656</v>
+      </c>
+      <c r="D9">
+        <v>5.256488269794716</v>
+      </c>
+      <c r="E9">
+        <v>7.340643231114441</v>
+      </c>
+      <c r="F9">
+        <v>5.907070460704603</v>
+      </c>
+      <c r="G9">
+        <v>-4.913281622911693</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2">
+        <v>44620</v>
+      </c>
+      <c r="B10">
+        <v>-5.152654867256636</v>
+      </c>
+      <c r="C10">
+        <v>-2.431578947368422</v>
+      </c>
+      <c r="D10">
+        <v>3.716611295681062</v>
+      </c>
+      <c r="E10">
+        <v>-5.402119473506588</v>
+      </c>
+      <c r="F10">
+        <v>-2.882085999758949</v>
+      </c>
+      <c r="G10">
+        <v>0.6823010678608341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2">
+        <v>44651</v>
+      </c>
+      <c r="B11">
+        <v>-12.48697916666667</v>
+      </c>
+      <c r="C11">
+        <v>3.028089887640448</v>
+      </c>
+      <c r="D11">
+        <v>-3.05414860681114</v>
+      </c>
+      <c r="E11">
+        <v>-4.56563187484722</v>
+      </c>
+      <c r="F11">
+        <v>-1.323599407698154</v>
+      </c>
+      <c r="G11">
+        <v>1.662198173824819</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2">
+        <v>44680</v>
+      </c>
+      <c r="B12">
+        <v>-2.807377049180328</v>
+      </c>
+      <c r="C12">
+        <v>0.4010416666666714</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>6.870314465408811</v>
+      </c>
+      <c r="F12">
+        <v>3.124577009370462</v>
+      </c>
+      <c r="G12">
+        <v>-0.5577353607246849</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2">
+        <v>44712</v>
+      </c>
+      <c r="B13">
+        <v>9.174107142857139</v>
+      </c>
+      <c r="C13">
+        <v>-0.7938144329896915</v>
+      </c>
+      <c r="D13">
+        <v>0.6498616600790541</v>
+      </c>
+      <c r="E13">
+        <v>-0.3071108995716401</v>
+      </c>
+      <c r="F13">
+        <v>1.083264396284825</v>
+      </c>
+      <c r="G13">
+        <v>2.675085413929033</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2">
+        <v>44742</v>
+      </c>
+      <c r="B14">
+        <v>-0.3859154929577429</v>
+      </c>
+      <c r="C14">
+        <v>1.418421052631572</v>
+      </c>
+      <c r="D14">
+        <v>-0.5755106023156031</v>
+      </c>
+      <c r="E14">
+        <v>5.049753765240254</v>
+      </c>
+      <c r="F14">
+        <v>1.381474754812928</v>
+      </c>
+      <c r="G14">
+        <v>-1.538628291488052</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2">
+        <v>44771</v>
+      </c>
+      <c r="B15">
+        <v>-5.952279202279204</v>
+      </c>
+      <c r="C15">
+        <v>1.368020304568525</v>
+      </c>
+      <c r="D15">
+        <v>2.877039473684214</v>
+      </c>
+      <c r="E15">
+        <v>-8.773377837116158</v>
+      </c>
+      <c r="F15">
+        <v>-3.725337098482171</v>
+      </c>
+      <c r="G15">
+        <v>-2.743087248322148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2">
+        <v>44804</v>
+      </c>
+      <c r="B16">
+        <v>-0.5905172413793096</v>
+      </c>
+      <c r="C16">
+        <v>5.850490196078425</v>
+      </c>
+      <c r="D16">
+        <v>3.989476961394764</v>
+      </c>
+      <c r="E16">
+        <v>1.162805672671524</v>
+      </c>
+      <c r="F16">
+        <v>11.38580875781948</v>
+      </c>
+      <c r="G16">
+        <v>-2.267951640759932</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B17">
+        <v>2.703947368421055</v>
+      </c>
+      <c r="C17">
+        <v>3.604255319148933</v>
+      </c>
+      <c r="D17">
+        <v>-5.049769053117778</v>
+      </c>
+      <c r="E17">
+        <v>-10.98868986308253</v>
+      </c>
+      <c r="F17">
+        <v>-10.80165207539396</v>
+      </c>
+      <c r="G17">
+        <v>-0.4321649484536039</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2">
+        <v>44865</v>
+      </c>
+      <c r="B18">
+        <v>-1.113821138211378</v>
+      </c>
+      <c r="C18">
+        <v>0.449416342412448</v>
+      </c>
+      <c r="D18">
+        <v>4.563461538461532</v>
+      </c>
+      <c r="E18">
+        <v>13.47610969578901</v>
+      </c>
+      <c r="F18">
+        <v>1.660066640010662</v>
+      </c>
+      <c r="G18">
+        <v>4.414172876304022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2">
+        <v>44895</v>
+      </c>
+      <c r="B19">
+        <v>2.590336134453779</v>
+      </c>
+      <c r="C19">
+        <v>0.1480769230769212</v>
+      </c>
+      <c r="D19">
+        <v>-0.8973529411764716</v>
+      </c>
+      <c r="E19">
+        <v>4.008774800550199</v>
+      </c>
+      <c r="F19">
+        <v>-3.875443657437224</v>
+      </c>
+      <c r="G19">
+        <v>-4.074200199534417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2">
+        <v>44925</v>
+      </c>
+      <c r="B20">
+        <v>1.873046875</v>
+      </c>
+      <c r="C20">
+        <v>-4.867816091954019</v>
+      </c>
+      <c r="D20">
+        <v>-4.311592814371259</v>
+      </c>
+      <c r="E20">
+        <v>-2.5663401400803</v>
+      </c>
+      <c r="F20">
+        <v>-1.179834548513739</v>
+      </c>
+      <c r="G20">
+        <v>3.142431724653946</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2">
+        <v>44957</v>
+      </c>
+      <c r="B21">
+        <v>4.820370370370377</v>
+      </c>
+      <c r="C21">
+        <v>-4.613245614035087</v>
+      </c>
+      <c r="D21">
+        <v>-2.941075634650616</v>
+      </c>
+      <c r="E21">
+        <v>7.301254141612475</v>
+      </c>
+      <c r="F21">
+        <v>2.740983465133006</v>
+      </c>
+      <c r="G21">
+        <v>-1.162839421088897</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2">
+        <v>44985</v>
+      </c>
+      <c r="B22">
+        <v>-2.446428571428569</v>
+      </c>
+      <c r="C22">
+        <v>-5.310344827586206</v>
+      </c>
+      <c r="D22">
+        <v>-3.53125</v>
+      </c>
+      <c r="E22">
+        <v>4.763799676454283</v>
+      </c>
+      <c r="F22">
+        <v>4.950467645459483</v>
+      </c>
+      <c r="G22">
+        <v>0.887629893238433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B23">
+        <v>2.874125874125873</v>
+      </c>
+      <c r="C23">
+        <v>5.118497109826592</v>
+      </c>
+      <c r="D23">
+        <v>-9.486940298507463</v>
+      </c>
+      <c r="E23">
+        <v>-4.564093667849832</v>
+      </c>
+      <c r="F23">
+        <v>-4.26701058852499</v>
+      </c>
+      <c r="G23">
+        <v>1.440180681028494</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2">
+        <v>45044</v>
+      </c>
+      <c r="B24">
+        <v>-0.9943548387096754</v>
+      </c>
+      <c r="C24">
+        <v>4.125</v>
+      </c>
+      <c r="D24">
+        <v>1.399541284403675</v>
+      </c>
+      <c r="E24">
+        <v>-3.362450882450887</v>
+      </c>
+      <c r="F24">
+        <v>-8.160186663059655</v>
+      </c>
+      <c r="G24">
+        <v>1.398034102306923</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B25">
+        <v>-2.617109634551493</v>
+      </c>
+      <c r="C25">
+        <v>3.016129032258064</v>
+      </c>
+      <c r="D25">
+        <v>-0.9080357142857167</v>
+      </c>
+      <c r="E25">
+        <v>-4.957374751839303</v>
+      </c>
+      <c r="F25">
+        <v>-6.994372958850427</v>
+      </c>
+      <c r="G25">
+        <v>-0.1771980676328511</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B26">
+        <v>-2.858273381294964</v>
+      </c>
+      <c r="C26">
+        <v>-0.8226495726495742</v>
+      </c>
+      <c r="D26">
+        <v>-11.55681818181818</v>
+      </c>
+      <c r="E26">
+        <v>7.45254724111868</v>
+      </c>
+      <c r="F26">
+        <v>1.520042121386176</v>
+      </c>
+      <c r="G26">
+        <v>1.543171521035603</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B27">
+        <v>-2.795918367346943</v>
+      </c>
+      <c r="C27">
+        <v>-0.8406113537117932</v>
+      </c>
+      <c r="D27">
+        <v>27.51882352941177</v>
+      </c>
+      <c r="E27">
+        <v>-1.850478819389267</v>
+      </c>
+      <c r="F27">
+        <v>-7.408831168831163</v>
+      </c>
+      <c r="G27">
+        <v>5.353913043478258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B28">
+        <v>2.049145299145302</v>
+      </c>
+      <c r="C28">
+        <v>-1.375</v>
+      </c>
+      <c r="D28">
+        <v>1.164503816793889</v>
+      </c>
+      <c r="E28">
+        <v>-0.657870549407221</v>
+      </c>
+      <c r="F28">
+        <v>1.838909890109889</v>
+      </c>
+      <c r="G28">
+        <v>-0.5069593495934939</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B29">
+        <v>-0.7181451612903231</v>
+      </c>
+      <c r="C29">
+        <v>-1.782407407407405</v>
+      </c>
+      <c r="D29">
+        <v>-2.276865671641794</v>
+      </c>
+      <c r="E29">
+        <v>-2.553202922460528</v>
+      </c>
+      <c r="F29">
+        <v>-8.107752856538291</v>
+      </c>
+      <c r="G29">
+        <v>-0.0503984611156838</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B30">
+        <v>-0.1128500823723257</v>
+      </c>
+      <c r="C30">
+        <v>-2.429610491956325</v>
+      </c>
+      <c r="D30">
+        <v>4.211015624999995</v>
+      </c>
+      <c r="E30">
+        <v>-2.178895555283461</v>
+      </c>
+      <c r="F30">
+        <v>-0.1212755102040859</v>
+      </c>
+      <c r="G30">
+        <v>1.413098514034118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B31">
+        <v>1.415289256198349</v>
+      </c>
+      <c r="C31">
+        <v>-1.236564422413267E-06</v>
+      </c>
+      <c r="D31">
+        <v>2.531493506493511</v>
+      </c>
+      <c r="E31">
+        <v>-7.079833017077789</v>
+      </c>
+      <c r="F31">
+        <v>1.811626598465473</v>
+      </c>
+      <c r="G31">
+        <v>0.9038791732909388</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2">
+        <v>45289</v>
+      </c>
+      <c r="B32">
+        <v>2.174603174603178</v>
+      </c>
+      <c r="C32">
+        <v>0.9974093264245667</v>
+      </c>
+      <c r="D32">
+        <v>-3.389999999999993</v>
+      </c>
+      <c r="E32">
+        <v>6.95410252789155</v>
+      </c>
+      <c r="F32">
+        <v>4.075861049519581</v>
+      </c>
+      <c r="G32">
+        <v>1.365896043444529</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B33">
+        <v>1.533582089552233</v>
+      </c>
+      <c r="C33">
+        <v>-2.722222222222221</v>
+      </c>
+      <c r="D33">
+        <v>2.658578792341679</v>
+      </c>
+      <c r="E33">
+        <v>-13.70407378939277</v>
+      </c>
+      <c r="F33">
+        <v>-11.76903562514183</v>
+      </c>
+      <c r="G33">
+        <v>1.234554973821986</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2">
+        <v>45351</v>
+      </c>
+      <c r="B34">
+        <v>0.9785714285714278</v>
+      </c>
+      <c r="C34">
+        <v>-1.464673913043477</v>
+      </c>
+      <c r="D34">
+        <v>-3.060251924422666</v>
+      </c>
+      <c r="E34">
+        <v>-8.763870967741937</v>
+      </c>
+      <c r="F34">
+        <v>0.9462123039807082</v>
+      </c>
+      <c r="G34">
+        <v>-0.7962373371924727</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2">
+        <v>45379</v>
+      </c>
+      <c r="B35">
+        <v>-2.140625</v>
+      </c>
+      <c r="C35">
+        <v>1.305084745762706</v>
+      </c>
+      <c r="D35">
+        <v>-6.663886820551006</v>
+      </c>
+      <c r="E35">
+        <v>7.897092316196776</v>
+      </c>
+      <c r="F35">
+        <v>5.032324068598463</v>
+      </c>
+      <c r="G35">
+        <v>-2.089023668639058</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2">
+        <v>45412</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
       <c r="C36">
-        <v>0.6557377049180317</v>
+        <v>0.6311475409836049</v>
       </c>
       <c r="D36">
-        <v>-2.404027420736931</v>
+        <v>-2.701542416452448</v>
       </c>
       <c r="E36">
-        <v>8.237471112578433</v>
+        <v>7.399669858038976</v>
       </c>
       <c r="F36">
-        <v>-1.985149732620314</v>
+        <v>-2.059219251336891</v>
       </c>
       <c r="G36">
-        <v>-0.5723294117647058</v>
+        <v>-0.5178352941176456</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2">
+        <v>45443</v>
+      </c>
+      <c r="B37">
+        <v>-0.7611111111111128</v>
+      </c>
+      <c r="C37">
+        <v>-0.413978494623656</v>
+      </c>
+      <c r="D37">
+        <v>-4.831900452488689</v>
+      </c>
+      <c r="E37">
+        <v>5.479702292348904</v>
+      </c>
+      <c r="F37">
+        <v>17.0469032979318</v>
+      </c>
+      <c r="G37">
+        <v>0.08754176610977993</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>32.39</v>
+      </c>
+      <c r="D2">
+        <v>33.66</v>
+      </c>
+      <c r="E2">
+        <v>34.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>36.67</v>
+      </c>
+      <c r="D3">
+        <v>37.46</v>
+      </c>
+      <c r="E3">
+        <v>38.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>46.68</v>
+      </c>
+      <c r="D4">
+        <v>49.25</v>
+      </c>
+      <c r="E4">
+        <v>50.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>61</v>
+      </c>
+      <c r="D5">
+        <v>64.77</v>
+      </c>
+      <c r="E5">
+        <v>66.45999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>42.81</v>
+      </c>
+      <c r="D6">
+        <v>44.62</v>
+      </c>
+      <c r="E6">
+        <v>46.46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>34.75</v>
+      </c>
+      <c r="D7">
+        <v>35.89</v>
+      </c>
+      <c r="E7">
+        <v>36.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>29.1</v>
+      </c>
+      <c r="D2">
+        <v>31.45</v>
+      </c>
+      <c r="E2">
+        <v>33.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>33.89</v>
+      </c>
+      <c r="D3">
+        <v>36.07</v>
+      </c>
+      <c r="E3">
+        <v>37.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>44.19</v>
+      </c>
+      <c r="D4">
+        <v>46.54</v>
+      </c>
+      <c r="E4">
+        <v>48.57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>59.15</v>
+      </c>
+      <c r="D5">
+        <v>62.52</v>
+      </c>
+      <c r="E5">
+        <v>64.59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>36.74</v>
+      </c>
+      <c r="D6">
+        <v>40.13</v>
+      </c>
+      <c r="E6">
+        <v>44.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>33.94</v>
+      </c>
+      <c r="D7">
+        <v>34.59</v>
+      </c>
+      <c r="E7">
+        <v>36.25</v>
       </c>
     </row>
   </sheetData>

--- a/30d_portfolio_returns.xlsx
+++ b/30d_portfolio_returns.xlsx
@@ -472,22 +472,22 @@
         <v>44377</v>
       </c>
       <c r="B2">
-        <v>-61818.77</v>
+        <v>54450.36</v>
       </c>
       <c r="C2">
-        <v>340304.51</v>
+        <v>328018.52</v>
       </c>
       <c r="D2">
-        <v>-50494.9</v>
+        <v>157082.03</v>
       </c>
       <c r="E2">
-        <v>-31233.48</v>
+        <v>-109355.83</v>
       </c>
       <c r="F2">
-        <v>253493.67</v>
+        <v>191798</v>
       </c>
       <c r="G2">
-        <v>450251.03</v>
+        <v>621993.0800000001</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -495,22 +495,22 @@
         <v>44407</v>
       </c>
       <c r="B3">
-        <v>59116.34</v>
+        <v>279130.12</v>
       </c>
       <c r="C3">
-        <v>207738.75</v>
+        <v>203237.1</v>
       </c>
       <c r="D3">
-        <v>65829.38</v>
+        <v>-115008.38</v>
       </c>
       <c r="E3">
-        <v>-45380.2</v>
+        <v>-132815.8</v>
       </c>
       <c r="F3">
-        <v>21733.82</v>
+        <v>7315.01</v>
       </c>
       <c r="G3">
-        <v>309038.09</v>
+        <v>241858.05</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -518,22 +518,22 @@
         <v>44439</v>
       </c>
       <c r="B4">
-        <v>-55502.76</v>
+        <v>80037.35000000001</v>
       </c>
       <c r="C4">
-        <v>82706.98</v>
+        <v>82620.75</v>
       </c>
       <c r="D4">
-        <v>-111791.43</v>
+        <v>265267.25</v>
       </c>
       <c r="E4">
-        <v>185969.47</v>
+        <v>373123.59</v>
       </c>
       <c r="F4">
-        <v>234429.12</v>
+        <v>176534.22</v>
       </c>
       <c r="G4">
-        <v>335811.38</v>
+        <v>977583.1599999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -541,22 +541,22 @@
         <v>44469</v>
       </c>
       <c r="B5">
-        <v>33909.41</v>
+        <v>246202.4</v>
       </c>
       <c r="C5">
-        <v>532529.73</v>
+        <v>505494.72</v>
       </c>
       <c r="D5">
-        <v>23685.86</v>
+        <v>5826.67</v>
       </c>
       <c r="E5">
-        <v>332198.37</v>
+        <v>931809.35</v>
       </c>
       <c r="F5">
-        <v>191357.79</v>
+        <v>142128.23</v>
       </c>
       <c r="G5">
-        <v>1113681.16</v>
+        <v>1831461.37</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -564,22 +564,22 @@
         <v>44498</v>
       </c>
       <c r="B6">
-        <v>636949.47</v>
+        <v>837710.08</v>
       </c>
       <c r="C6">
-        <v>-17399.94</v>
+        <v>-15741.26</v>
       </c>
       <c r="D6">
-        <v>64024.76</v>
+        <v>-107825.34</v>
       </c>
       <c r="E6">
-        <v>-284232.58</v>
+        <v>-408560.83</v>
       </c>
       <c r="F6">
-        <v>261193.36</v>
+        <v>197969.82</v>
       </c>
       <c r="G6">
-        <v>660535.0700000001</v>
+        <v>503552.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -587,22 +587,22 @@
         <v>44530</v>
       </c>
       <c r="B7">
-        <v>99509.62</v>
+        <v>327664.68</v>
       </c>
       <c r="C7">
-        <v>-31368.12</v>
+        <v>-29534.14</v>
       </c>
       <c r="D7">
-        <v>-327640.15</v>
+        <v>602447.76</v>
       </c>
       <c r="E7">
-        <v>301053.27</v>
+        <v>781935.4300000001</v>
       </c>
       <c r="F7">
-        <v>73311.69</v>
+        <v>48204.72</v>
       </c>
       <c r="G7">
-        <v>114866.31</v>
+        <v>1730718.45</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -610,22 +610,22 @@
         <v>44561</v>
       </c>
       <c r="B8">
-        <v>252987.01</v>
+        <v>488111.89</v>
       </c>
       <c r="C8">
-        <v>61689.92</v>
+        <v>62072.7</v>
       </c>
       <c r="D8">
-        <v>-20973</v>
+        <v>100757.24</v>
       </c>
       <c r="E8">
-        <v>24070.1</v>
+        <v>-9501.780000000001</v>
       </c>
       <c r="F8">
-        <v>27105.7</v>
+        <v>11567.85</v>
       </c>
       <c r="G8">
-        <v>344879.73</v>
+        <v>653007.8999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -633,22 +633,22 @@
         <v>44592</v>
       </c>
       <c r="B9">
-        <v>6008.46</v>
+        <v>206077.49</v>
       </c>
       <c r="C9">
-        <v>175213.84</v>
+        <v>172146.17</v>
       </c>
       <c r="D9">
-        <v>-71187.89</v>
+        <v>194690.61</v>
       </c>
       <c r="E9">
-        <v>134017.95</v>
+        <v>232839.35</v>
       </c>
       <c r="F9">
-        <v>-222519.11</v>
+        <v>-177822.85</v>
       </c>
       <c r="G9">
-        <v>21533.25</v>
+        <v>627930.77</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -656,22 +656,22 @@
         <v>44620</v>
       </c>
       <c r="B10">
-        <v>173299.49</v>
+        <v>-224558.97</v>
       </c>
       <c r="C10">
-        <v>110348.82</v>
+        <v>109535.67</v>
       </c>
       <c r="D10">
-        <v>72889.71000000001</v>
+        <v>-151457.49</v>
       </c>
       <c r="E10">
-        <v>-52441.49</v>
+        <v>-144218.7</v>
       </c>
       <c r="F10">
-        <v>12788.56</v>
+        <v>237.06</v>
       </c>
       <c r="G10">
-        <v>316885.09</v>
+        <v>-410462.43</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -679,22 +679,22 @@
         <v>44651</v>
       </c>
       <c r="B11">
-        <v>888693.48</v>
+        <v>-279861.37</v>
       </c>
       <c r="C11">
-        <v>-130074.28</v>
+        <v>-127019.91</v>
       </c>
       <c r="D11">
-        <v>70095</v>
+        <v>-134566.7</v>
       </c>
       <c r="E11">
-        <v>-16735.7</v>
+        <v>-84450.52</v>
       </c>
       <c r="F11">
-        <v>70830</v>
+        <v>46234.85</v>
       </c>
       <c r="G11">
-        <v>882808.5</v>
+        <v>-579663.65</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -702,22 +702,22 @@
         <v>44680</v>
       </c>
       <c r="B12">
-        <v>20227.04</v>
+        <v>-151941.47</v>
       </c>
       <c r="C12">
-        <v>-31368.12</v>
+        <v>-29534.14</v>
       </c>
       <c r="D12">
-        <v>-62733.7</v>
+        <v>179482.32</v>
       </c>
       <c r="E12">
-        <v>79514.86</v>
+        <v>104673.58</v>
       </c>
       <c r="F12">
-        <v>-53821.27</v>
+        <v>-52239.47</v>
       </c>
       <c r="G12">
-        <v>-48181.19</v>
+        <v>50440.82000000002</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -725,22 +725,22 @@
         <v>44712</v>
       </c>
       <c r="B13">
-        <v>350803.54</v>
+        <v>580931.98</v>
       </c>
       <c r="C13">
-        <v>-8199.700000000001</v>
+        <v>-6661.31</v>
       </c>
       <c r="D13">
-        <v>39709.75</v>
+        <v>-33538.42</v>
       </c>
       <c r="E13">
-        <v>36575.57</v>
+        <v>14958.47</v>
       </c>
       <c r="F13">
-        <v>135277.64</v>
+        <v>97452.36</v>
       </c>
       <c r="G13">
-        <v>554166.8</v>
+        <v>653143.0799999998</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -748,22 +748,22 @@
         <v>44742</v>
       </c>
       <c r="B14">
-        <v>-59983.18</v>
+        <v>-40144.91</v>
       </c>
       <c r="C14">
-        <v>-51281.7</v>
+        <v>-49206.4</v>
       </c>
       <c r="D14">
-        <v>-31757.27</v>
+        <v>121760.22</v>
       </c>
       <c r="E14">
-        <v>42990.37</v>
+        <v>27788.54</v>
       </c>
       <c r="F14">
-        <v>-100706</v>
+        <v>-88731.78</v>
       </c>
       <c r="G14">
-        <v>-200737.78</v>
+        <v>-28534.32999999999</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -771,22 +771,22 @@
         <v>44771</v>
       </c>
       <c r="B15">
-        <v>238061.97</v>
+        <v>-241038.01</v>
       </c>
       <c r="C15">
-        <v>76437.64999999999</v>
+        <v>76498.50999999999</v>
       </c>
       <c r="D15">
-        <v>72995.55</v>
+        <v>-208655.18</v>
       </c>
       <c r="E15">
-        <v>-72030.58</v>
+        <v>-174795.37</v>
       </c>
       <c r="F15">
-        <v>-151071.49</v>
+        <v>-127055.55</v>
       </c>
       <c r="G15">
-        <v>164393.1</v>
+        <v>-675045.6000000001</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -794,22 +794,22 @@
         <v>44804</v>
       </c>
       <c r="B16">
-        <v>-56723.95</v>
+        <v>-50850.8</v>
       </c>
       <c r="C16">
-        <v>121595.91</v>
+        <v>120448.46</v>
       </c>
       <c r="D16">
-        <v>23423.78</v>
+        <v>6437.6</v>
       </c>
       <c r="E16">
-        <v>226226.76</v>
+        <v>497443.49</v>
       </c>
       <c r="F16">
-        <v>-132150.17</v>
+        <v>-112808.11</v>
       </c>
       <c r="G16">
-        <v>182372.33</v>
+        <v>460670.64</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -817,22 +817,22 @@
         <v>44834</v>
       </c>
       <c r="B17">
-        <v>-30904.21</v>
+        <v>141972.75</v>
       </c>
       <c r="C17">
-        <v>-183989.57</v>
+        <v>-180597.01</v>
       </c>
       <c r="D17">
-        <v>63256.4</v>
+        <v>-236644.65</v>
       </c>
       <c r="E17">
-        <v>-235239.53</v>
+        <v>-370548.57</v>
       </c>
       <c r="F17">
-        <v>-47442.84</v>
+        <v>-47238.51</v>
       </c>
       <c r="G17">
-        <v>-434319.75</v>
+        <v>-693055.99</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -840,22 +840,22 @@
         <v>44865</v>
       </c>
       <c r="B18">
-        <v>-45360.15</v>
+        <v>-77258.73</v>
       </c>
       <c r="C18">
-        <v>145606.34</v>
+        <v>143666.78</v>
       </c>
       <c r="D18">
-        <v>-194861.86</v>
+        <v>400713.96</v>
       </c>
       <c r="E18">
-        <v>48941.01</v>
+        <v>39865.23</v>
       </c>
       <c r="F18">
-        <v>254438.23</v>
+        <v>192554.9</v>
       </c>
       <c r="G18">
-        <v>208763.57</v>
+        <v>699542.14</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -863,22 +863,22 @@
         <v>44895</v>
       </c>
       <c r="B19">
-        <v>-34385.33</v>
+        <v>134746.99</v>
       </c>
       <c r="C19">
-        <v>-62164.17</v>
+        <v>-59958.08</v>
       </c>
       <c r="D19">
-        <v>-15411.88</v>
+        <v>89699.77</v>
       </c>
       <c r="E19">
-        <v>-75532.16</v>
+        <v>-180098.64</v>
       </c>
       <c r="F19">
-        <v>-197697.47</v>
+        <v>-160923.73</v>
       </c>
       <c r="G19">
-        <v>-385191.01</v>
+        <v>-176533.69</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -886,22 +886,22 @@
         <v>44925</v>
       </c>
       <c r="B20">
-        <v>-52432.43</v>
+        <v>89883</v>
       </c>
       <c r="C20">
-        <v>-165176.28</v>
+        <v>-161782.85</v>
       </c>
       <c r="D20">
-        <v>59099.38</v>
+        <v>-90112.34</v>
       </c>
       <c r="E20">
-        <v>-13482.67</v>
+        <v>-78740.57000000001</v>
       </c>
       <c r="F20">
-        <v>166354.39</v>
+        <v>122195.17</v>
       </c>
       <c r="G20">
-        <v>-5637.609999999986</v>
+        <v>-118557.59</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -909,22 +909,22 @@
         <v>44957</v>
       </c>
       <c r="B21">
-        <v>60665.19</v>
+        <v>281076.23</v>
       </c>
       <c r="C21">
-        <v>-126744.73</v>
+        <v>-123731.43</v>
       </c>
       <c r="D21">
-        <v>-70473.2</v>
+        <v>193412.73</v>
       </c>
       <c r="E21">
-        <v>71625.50999999999</v>
+        <v>87495.96000000001</v>
       </c>
       <c r="F21">
-        <v>-83364.28</v>
+        <v>-75298.69</v>
       </c>
       <c r="G21">
-        <v>-148291.51</v>
+        <v>362954.8</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -932,22 +932,22 @@
         <v>44985</v>
       </c>
       <c r="B22">
-        <v>2716.31</v>
+        <v>-137507.97</v>
       </c>
       <c r="C22">
-        <v>-143817.87</v>
+        <v>-140603.85</v>
       </c>
       <c r="D22">
-        <v>-27162.66</v>
+        <v>112878.82</v>
       </c>
       <c r="E22">
-        <v>115837.39</v>
+        <v>188141.02</v>
       </c>
       <c r="F22">
-        <v>24572.55</v>
+        <v>9562.18</v>
       </c>
       <c r="G22">
-        <v>-27854.28</v>
+        <v>32470.19999999999</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -955,22 +955,22 @@
         <v>45016</v>
       </c>
       <c r="B23">
-        <v>-25385.77</v>
+        <v>152851.82</v>
       </c>
       <c r="C23">
-        <v>-316833.73</v>
+        <v>-267653.04</v>
       </c>
       <c r="D23">
-        <v>70088.87</v>
+        <v>-134534.69</v>
       </c>
       <c r="E23">
-        <v>-84682.60000000001</v>
+        <v>-193726.56</v>
       </c>
       <c r="F23">
-        <v>57287.63</v>
+        <v>35489.26</v>
       </c>
       <c r="G23">
-        <v>-299525.6</v>
+        <v>-407573.21</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -978,22 +978,22 @@
         <v>45044</v>
       </c>
       <c r="B24">
-        <v>-48336.32</v>
+        <v>-71357.50999999999</v>
       </c>
       <c r="C24">
-        <v>19400.92</v>
+        <v>20543.33</v>
       </c>
       <c r="D24">
-        <v>64194.83</v>
+        <v>-108482.84</v>
       </c>
       <c r="E24">
-        <v>-175697.01</v>
+        <v>-311311.17</v>
       </c>
       <c r="F24">
-        <v>54742.01</v>
+        <v>33470.13</v>
       </c>
       <c r="G24">
-        <v>-85695.57000000001</v>
+        <v>-437138.0599999999</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1001,22 +1001,22 @@
         <v>45077</v>
       </c>
       <c r="B25">
-        <v>10769.63</v>
+        <v>-144437.96</v>
       </c>
       <c r="C25">
-        <v>-62522.21</v>
+        <v>-60311.81</v>
       </c>
       <c r="D25">
-        <v>71538.78</v>
+        <v>-142606.59</v>
       </c>
       <c r="E25">
-        <v>-148612.65</v>
+        <v>-279719.93</v>
       </c>
       <c r="F25">
-        <v>-34233.13</v>
+        <v>-36861.62</v>
       </c>
       <c r="G25">
-        <v>-163059.58</v>
+        <v>-663937.91</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1024,22 +1024,22 @@
         <v>45107</v>
       </c>
       <c r="B26">
-        <v>22841.26</v>
+        <v>-153908.64</v>
       </c>
       <c r="C26">
-        <v>-508900.64</v>
+        <v>-293352.17</v>
       </c>
       <c r="D26">
-        <v>-73224.89</v>
+        <v>198325.14</v>
       </c>
       <c r="E26">
-        <v>45955.28</v>
+        <v>33784.55</v>
       </c>
       <c r="F26">
-        <v>63542.18</v>
+        <v>40451.29</v>
       </c>
       <c r="G26">
-        <v>-449786.81</v>
+        <v>-174699.83</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1047,22 +1047,22 @@
         <v>45138</v>
       </c>
       <c r="B27">
-        <v>19643.36</v>
+        <v>-151496.25</v>
       </c>
       <c r="C27">
-        <v>1604802.51</v>
+        <v>1192139.79</v>
       </c>
       <c r="D27">
-        <v>53729.57</v>
+        <v>-72874.07000000001</v>
       </c>
       <c r="E27">
-        <v>-158276.48</v>
+        <v>-291322.7</v>
       </c>
       <c r="F27">
-        <v>322065.38</v>
+        <v>246940.85</v>
       </c>
       <c r="G27">
-        <v>1841964.34</v>
+        <v>923387.62</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1070,22 +1070,22 @@
         <v>45169</v>
       </c>
       <c r="B28">
-        <v>-48648.36</v>
+        <v>100768.87</v>
       </c>
       <c r="C28">
-        <v>10648.5</v>
+        <v>11923.23</v>
       </c>
       <c r="D28">
-        <v>43181.24</v>
+        <v>-42727.01</v>
       </c>
       <c r="E28">
-        <v>52739.1</v>
+        <v>47662.66</v>
       </c>
       <c r="F28">
-        <v>-51252.24</v>
+        <v>-50226.06</v>
       </c>
       <c r="G28">
-        <v>6668.239999999998</v>
+        <v>67401.69</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1093,22 +1093,22 @@
         <v>45198</v>
       </c>
       <c r="B29">
-        <v>-54353.1</v>
+        <v>-57422.92</v>
       </c>
       <c r="C29">
-        <v>-106650.16</v>
+        <v>-103891.94</v>
       </c>
       <c r="D29">
-        <v>59007.5</v>
+        <v>-89802.03</v>
       </c>
       <c r="E29">
-        <v>-174486.24</v>
+        <v>-309960.56</v>
       </c>
       <c r="F29">
-        <v>-27535.86</v>
+        <v>-31591.53</v>
       </c>
       <c r="G29">
-        <v>-304017.86</v>
+        <v>-592668.98</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1116,22 +1116,22 @@
         <v>45230</v>
       </c>
       <c r="B30">
-        <v>-63293.15</v>
+        <v>-25541.68</v>
       </c>
       <c r="C30">
-        <v>130807.11</v>
+        <v>129368.58</v>
       </c>
       <c r="D30">
-        <v>56284.46</v>
+        <v>-80865.08</v>
       </c>
       <c r="E30">
-        <v>10216.89</v>
+        <v>-35767.13</v>
       </c>
       <c r="F30">
-        <v>55650.96</v>
+        <v>34191.06</v>
       </c>
       <c r="G30">
-        <v>189666.27</v>
+        <v>21385.74999999999</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1139,22 +1139,22 @@
         <v>45260</v>
       </c>
       <c r="B31">
-        <v>-60209.75</v>
+        <v>62020.55</v>
       </c>
       <c r="C31">
-        <v>62791.84</v>
+        <v>63151.7</v>
       </c>
       <c r="D31">
-        <v>75193.55</v>
+        <v>-182132.35</v>
       </c>
       <c r="E31">
-        <v>52160.81</v>
+        <v>46470.91</v>
       </c>
       <c r="F31">
-        <v>25513.9</v>
+        <v>10307.47</v>
       </c>
       <c r="G31">
-        <v>155450.35</v>
+        <v>-181.720000000003</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1162,22 +1162,22 @@
         <v>45289</v>
       </c>
       <c r="B32">
-        <v>-45691.39</v>
+        <v>108577.25</v>
       </c>
       <c r="C32">
-        <v>-139801.22</v>
+        <v>-136631.7</v>
       </c>
       <c r="D32">
-        <v>-64226.93</v>
+        <v>182183.47</v>
       </c>
       <c r="E32">
-        <v>98698.05</v>
+        <v>147830.04</v>
       </c>
       <c r="F32">
-        <v>52806.37</v>
+        <v>31935</v>
       </c>
       <c r="G32">
-        <v>-98215.12</v>
+        <v>333894.06</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1185,22 +1185,22 @@
         <v>45322</v>
       </c>
       <c r="B33">
-        <v>-58490.01</v>
+        <v>69157.81</v>
       </c>
       <c r="C33">
-        <v>67789.11</v>
+        <v>68042.74000000001</v>
       </c>
       <c r="D33">
-        <v>40864.06</v>
+        <v>-261257.96</v>
       </c>
       <c r="E33">
-        <v>-256065.64</v>
+        <v>-387906.05</v>
       </c>
       <c r="F33">
-        <v>44945.46</v>
+        <v>25702.17</v>
       </c>
       <c r="G33">
-        <v>-160957.02</v>
+        <v>-486261.29</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1208,22 +1208,22 @@
         <v>45351</v>
       </c>
       <c r="B34">
-        <v>-64760.1</v>
+        <v>36080.21</v>
       </c>
       <c r="C34">
-        <v>-130253.23</v>
+        <v>-127196.67</v>
       </c>
       <c r="D34">
-        <v>73020.62</v>
+        <v>-208518.82</v>
       </c>
       <c r="E34">
-        <v>33612.14</v>
+        <v>9096.65</v>
       </c>
       <c r="F34">
-        <v>-65702.71000000001</v>
+        <v>-61535.61</v>
       </c>
       <c r="G34">
-        <v>-154083.28</v>
+        <v>-352074.24</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1231,22 +1231,22 @@
         <v>45379</v>
       </c>
       <c r="B35">
-        <v>-10668.75</v>
+        <v>-124629.52</v>
       </c>
       <c r="C35">
-        <v>-219664.42</v>
+        <v>-217469.35</v>
       </c>
       <c r="D35">
-        <v>-81411.02</v>
+        <v>212821.67</v>
       </c>
       <c r="E35">
-        <v>117416.46</v>
+        <v>191942.15</v>
       </c>
       <c r="F35">
-        <v>-124705.92</v>
+        <v>-107147.67</v>
       </c>
       <c r="G35">
-        <v>-319033.65</v>
+        <v>-44482.71999999999</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1254,22 +1254,22 @@
         <v>45412</v>
       </c>
       <c r="B36">
-        <v>-64314.23</v>
+        <v>-19405.18</v>
       </c>
       <c r="C36">
-        <v>-119602.49</v>
+        <v>-116678.98</v>
       </c>
       <c r="D36">
-        <v>-72261.16</v>
+        <v>196606.98</v>
       </c>
       <c r="E36">
-        <v>-33495.08</v>
+        <v>-113161.81</v>
       </c>
       <c r="F36">
-        <v>-51803.68</v>
+        <v>-50658.32</v>
       </c>
       <c r="G36">
-        <v>-341476.64</v>
+        <v>-103297.31</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1277,22 +1277,22 @@
         <v>45443</v>
       </c>
       <c r="B37">
-        <v>-53496.65</v>
+        <v>-59616.7</v>
       </c>
       <c r="C37">
-        <v>-178585.87</v>
+        <v>-175169.5</v>
       </c>
       <c r="D37">
-        <v>-38809.06</v>
+        <v>135213.97</v>
       </c>
       <c r="E37">
-        <v>300409.97</v>
+        <v>779085.2</v>
       </c>
       <c r="F37">
-        <v>-20154.66</v>
+        <v>-25777.08</v>
       </c>
       <c r="G37">
-        <v>9363.730000000014</v>
+        <v>653735.89</v>
       </c>
     </row>
   </sheetData>
@@ -1333,22 +1333,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>-64760.1</v>
+        <v>-279861.37</v>
       </c>
       <c r="C2">
-        <v>-508900.64</v>
+        <v>-293352.17</v>
       </c>
       <c r="D2">
-        <v>-327640.15</v>
+        <v>-261257.96</v>
       </c>
       <c r="E2">
-        <v>-284232.58</v>
+        <v>-408560.83</v>
       </c>
       <c r="F2">
-        <v>-222519.11</v>
+        <v>-177822.85</v>
       </c>
       <c r="G2">
-        <v>-449786.81</v>
+        <v>-693055.99</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1356,22 +1356,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>-63293.15</v>
+        <v>-224558.97</v>
       </c>
       <c r="C3">
-        <v>-219664.42</v>
+        <v>-217469.35</v>
       </c>
       <c r="D3">
-        <v>-111791.43</v>
+        <v>-208655.18</v>
       </c>
       <c r="E3">
-        <v>-235239.53</v>
+        <v>-370548.57</v>
       </c>
       <c r="F3">
-        <v>-151071.49</v>
+        <v>-127055.55</v>
       </c>
       <c r="G3">
-        <v>-385191.01</v>
+        <v>-663937.91</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1379,22 +1379,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>-52432.43</v>
+        <v>-59616.7</v>
       </c>
       <c r="C4">
-        <v>-119602.49</v>
+        <v>-116678.98</v>
       </c>
       <c r="D4">
-        <v>-38809.06</v>
+        <v>-107825.34</v>
       </c>
       <c r="E4">
-        <v>-45380.2</v>
+        <v>-132815.8</v>
       </c>
       <c r="F4">
-        <v>-47442.84</v>
+        <v>-47238.51</v>
       </c>
       <c r="G4">
-        <v>-148291.51</v>
+        <v>-174699.83</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1402,22 +1402,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>20227.04</v>
+        <v>108577.25</v>
       </c>
       <c r="C5">
-        <v>67789.11</v>
+        <v>68042.74000000001</v>
       </c>
       <c r="D5">
-        <v>59099.38</v>
+        <v>135213.97</v>
       </c>
       <c r="E5">
-        <v>52739.1</v>
+        <v>47662.66</v>
       </c>
       <c r="F5">
-        <v>57287.63</v>
+        <v>35489.26</v>
       </c>
       <c r="G5">
-        <v>189666.27</v>
+        <v>460670.64</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1425,22 +1425,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>350803.54</v>
+        <v>488111.89</v>
       </c>
       <c r="C6">
-        <v>340304.51</v>
+        <v>328018.52</v>
       </c>
       <c r="D6">
-        <v>72995.55</v>
+        <v>265267.25</v>
       </c>
       <c r="E6">
-        <v>300409.97</v>
+        <v>779085.2</v>
       </c>
       <c r="F6">
-        <v>254438.23</v>
+        <v>192554.9</v>
       </c>
       <c r="G6">
-        <v>882808.5</v>
+        <v>977583.1599999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1448,22 +1448,22 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>888693.48</v>
+        <v>837710.08</v>
       </c>
       <c r="C7">
-        <v>1604802.51</v>
+        <v>1192139.79</v>
       </c>
       <c r="D7">
-        <v>75193.55</v>
+        <v>602447.76</v>
       </c>
       <c r="E7">
-        <v>332198.37</v>
+        <v>931809.35</v>
       </c>
       <c r="F7">
-        <v>322065.38</v>
+        <v>246940.85</v>
       </c>
       <c r="G7">
-        <v>1841964.34</v>
+        <v>1831461.37</v>
       </c>
     </row>
   </sheetData>
@@ -1507,22 +1507,22 @@
         <v>44377</v>
       </c>
       <c r="B2">
-        <v>98844.20039903373</v>
+        <v>90432.38931298662</v>
       </c>
       <c r="C2">
-        <v>459270.6086648845</v>
+        <v>420185.8916873904</v>
       </c>
       <c r="D2">
-        <v>238627.7461008838</v>
+        <v>218320.1153852076</v>
       </c>
       <c r="E2">
-        <v>-108306.4581691915</v>
+        <v>-99089.39270819142</v>
       </c>
       <c r="F2">
-        <v>315119.0536817732</v>
+        <v>288301.8814199296</v>
       </c>
       <c r="G2">
-        <v>1003555.150677384</v>
+        <v>918150.8850973228</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1530,22 +1530,22 @@
         <v>44407</v>
       </c>
       <c r="B3">
-        <v>367428.2564055865</v>
+        <v>336159.4812211832</v>
       </c>
       <c r="C3">
-        <v>309951.556530777</v>
+        <v>283574.1471447157</v>
       </c>
       <c r="D3">
-        <v>-141326.3679653131</v>
+        <v>-129299.2515133393</v>
       </c>
       <c r="E3">
-        <v>-142335.648574609</v>
+        <v>-130222.6406107007</v>
       </c>
       <c r="F3">
-        <v>60039.44963726957</v>
+        <v>54929.98943606276</v>
       </c>
       <c r="G3">
-        <v>453757.2460337111</v>
+        <v>415141.7256779217</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1553,22 +1553,22 @@
         <v>44439</v>
       </c>
       <c r="B4">
-        <v>131321.5805301447</v>
+        <v>120145.8886586823</v>
       </c>
       <c r="C4">
-        <v>156721.2277931765</v>
+        <v>143383.9823498671</v>
       </c>
       <c r="D4">
-        <v>366753.9636427466</v>
+        <v>335542.5719296524</v>
       </c>
       <c r="E4">
-        <v>488499.5583158635</v>
+        <v>446927.4075616274</v>
       </c>
       <c r="F4">
-        <v>295790.0630696516</v>
+        <v>270617.8210804674</v>
       </c>
       <c r="G4">
-        <v>1439086.393351583</v>
+        <v>1316617.671580297</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1576,22 +1576,22 @@
         <v>44469</v>
       </c>
       <c r="B5">
-        <v>329725.1805518786</v>
+        <v>301665.0018269937</v>
       </c>
       <c r="C5">
-        <v>662982.7366570419</v>
+        <v>606561.7679855798</v>
       </c>
       <c r="D5">
-        <v>44119.8985970844</v>
+        <v>40365.21950983386</v>
       </c>
       <c r="E5">
-        <v>1109788.203559966</v>
+        <v>1015343.322867083</v>
       </c>
       <c r="F5">
-        <v>251367.8146421836</v>
+        <v>229975.9822296948</v>
       </c>
       <c r="G5">
-        <v>2397983.834008154</v>
+        <v>2193911.294419185</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1599,22 +1599,22 @@
         <v>44498</v>
       </c>
       <c r="B6">
-        <v>984911.853976086</v>
+        <v>901094.1649401155</v>
       </c>
       <c r="C6">
-        <v>20359.93496591392</v>
+        <v>18627.26955948565</v>
       </c>
       <c r="D6">
-        <v>-128896.7894416387</v>
+        <v>-117927.4514531282</v>
       </c>
       <c r="E6">
-        <v>-725631.3748970263</v>
+        <v>-663878.8995964911</v>
       </c>
       <c r="F6">
-        <v>322875.4891539146</v>
+        <v>295398.2309221371</v>
       </c>
       <c r="G6">
-        <v>473619.1137572495</v>
+        <v>433313.314372119</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1622,22 +1622,22 @@
         <v>44530</v>
       </c>
       <c r="B7">
-        <v>422433.0562508156</v>
+        <v>386483.2782027534</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>745296.3827737056</v>
+        <v>681870.3815546393</v>
       </c>
       <c r="E7">
-        <v>944928.4677252875</v>
+        <v>864513.4334769971</v>
       </c>
       <c r="F7">
-        <v>121905.4364716454</v>
+        <v>111531.074619135</v>
       </c>
       <c r="G7">
-        <v>2234563.343221454</v>
+        <v>2044398.167853525</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1645,22 +1645,22 @@
         <v>44561</v>
       </c>
       <c r="B8">
-        <v>601231.3325476508</v>
+        <v>550065.5143409541</v>
       </c>
       <c r="C8">
-        <v>129301.2485219885</v>
+        <v>118297.4903716255</v>
       </c>
       <c r="D8">
-        <v>169008.800735359</v>
+        <v>154625.8617472752</v>
       </c>
       <c r="E8">
-        <v>28055.55541317824</v>
+        <v>25667.97949980068</v>
       </c>
       <c r="F8">
-        <v>66685.17090242894</v>
+        <v>61010.14841646167</v>
       </c>
       <c r="G8">
-        <v>994282.1081206055</v>
+        <v>909666.9943761171</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1668,22 +1668,22 @@
         <v>44592</v>
       </c>
       <c r="B9">
-        <v>283242.6246728615</v>
+        <v>259138.1912246087</v>
       </c>
       <c r="C9">
-        <v>271500.6283687741</v>
+        <v>248395.4589570991</v>
       </c>
       <c r="D9">
-        <v>283858.9137861771</v>
+        <v>259702.0330767326</v>
       </c>
       <c r="E9">
-        <v>326346.5835938827</v>
+        <v>298573.9292683237</v>
       </c>
       <c r="F9">
-        <v>-351810.2008235979</v>
+        <v>-321870.5489722449</v>
       </c>
       <c r="G9">
-        <v>813138.5495980976</v>
+        <v>743939.0635545193</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1691,22 +1691,22 @@
         <v>44620</v>
       </c>
       <c r="B10">
-        <v>-395126.8794712321</v>
+        <v>-361500.903928778</v>
       </c>
       <c r="C10">
-        <v>191965.1011071884</v>
+        <v>175628.5415608641</v>
       </c>
       <c r="D10">
-        <v>-208897.1930134154</v>
+        <v>-191119.6833877563</v>
       </c>
       <c r="E10">
-        <v>-159225.9523399865</v>
+        <v>-145675.5505392452</v>
       </c>
       <c r="F10">
-        <v>48855.42782382243</v>
+        <v>44697.74707246872</v>
       </c>
       <c r="G10">
-        <v>-522429.4958936233</v>
+        <v>-477969.8492224467</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1714,22 +1714,22 @@
         <v>44651</v>
       </c>
       <c r="B11">
-        <v>-957553.1913656393</v>
+        <v>-876063.771469557</v>
       </c>
       <c r="C11">
-        <v>-157748.5239804832</v>
+        <v>-144323.8538686336</v>
       </c>
       <c r="D11">
-        <v>-176550.6460317271</v>
+        <v>-161525.8830659377</v>
       </c>
       <c r="E11">
-        <v>-73124.59663764625</v>
+        <v>-66901.567970551</v>
       </c>
       <c r="F11">
-        <v>119019.8971324949</v>
+        <v>108891.0996297827</v>
       </c>
       <c r="G11">
-        <v>-1245957.060883001</v>
+        <v>-1139923.976744896</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1737,22 +1737,22 @@
         <v>44680</v>
       </c>
       <c r="B12">
-        <v>-215281.2795576144</v>
+        <v>-196960.4732109543</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>265671.5413240877</v>
+        <v>243062.4372235399</v>
       </c>
       <c r="E12">
-        <v>172622.7982156846</v>
+        <v>157932.3018398409</v>
       </c>
       <c r="F12">
-        <v>-39936.03548959437</v>
+        <v>-36537.41033295394</v>
       </c>
       <c r="G12">
-        <v>183077.0244925635</v>
+        <v>167496.8555194725</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1760,22 +1760,22 @@
         <v>44712</v>
       </c>
       <c r="B13">
-        <v>703508.4671257754</v>
+        <v>643638.6892429395</v>
       </c>
       <c r="C13">
-        <v>33565.72677582108</v>
+        <v>30709.22582316786</v>
       </c>
       <c r="D13">
-        <v>-11875.82118073685</v>
+        <v>-10865.16841749142</v>
       </c>
       <c r="E13">
-        <v>59846.86270599764</v>
+        <v>54753.79198315155</v>
       </c>
       <c r="F13">
-        <v>191546.5892095405</v>
+        <v>175245.645743938</v>
       </c>
       <c r="G13">
-        <v>976591.8246363978</v>
+        <v>893482.1843757054</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1783,22 +1783,22 @@
         <v>44742</v>
       </c>
       <c r="B14">
-        <v>-29593.59561242672</v>
+        <v>-27075.12983857646</v>
       </c>
       <c r="C14">
-        <v>-29725.45207785275</v>
+        <v>-27195.76509250805</v>
       </c>
       <c r="D14">
-        <v>195271.3915604829</v>
+        <v>178653.4610224727</v>
       </c>
       <c r="E14">
-        <v>76322.02282899787</v>
+        <v>69826.88770573557</v>
       </c>
       <c r="F14">
-        <v>-110171.8097527849</v>
+        <v>-100795.9996707863</v>
       </c>
       <c r="G14">
-        <v>102102.5569464165</v>
+        <v>93413.4541263374</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1806,22 +1806,22 @@
         <v>44771</v>
       </c>
       <c r="B15">
-        <v>-456445.3796204465</v>
+        <v>-417601.0944831686</v>
       </c>
       <c r="C15">
-        <v>148600.7358630588</v>
+        <v>135954.5582190352</v>
       </c>
       <c r="D15">
-        <v>-339262.0271372901</v>
+        <v>-310390.2464012681</v>
       </c>
       <c r="E15">
-        <v>-205812.8547666229</v>
+        <v>-188297.8276189722</v>
       </c>
       <c r="F15">
-        <v>-196415.7867948475</v>
+        <v>-179700.4662584316</v>
       </c>
       <c r="G15">
-        <v>-1049335.312456148</v>
+        <v>-960035.0765428052</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1829,22 +1829,22 @@
         <v>44804</v>
       </c>
       <c r="B16">
-        <v>-45283.30363108436</v>
+        <v>-41429.61677885577</v>
       </c>
       <c r="C16">
-        <v>206058.76895141</v>
+        <v>188522.8140846068</v>
       </c>
       <c r="D16">
-        <v>44965.0997599066</v>
+        <v>41138.4926032029</v>
       </c>
       <c r="E16">
-        <v>629029.1971774587</v>
+        <v>575497.7329852871</v>
       </c>
       <c r="F16">
-        <v>-162394.2170286421</v>
+        <v>-148574.1904656587</v>
       </c>
       <c r="G16">
-        <v>672375.5452290488</v>
+        <v>615155.2324285824</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1852,22 +1852,22 @@
         <v>44834</v>
       </c>
       <c r="B17">
-        <v>207349.8639949656</v>
+        <v>189704.0347242347</v>
       </c>
       <c r="C17">
-        <v>-260823.4624848139</v>
+        <v>-238626.9382135487</v>
       </c>
       <c r="D17">
-        <v>-424927.008473374</v>
+        <v>-388764.9908111605</v>
       </c>
       <c r="E17">
-        <v>-596756.4252744862</v>
+        <v>-545971.4293563757</v>
       </c>
       <c r="F17">
-        <v>-30944.70233405443</v>
+        <v>-28311.25505948335</v>
       </c>
       <c r="G17">
-        <v>-1106101.734571763</v>
+        <v>-1011970.578716333</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1875,22 +1875,22 @@
         <v>44865</v>
       </c>
       <c r="B18">
-        <v>-85412.41010090688</v>
+        <v>-78143.66742028076</v>
       </c>
       <c r="C18">
-        <v>235705.4009515416</v>
+        <v>215646.4668232754</v>
       </c>
       <c r="D18">
-        <v>521114.259319382</v>
+        <v>476766.5415378245</v>
       </c>
       <c r="E18">
-        <v>91713.32560015441</v>
+        <v>83908.36419718707</v>
       </c>
       <c r="F18">
-        <v>316072.0604414066</v>
+        <v>289173.7856688098</v>
       </c>
       <c r="G18">
-        <v>1079192.636211578</v>
+        <v>987351.490806816</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1898,22 +1898,22 @@
         <v>44895</v>
       </c>
       <c r="B19">
-        <v>198637.6848355129</v>
+        <v>181733.2769627122</v>
       </c>
       <c r="C19">
-        <v>-46348.79312828646</v>
+        <v>-42404.43129129959</v>
       </c>
       <c r="D19">
-        <v>155017.2681971932</v>
+        <v>141825.0326397627</v>
       </c>
       <c r="E19">
-        <v>-214105.7578250658</v>
+        <v>-195884.9903952242</v>
       </c>
       <c r="F19">
-        <v>-291728.6857137901</v>
+        <v>-266902.0739075478</v>
       </c>
       <c r="G19">
-        <v>-198528.2836344361</v>
+        <v>-181633.1859915966</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1921,22 +1921,22 @@
         <v>44925</v>
       </c>
       <c r="B20">
-        <v>143632.9787048459</v>
+        <v>131409.5657204335</v>
       </c>
       <c r="C20">
-        <v>-222696.2371624972</v>
+        <v>-203744.4051984355</v>
       </c>
       <c r="D20">
-        <v>-99239.05870827391</v>
+        <v>-90793.64450247197</v>
       </c>
       <c r="E20">
-        <v>-65182.05202982499</v>
+        <v>-59634.94753950251</v>
       </c>
       <c r="F20">
-        <v>225010.4148253135</v>
+        <v>205861.6423706561</v>
       </c>
       <c r="G20">
-        <v>-18473.95437043661</v>
+        <v>-16901.78914932036</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1944,22 +1944,22 @@
         <v>44957</v>
       </c>
       <c r="B21">
-        <v>369645.9303811488</v>
+        <v>338188.4273355495</v>
       </c>
       <c r="C21">
-        <v>-151908.2402363885</v>
+        <v>-138980.588294</v>
       </c>
       <c r="D21">
-        <v>282335.7578706761</v>
+        <v>258308.5003436141</v>
       </c>
       <c r="E21">
-        <v>151430.4925739417</v>
+        <v>138543.4977775171</v>
       </c>
       <c r="F21">
-        <v>-83263.85533268952</v>
+        <v>-76177.95835009427</v>
       </c>
       <c r="G21">
-        <v>568240.0852566886</v>
+        <v>519881.8788125864</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1967,22 +1967,22 @@
         <v>44985</v>
       </c>
       <c r="B22">
-        <v>-187602.2579002067</v>
+        <v>-171636.9837981171</v>
       </c>
       <c r="C22">
-        <v>-182391.0840696456</v>
+        <v>-166869.2898037251</v>
       </c>
       <c r="D22">
-        <v>184213.6934160686</v>
+        <v>168536.7919668854</v>
       </c>
       <c r="E22">
-        <v>273497.364562509</v>
+        <v>250222.2694740358</v>
       </c>
       <c r="F22">
-        <v>63557.77563024794</v>
+        <v>58148.8998490415</v>
       </c>
       <c r="G22">
-        <v>151275.4916389732</v>
+        <v>138401.6876881204</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1990,22 +1990,22 @@
         <v>45016</v>
       </c>
       <c r="B23">
-        <v>220399.855435208</v>
+        <v>201643.4494970888</v>
       </c>
       <c r="C23">
-        <v>-490005.8975005403</v>
+        <v>-448305.5546965749</v>
       </c>
       <c r="D23">
-        <v>-176491.1643550252</v>
+        <v>-161471.4633820027</v>
       </c>
       <c r="E23">
-        <v>-235738.5673638894</v>
+        <v>-215676.8107170135</v>
       </c>
       <c r="F23">
-        <v>103122.5753989325</v>
+        <v>94346.66725803386</v>
       </c>
       <c r="G23">
-        <v>-578713.1983853146</v>
+        <v>-529463.7120404685</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2013,22 +2013,22 @@
         <v>45044</v>
       </c>
       <c r="B24">
-        <v>-76251.24030782586</v>
+        <v>-69762.12889858942</v>
       </c>
       <c r="C24">
-        <v>72287.10854870384</v>
+        <v>66135.35155523785</v>
       </c>
       <c r="D24">
-        <v>-130024.2533387605</v>
+        <v>-118958.9662377007</v>
       </c>
       <c r="E24">
-        <v>-450823.984019353</v>
+        <v>-412458.0892949213</v>
       </c>
       <c r="F24">
-        <v>100104.7153489571</v>
+        <v>91585.63227743092</v>
       </c>
       <c r="G24">
-        <v>-484707.6537682784</v>
+        <v>-443458.2005985428</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2036,22 +2036,22 @@
         <v>45077</v>
       </c>
       <c r="B25">
-        <v>-200690.7875211514</v>
+        <v>-183611.6570863579</v>
       </c>
       <c r="C25">
-        <v>-46900.56447505185</v>
+        <v>-42909.24594952945</v>
       </c>
       <c r="D25">
-        <v>-191699.1424298503</v>
+        <v>-175385.2164233943</v>
       </c>
       <c r="E25">
-        <v>-386416.53839863</v>
+        <v>-353531.8278297601</v>
       </c>
       <c r="F25">
-        <v>-12688.07541354062</v>
+        <v>-11608.29842112876</v>
       </c>
       <c r="G25">
-        <v>-838395.1082382243</v>
+        <v>-767046.2457101705</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2059,22 +2059,22 @@
         <v>45107</v>
       </c>
       <c r="B26">
-        <v>-219184.2207409611</v>
+        <v>-200531.2674015414</v>
       </c>
       <c r="C26">
-        <v>-596916.2751370218</v>
+        <v>-546117.6757212824</v>
       </c>
       <c r="D26">
-        <v>288186.1845345334</v>
+        <v>263661.0456581308</v>
       </c>
       <c r="E26">
-        <v>83977.42273993557</v>
+        <v>76830.79994639062</v>
       </c>
       <c r="F26">
-        <v>110497.122776174</v>
+        <v>101093.6279975966</v>
       </c>
       <c r="G26">
-        <v>-333439.7658273401</v>
+        <v>-305063.4695207056</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2082,22 +2082,22 @@
         <v>45138</v>
       </c>
       <c r="B27">
-        <v>-214402.5804573796</v>
+        <v>-196156.5529121341</v>
       </c>
       <c r="C27">
-        <v>1421362.98926745</v>
+        <v>1300402.559599853</v>
       </c>
       <c r="D27">
-        <v>-71557.06810946846</v>
+        <v>-65467.43881024518</v>
       </c>
       <c r="E27">
-        <v>-409314.0172368147</v>
+        <v>-374480.6919231647</v>
       </c>
       <c r="F27">
-        <v>383361.1357091182</v>
+        <v>350736.4451526739</v>
       </c>
       <c r="G27">
-        <v>1109450.459172905</v>
+        <v>1015034.321106983</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2105,22 +2105,22 @@
         <v>45169</v>
       </c>
       <c r="B28">
-        <v>157136.9339676948</v>
+        <v>143764.311215517</v>
       </c>
       <c r="C28">
-        <v>60147.28879243253</v>
+        <v>55028.65129405275</v>
       </c>
       <c r="D28">
-        <v>-25439.51717679358</v>
+        <v>-23274.57060686304</v>
       </c>
       <c r="E28">
-        <v>101593.8381244197</v>
+        <v>92948.02814913397</v>
       </c>
       <c r="F28">
-        <v>-36300.27429288541</v>
+        <v>-33211.05865361942</v>
       </c>
       <c r="G28">
-        <v>257138.2694148681</v>
+        <v>235255.3613982212</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2128,22 +2128,22 @@
         <v>45198</v>
       </c>
       <c r="B29">
-        <v>-55070.34022231883</v>
+        <v>-50383.75976009235</v>
       </c>
       <c r="C29">
-        <v>-117601.4154001298</v>
+        <v>-107593.3331271781</v>
       </c>
       <c r="D29">
-        <v>-98731.04923194974</v>
+        <v>-90328.86750440639</v>
       </c>
       <c r="E29">
-        <v>-447927.1853884749</v>
+        <v>-409807.8131988897</v>
       </c>
       <c r="F29">
-        <v>-3608.727137403841</v>
+        <v>-3301.618264871279</v>
       </c>
       <c r="G29">
-        <v>-722938.7173802771</v>
+        <v>-661415.3918554379</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2151,22 +2151,22 @@
         <v>45230</v>
       </c>
       <c r="B30">
-        <v>-8653.810908082249</v>
+        <v>-7917.356748512875</v>
       </c>
       <c r="C30">
-        <v>217501.3677530521</v>
+        <v>198991.6280909419</v>
       </c>
       <c r="D30">
-        <v>-84256.77506770659</v>
+        <v>-77086.37891165608</v>
       </c>
       <c r="E30">
-        <v>-6700.080639293338</v>
+        <v>-6129.892278504249</v>
       </c>
       <c r="F30">
-        <v>101183.3862092472</v>
+        <v>92572.50639634269</v>
       </c>
       <c r="G30">
-        <v>219074.0873472171</v>
+        <v>200430.5065486114</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2174,22 +2174,22 @@
         <v>45260</v>
       </c>
       <c r="B31">
-        <v>108530.231843095</v>
+        <v>99294.1228584152</v>
       </c>
       <c r="C31">
-        <v>130753.0888395384</v>
+        <v>119625.776586567</v>
       </c>
       <c r="D31">
-        <v>-273773.5163993401</v>
+        <v>-250474.920315633</v>
       </c>
       <c r="E31">
-        <v>100086.524291517</v>
+        <v>91568.9893101976</v>
       </c>
       <c r="F31">
-        <v>64721.28770166126</v>
+        <v>59213.39504640905</v>
       </c>
       <c r="G31">
-        <v>130317.6162764716</v>
+        <v>119227.3634859559</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2197,22 +2197,22 @@
         <v>45289</v>
       </c>
       <c r="B32">
-        <v>166757.5625779619</v>
+        <v>152566.2078205486</v>
       </c>
       <c r="C32">
-        <v>-175095.4407068594</v>
+        <v>-160194.5182115759</v>
       </c>
       <c r="D32">
-        <v>268911.5827830959</v>
+        <v>246026.7455939685</v>
       </c>
       <c r="E32">
-        <v>225178.1720842096</v>
+        <v>206015.1231989227</v>
       </c>
       <c r="F32">
-        <v>97803.50450654686</v>
+        <v>89480.25842694695</v>
       </c>
       <c r="G32">
-        <v>583555.3812449549</v>
+        <v>533893.8168288108</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2220,22 +2220,22 @@
         <v>45322</v>
       </c>
       <c r="B33">
-        <v>117601.4154001292</v>
+        <v>107593.3331271779</v>
       </c>
       <c r="C33">
-        <v>137317.1166073679</v>
+        <v>125631.1943264571</v>
       </c>
       <c r="D33">
-        <v>-529929.5140532361</v>
+        <v>-484831.6029654734</v>
       </c>
       <c r="E33">
-        <v>-650201.2451027367</v>
+        <v>-594868.0032975819</v>
       </c>
       <c r="F33">
-        <v>88398.9696911967</v>
+        <v>80876.06566403406</v>
       </c>
       <c r="G33">
-        <v>-836813.257457279</v>
+        <v>-765599.0131453862</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2243,22 +2243,22 @@
         <v>45351</v>
       </c>
       <c r="B34">
-        <v>75040.90316008269</v>
+        <v>68654.79351924665</v>
       </c>
       <c r="C34">
-        <v>-158063.7638291452</v>
+        <v>-144612.2662651735</v>
       </c>
       <c r="D34">
-        <v>-338894.4013681157</v>
+        <v>-310053.9062159538</v>
       </c>
       <c r="E34">
-        <v>52275.17680934641</v>
+        <v>47826.46955050125</v>
       </c>
       <c r="F34">
-        <v>-57013.71079456346</v>
+        <v>-52161.74616151195</v>
       </c>
       <c r="G34">
-        <v>-426655.7960223953</v>
+        <v>-390346.6555728914</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2266,22 +2266,22 @@
         <v>45379</v>
       </c>
       <c r="B35">
-        <v>-164151.975662681</v>
+        <v>-150182.3608233526</v>
       </c>
       <c r="C35">
-        <v>-344193.5692227177</v>
+        <v>-314902.1057919292</v>
       </c>
       <c r="D35">
-        <v>305376.5148867558</v>
+        <v>279388.4493960871</v>
       </c>
       <c r="E35">
-        <v>278019.6678284556</v>
+        <v>254359.7169710714</v>
       </c>
       <c r="F35">
-        <v>-149582.2736807866</v>
+        <v>-136852.5654840019</v>
       </c>
       <c r="G35">
-        <v>-74531.63585097389</v>
+        <v>-68188.86573212524</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>-139536.2123885003</v>
+        <v>-127661.4412483</v>
       </c>
       <c r="D36">
-        <v>286141.4432152387</v>
+        <v>261790.3153342038</v>
       </c>
       <c r="E36">
-        <v>-113765.2194967026</v>
+        <v>-104083.6040786439</v>
       </c>
       <c r="F36">
-        <v>-37079.03450262902</v>
+        <v>-33923.54503303944</v>
       </c>
       <c r="G36">
-        <v>-4239.023172593275</v>
+        <v>-3878.275025779483</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2312,22 +2312,22 @@
         <v>45443</v>
       </c>
       <c r="B37">
-        <v>-58365.14690228672</v>
+        <v>-53398.17273719235</v>
       </c>
       <c r="C37">
-        <v>-249570.4245369269</v>
+        <v>-228331.5531069977</v>
       </c>
       <c r="D37">
-        <v>211897.2808792449</v>
+        <v>193864.4586275842</v>
       </c>
       <c r="E37">
-        <v>941786.4048081371</v>
+        <v>861638.7655063668</v>
       </c>
       <c r="F37">
-        <v>6268.333199529207</v>
+        <v>5734.8872868106</v>
       </c>
       <c r="G37">
-        <v>852016.4474476976</v>
+        <v>779508.3855765715</v>
       </c>
     </row>
   </sheetData>
@@ -2371,22 +2371,22 @@
         <v>44377</v>
       </c>
       <c r="B2">
-        <v>-160662.9703990337</v>
+        <v>-35982.02931298662</v>
       </c>
       <c r="C2">
-        <v>-118966.0986648845</v>
+        <v>-92167.37168739038</v>
       </c>
       <c r="D2">
-        <v>-289122.6461008838</v>
+        <v>-61238.08538520758</v>
       </c>
       <c r="E2">
-        <v>77072.97816919153</v>
+        <v>-10266.43729180859</v>
       </c>
       <c r="F2">
-        <v>-61625.38368177324</v>
+        <v>-96503.88141992962</v>
       </c>
       <c r="G2">
-        <v>-553304.1206773837</v>
+        <v>-296157.8050973227</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2394,22 +2394,22 @@
         <v>44407</v>
       </c>
       <c r="B3">
-        <v>-308311.9164055865</v>
+        <v>-57029.36122118321</v>
       </c>
       <c r="C3">
-        <v>-102212.806530777</v>
+        <v>-80337.04714471565</v>
       </c>
       <c r="D3">
-        <v>207155.7479653131</v>
+        <v>14290.8715133393</v>
       </c>
       <c r="E3">
-        <v>96955.44857460896</v>
+        <v>-2593.159389299326</v>
       </c>
       <c r="F3">
-        <v>-38305.62963726957</v>
+        <v>-47614.97943606276</v>
       </c>
       <c r="G3">
-        <v>-144719.1560337112</v>
+        <v>-173283.6756779217</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2417,22 +2417,22 @@
         <v>44439</v>
       </c>
       <c r="B4">
-        <v>-186824.3405301447</v>
+        <v>-40108.53865868227</v>
       </c>
       <c r="C4">
-        <v>-74014.24779317652</v>
+        <v>-60763.23234986712</v>
       </c>
       <c r="D4">
-        <v>-478545.3936427466</v>
+        <v>-70275.32192965242</v>
       </c>
       <c r="E4">
-        <v>-302530.0883158635</v>
+        <v>-73803.81756162742</v>
       </c>
       <c r="F4">
-        <v>-61360.94306965161</v>
+        <v>-94083.60108046743</v>
       </c>
       <c r="G4">
-        <v>-1103275.013351583</v>
+        <v>-339034.5115802968</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2440,22 +2440,22 @@
         <v>44469</v>
       </c>
       <c r="B5">
-        <v>-295815.7705518786</v>
+        <v>-55462.60182699372</v>
       </c>
       <c r="C5">
-        <v>-130453.006657042</v>
+        <v>-101067.0479855798</v>
       </c>
       <c r="D5">
-        <v>-20434.0385970844</v>
+        <v>-34538.54950983387</v>
       </c>
       <c r="E5">
-        <v>-777589.8335599661</v>
+        <v>-83533.97286708292</v>
       </c>
       <c r="F5">
-        <v>-60010.02464218362</v>
+        <v>-87847.7522296948</v>
       </c>
       <c r="G5">
-        <v>-1284302.674008155</v>
+        <v>-362449.9244191847</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2463,22 +2463,22 @@
         <v>44498</v>
       </c>
       <c r="B6">
-        <v>-347962.383976086</v>
+        <v>-63384.08494011557</v>
       </c>
       <c r="C6">
-        <v>-37759.87496591391</v>
+        <v>-34368.52955948564</v>
       </c>
       <c r="D6">
-        <v>192921.5494416387</v>
+        <v>10102.11145312816</v>
       </c>
       <c r="E6">
-        <v>441398.7948970263</v>
+        <v>255318.0695964911</v>
       </c>
       <c r="F6">
-        <v>-61682.12915391463</v>
+        <v>-97428.41092213709</v>
       </c>
       <c r="G6">
-        <v>186915.9562427505</v>
+        <v>70239.155627881</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2486,22 +2486,22 @@
         <v>44530</v>
       </c>
       <c r="B7">
-        <v>-322923.4362508156</v>
+        <v>-58818.5982027534</v>
       </c>
       <c r="C7">
-        <v>-31368.12</v>
+        <v>-29534.14</v>
       </c>
       <c r="D7">
-        <v>-1072936.532773706</v>
+        <v>-79422.62155463931</v>
       </c>
       <c r="E7">
-        <v>-643875.1977252875</v>
+        <v>-82578.00347699702</v>
       </c>
       <c r="F7">
-        <v>-48593.74647164538</v>
+        <v>-63326.35461913503</v>
       </c>
       <c r="G7">
-        <v>-2119697.033221454</v>
+        <v>-313679.717853525</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2509,22 +2509,22 @@
         <v>44561</v>
       </c>
       <c r="B8">
-        <v>-348244.3225476508</v>
+        <v>-61953.62434095412</v>
       </c>
       <c r="C8">
-        <v>-67611.32852198851</v>
+        <v>-56224.79037162547</v>
       </c>
       <c r="D8">
-        <v>-189981.800735359</v>
+        <v>-53868.62174727519</v>
       </c>
       <c r="E8">
-        <v>-3985.455413178242</v>
+        <v>-35169.75949980068</v>
       </c>
       <c r="F8">
-        <v>-39579.47090242895</v>
+        <v>-49442.29841646167</v>
       </c>
       <c r="G8">
-        <v>-649402.3781206055</v>
+        <v>-256659.0943761172</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2532,22 +2532,22 @@
         <v>44592</v>
       </c>
       <c r="B9">
-        <v>-277234.1646728615</v>
+        <v>-53060.70122460873</v>
       </c>
       <c r="C9">
-        <v>-96286.78836877414</v>
+        <v>-76249.28895709905</v>
       </c>
       <c r="D9">
-        <v>-355046.8037861771</v>
+        <v>-65011.42307673258</v>
       </c>
       <c r="E9">
-        <v>-192328.6335938827</v>
+        <v>-65734.57926832369</v>
       </c>
       <c r="F9">
-        <v>129291.0908235979</v>
+        <v>144047.6989722449</v>
       </c>
       <c r="G9">
-        <v>-791605.2995980976</v>
+        <v>-116008.2935545193</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2555,22 +2555,22 @@
         <v>44620</v>
       </c>
       <c r="B10">
-        <v>568426.3694712322</v>
+        <v>136941.933928778</v>
       </c>
       <c r="C10">
-        <v>-81616.28110718835</v>
+        <v>-66092.87156086414</v>
       </c>
       <c r="D10">
-        <v>281786.9030134155</v>
+        <v>39662.19338775636</v>
       </c>
       <c r="E10">
-        <v>106784.4623399865</v>
+        <v>1456.850539245177</v>
       </c>
       <c r="F10">
-        <v>-36066.86782382243</v>
+        <v>-44460.68707246872</v>
       </c>
       <c r="G10">
-        <v>839314.5858936233</v>
+        <v>67507.41922244668</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2578,22 +2578,22 @@
         <v>44651</v>
       </c>
       <c r="B11">
-        <v>1846246.671365639</v>
+        <v>596202.401469557</v>
       </c>
       <c r="C11">
-        <v>27674.24398048324</v>
+        <v>17303.94386863359</v>
       </c>
       <c r="D11">
-        <v>246645.6460317271</v>
+        <v>26959.18306593769</v>
       </c>
       <c r="E11">
-        <v>56388.89663764625</v>
+        <v>-17548.95202944901</v>
       </c>
       <c r="F11">
-        <v>-48189.89713249492</v>
+        <v>-62656.24962978274</v>
       </c>
       <c r="G11">
-        <v>2128765.560883001</v>
+        <v>560260.3267448965</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2601,22 +2601,22 @@
         <v>44680</v>
       </c>
       <c r="B12">
-        <v>235508.3195576144</v>
+        <v>45019.00321095428</v>
       </c>
       <c r="C12">
-        <v>-31368.12</v>
+        <v>-29534.14</v>
       </c>
       <c r="D12">
-        <v>-328405.2413240877</v>
+        <v>-63580.11722353986</v>
       </c>
       <c r="E12">
-        <v>-93107.93821568457</v>
+        <v>-53258.72183984089</v>
       </c>
       <c r="F12">
-        <v>-13885.23451040563</v>
+        <v>-15702.05966704607</v>
       </c>
       <c r="G12">
-        <v>-231258.2144925635</v>
+        <v>-117056.0355194725</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2624,22 +2624,22 @@
         <v>44712</v>
       </c>
       <c r="B13">
-        <v>-352704.9271257754</v>
+        <v>-62706.70924293948</v>
       </c>
       <c r="C13">
-        <v>-41765.42677582108</v>
+        <v>-37370.53582316786</v>
       </c>
       <c r="D13">
-        <v>51585.57118073685</v>
+        <v>-22673.25158250858</v>
       </c>
       <c r="E13">
-        <v>-23271.29270599764</v>
+        <v>-39795.32198315155</v>
       </c>
       <c r="F13">
-        <v>-56268.94920954047</v>
+        <v>-77793.28574393799</v>
       </c>
       <c r="G13">
-        <v>-422425.0246363977</v>
+        <v>-240339.1043757056</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2647,22 +2647,22 @@
         <v>44742</v>
       </c>
       <c r="B14">
-        <v>-30389.58438757328</v>
+        <v>-13069.78016142355</v>
       </c>
       <c r="C14">
-        <v>-21556.24792214725</v>
+        <v>-22010.63490749196</v>
       </c>
       <c r="D14">
-        <v>-227028.6615604829</v>
+        <v>-56893.24102247268</v>
       </c>
       <c r="E14">
-        <v>-33331.65282899787</v>
+        <v>-42038.34770573557</v>
       </c>
       <c r="F14">
-        <v>9465.809752784859</v>
+        <v>12064.21967078635</v>
       </c>
       <c r="G14">
-        <v>-302840.3369464165</v>
+        <v>-121947.7841263374</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2670,22 +2670,22 @@
         <v>44771</v>
       </c>
       <c r="B15">
-        <v>694507.3496204464</v>
+        <v>176563.0844831686</v>
       </c>
       <c r="C15">
-        <v>-72163.08586305878</v>
+        <v>-59456.04821903516</v>
       </c>
       <c r="D15">
-        <v>412257.5771372901</v>
+        <v>101735.0664012681</v>
       </c>
       <c r="E15">
-        <v>133782.2747666229</v>
+        <v>13502.4576189722</v>
       </c>
       <c r="F15">
-        <v>45344.2967948475</v>
+        <v>52644.91625843161</v>
       </c>
       <c r="G15">
-        <v>1213728.412456148</v>
+        <v>284989.4765428051</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2693,22 +2693,22 @@
         <v>44804</v>
       </c>
       <c r="B16">
-        <v>-11440.64636891564</v>
+        <v>-9421.183221144238</v>
       </c>
       <c r="C16">
-        <v>-84462.85895141002</v>
+        <v>-68074.35408460682</v>
       </c>
       <c r="D16">
-        <v>-21541.3197599066</v>
+        <v>-34700.8926032029</v>
       </c>
       <c r="E16">
-        <v>-402802.4371774587</v>
+        <v>-78054.2429852871</v>
       </c>
       <c r="F16">
-        <v>30244.04702864206</v>
+        <v>35766.08046565867</v>
       </c>
       <c r="G16">
-        <v>-490003.2152290489</v>
+        <v>-154484.5924285824</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2716,22 +2716,22 @@
         <v>44834</v>
       </c>
       <c r="B17">
-        <v>-238254.0739949656</v>
+        <v>-47731.28472423472</v>
       </c>
       <c r="C17">
-        <v>76833.8924848139</v>
+        <v>58029.92821354864</v>
       </c>
       <c r="D17">
-        <v>488183.408473374</v>
+        <v>152120.3408111605</v>
       </c>
       <c r="E17">
-        <v>361516.8952744862</v>
+        <v>175422.8593563757</v>
       </c>
       <c r="F17">
-        <v>-16498.13766594556</v>
+        <v>-18927.25494051665</v>
       </c>
       <c r="G17">
-        <v>671781.9845717631</v>
+        <v>318914.5887163335</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2739,22 +2739,22 @@
         <v>44865</v>
       </c>
       <c r="B18">
-        <v>40052.26010090688</v>
+        <v>884.9374202807667</v>
       </c>
       <c r="C18">
-        <v>-90099.06095154161</v>
+        <v>-71979.68682327538</v>
       </c>
       <c r="D18">
-        <v>-715976.1193193819</v>
+        <v>-76052.58153782447</v>
       </c>
       <c r="E18">
-        <v>-42772.3156001544</v>
+        <v>-44043.13419718706</v>
       </c>
       <c r="F18">
-        <v>-61633.83044140655</v>
+        <v>-96618.88566880979</v>
       </c>
       <c r="G18">
-        <v>-870429.0662115777</v>
+        <v>-287809.350806816</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2762,22 +2762,22 @@
         <v>44895</v>
       </c>
       <c r="B19">
-        <v>-233023.0148355129</v>
+        <v>-46986.28696271224</v>
       </c>
       <c r="C19">
-        <v>-15815.37687171354</v>
+        <v>-17553.64870870041</v>
       </c>
       <c r="D19">
-        <v>-170429.1481971933</v>
+        <v>-52125.26263976267</v>
       </c>
       <c r="E19">
-        <v>138573.5978250657</v>
+        <v>15786.35039522414</v>
       </c>
       <c r="F19">
-        <v>94031.21571379006</v>
+        <v>105978.3439075478</v>
       </c>
       <c r="G19">
-        <v>-186662.7263655639</v>
+        <v>5099.495991596603</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2785,22 +2785,22 @@
         <v>44925</v>
       </c>
       <c r="B20">
-        <v>-196065.4087048459</v>
+        <v>-41526.56572043351</v>
       </c>
       <c r="C20">
-        <v>57519.95716249716</v>
+        <v>41961.5551984355</v>
       </c>
       <c r="D20">
-        <v>158338.4387082739</v>
+        <v>681.3045024719759</v>
       </c>
       <c r="E20">
-        <v>51699.38202982499</v>
+        <v>-19105.6224604975</v>
       </c>
       <c r="F20">
-        <v>-58656.02482531354</v>
+        <v>-83666.47237065611</v>
       </c>
       <c r="G20">
-        <v>12836.34437043662</v>
+        <v>-101655.8008506796</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2808,22 +2808,22 @@
         <v>44957</v>
       </c>
       <c r="B21">
-        <v>-308980.7403811488</v>
+        <v>-57112.19733554951</v>
       </c>
       <c r="C21">
-        <v>25163.51023638847</v>
+        <v>15249.15829399999</v>
       </c>
       <c r="D21">
-        <v>-352808.9578706761</v>
+        <v>-64895.7703436141</v>
       </c>
       <c r="E21">
-        <v>-79804.98257394168</v>
+        <v>-51047.53777751712</v>
       </c>
       <c r="F21">
-        <v>-100.424667310479</v>
+        <v>879.2683500942658</v>
       </c>
       <c r="G21">
-        <v>-716531.5952566887</v>
+        <v>-156927.0788125864</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2831,22 +2831,22 @@
         <v>44985</v>
       </c>
       <c r="B22">
-        <v>190318.5679002067</v>
+        <v>34129.01379811714</v>
       </c>
       <c r="C22">
-        <v>38573.21406964556</v>
+        <v>26265.43980372511</v>
       </c>
       <c r="D22">
-        <v>-211376.3534160686</v>
+        <v>-55657.97196688535</v>
       </c>
       <c r="E22">
-        <v>-157659.974562509</v>
+        <v>-62081.24947403578</v>
       </c>
       <c r="F22">
-        <v>-38985.22563024794</v>
+        <v>-48586.7198490415</v>
       </c>
       <c r="G22">
-        <v>-179129.7716389732</v>
+        <v>-105931.4876881204</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2854,22 +2854,22 @@
         <v>45016</v>
       </c>
       <c r="B23">
-        <v>-245785.625435208</v>
+        <v>-48791.62949708881</v>
       </c>
       <c r="C23">
-        <v>173172.1675005403</v>
+        <v>180652.5146965749</v>
       </c>
       <c r="D23">
-        <v>246580.0343550252</v>
+        <v>26936.77338200266</v>
       </c>
       <c r="E23">
-        <v>151055.9673638894</v>
+        <v>21950.25071701355</v>
       </c>
       <c r="F23">
-        <v>-45834.94539893248</v>
+        <v>-58857.40725803386</v>
       </c>
       <c r="G23">
-        <v>279187.5983853146</v>
+        <v>121890.5020404685</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2877,22 +2877,22 @@
         <v>45044</v>
       </c>
       <c r="B24">
-        <v>27914.92030782587</v>
+        <v>-1595.381101410574</v>
       </c>
       <c r="C24">
-        <v>-52886.18854870384</v>
+        <v>-45592.02155523785</v>
       </c>
       <c r="D24">
-        <v>194219.0833387605</v>
+        <v>10476.12623770074</v>
       </c>
       <c r="E24">
-        <v>275126.974019353</v>
+        <v>101146.9192949213</v>
       </c>
       <c r="F24">
-        <v>-45362.70534895709</v>
+        <v>-58115.50227743093</v>
       </c>
       <c r="G24">
-        <v>399012.0837682784</v>
+        <v>6320.140598542814</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2900,22 +2900,22 @@
         <v>45077</v>
       </c>
       <c r="B25">
-        <v>211460.4175211514</v>
+        <v>39173.69708635792</v>
       </c>
       <c r="C25">
-        <v>-15621.64552494815</v>
+        <v>-17402.56405047054</v>
       </c>
       <c r="D25">
-        <v>263237.9224298503</v>
+        <v>32778.62642339428</v>
       </c>
       <c r="E25">
-        <v>237803.88839863</v>
+        <v>73811.8978297601</v>
       </c>
       <c r="F25">
-        <v>-21545.05458645938</v>
+        <v>-25253.32157887124</v>
       </c>
       <c r="G25">
-        <v>675335.5282382243</v>
+        <v>103108.3357101704</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2923,22 +2923,22 @@
         <v>45107</v>
       </c>
       <c r="B26">
-        <v>242025.4807409611</v>
+        <v>46622.62740154134</v>
       </c>
       <c r="C26">
-        <v>88015.63513702177</v>
+        <v>252765.5057212824</v>
       </c>
       <c r="D26">
-        <v>-361411.0745345334</v>
+        <v>-65335.90565813083</v>
       </c>
       <c r="E26">
-        <v>-38022.14273993557</v>
+        <v>-43046.24994639061</v>
       </c>
       <c r="F26">
-        <v>-46954.94277617397</v>
+        <v>-60642.33799759663</v>
       </c>
       <c r="G26">
-        <v>-116347.0441726599</v>
+        <v>130363.6395207056</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2946,22 +2946,22 @@
         <v>45138</v>
       </c>
       <c r="B27">
-        <v>234045.9404573796</v>
+        <v>44660.3029121341</v>
       </c>
       <c r="C27">
-        <v>183439.5207325502</v>
+        <v>-108262.7695998533</v>
       </c>
       <c r="D27">
-        <v>125286.6381094684</v>
+        <v>-7406.631189754822</v>
       </c>
       <c r="E27">
-        <v>251037.5372368147</v>
+        <v>83157.99192316469</v>
       </c>
       <c r="F27">
-        <v>-61295.75570911821</v>
+        <v>-103795.5951526739</v>
       </c>
       <c r="G27">
-        <v>732513.8808270951</v>
+        <v>-91646.70110698335</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2969,22 +2969,22 @@
         <v>45169</v>
       </c>
       <c r="B28">
-        <v>-205785.2939676949</v>
+        <v>-42995.441215517</v>
       </c>
       <c r="C28">
-        <v>-49498.78879243253</v>
+        <v>-43105.42129405275</v>
       </c>
       <c r="D28">
-        <v>68620.75717679357</v>
+        <v>-19452.43939313696</v>
       </c>
       <c r="E28">
-        <v>-48854.73812441967</v>
+        <v>-45285.36814913397</v>
       </c>
       <c r="F28">
-        <v>-14951.96570711458</v>
+        <v>-17015.00134638057</v>
       </c>
       <c r="G28">
-        <v>-250470.0294148681</v>
+        <v>-167853.6713982212</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2992,22 +2992,22 @@
         <v>45198</v>
       </c>
       <c r="B29">
-        <v>717.2402223188328</v>
+        <v>-7039.160239907644</v>
       </c>
       <c r="C29">
-        <v>10951.2554001298</v>
+        <v>3701.393127178104</v>
       </c>
       <c r="D29">
-        <v>157738.5492319497</v>
+        <v>526.8375044063869</v>
       </c>
       <c r="E29">
-        <v>273440.9453884749</v>
+        <v>99847.25319888967</v>
       </c>
       <c r="F29">
-        <v>-23927.13286259616</v>
+        <v>-28289.91173512872</v>
       </c>
       <c r="G29">
-        <v>418920.8573802771</v>
+        <v>68746.41185543791</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3015,22 +3015,22 @@
         <v>45230</v>
       </c>
       <c r="B30">
-        <v>-54639.33909191775</v>
+        <v>-17624.32325148713</v>
       </c>
       <c r="C30">
-        <v>-86694.25775305206</v>
+        <v>-69623.04809094193</v>
       </c>
       <c r="D30">
-        <v>140541.2350677066</v>
+        <v>-3778.701088343922</v>
       </c>
       <c r="E30">
-        <v>16916.97063929334</v>
+        <v>-29637.23772149575</v>
       </c>
       <c r="F30">
-        <v>-45532.42620924724</v>
+        <v>-58381.4463963427</v>
       </c>
       <c r="G30">
-        <v>-29407.81734721712</v>
+        <v>-179044.7565486114</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3038,22 +3038,22 @@
         <v>45260</v>
       </c>
       <c r="B31">
-        <v>-168739.981843095</v>
+        <v>-37273.57285841519</v>
       </c>
       <c r="C31">
-        <v>-67961.24883953837</v>
+        <v>-56474.07658656701</v>
       </c>
       <c r="D31">
-        <v>348967.0663993401</v>
+        <v>68342.57031563297</v>
       </c>
       <c r="E31">
-        <v>-47925.71429151703</v>
+        <v>-45098.0793101976</v>
       </c>
       <c r="F31">
-        <v>-39207.38770166126</v>
+        <v>-48905.92504640905</v>
       </c>
       <c r="G31">
-        <v>25132.73372352844</v>
+        <v>-119409.0834859559</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3061,22 +3061,22 @@
         <v>45289</v>
       </c>
       <c r="B32">
-        <v>-212448.9525779619</v>
+        <v>-43988.95782054862</v>
       </c>
       <c r="C32">
-        <v>35294.2207068594</v>
+        <v>23562.81821157588</v>
       </c>
       <c r="D32">
-        <v>-333138.5127830959</v>
+        <v>-63843.27559396846</v>
       </c>
       <c r="E32">
-        <v>-126480.1220842096</v>
+        <v>-58185.08319892266</v>
       </c>
       <c r="F32">
-        <v>-44997.13450654686</v>
+        <v>-57545.25842694695</v>
       </c>
       <c r="G32">
-        <v>-681770.5012449549</v>
+        <v>-199999.7568288108</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3084,22 +3084,22 @@
         <v>45322</v>
       </c>
       <c r="B33">
-        <v>-176091.4254001293</v>
+        <v>-38435.52312717788</v>
       </c>
       <c r="C33">
-        <v>-69528.0066073679</v>
+        <v>-57588.45432645714</v>
       </c>
       <c r="D33">
-        <v>570793.5740532361</v>
+        <v>223573.6429654734</v>
       </c>
       <c r="E33">
-        <v>394135.6051027367</v>
+        <v>206961.9532975819</v>
       </c>
       <c r="F33">
-        <v>-43453.5096911967</v>
+        <v>-55173.89566403406</v>
       </c>
       <c r="G33">
-        <v>675856.237457279</v>
+        <v>279337.7231453863</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3107,22 +3107,22 @@
         <v>45351</v>
       </c>
       <c r="B34">
-        <v>-139801.0031600827</v>
+        <v>-32574.58351924665</v>
       </c>
       <c r="C34">
-        <v>27810.53382914521</v>
+        <v>17415.59626517353</v>
       </c>
       <c r="D34">
-        <v>411915.0213681157</v>
+        <v>101535.0862159538</v>
       </c>
       <c r="E34">
-        <v>-18663.03680934641</v>
+        <v>-38729.81955050125</v>
       </c>
       <c r="F34">
-        <v>-8688.99920543655</v>
+        <v>-9373.863838488054</v>
       </c>
       <c r="G34">
-        <v>272572.5160223953</v>
+        <v>38272.41557289136</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3130,22 +3130,22 @@
         <v>45379</v>
       </c>
       <c r="B35">
-        <v>153483.225662681</v>
+        <v>25552.84082335258</v>
       </c>
       <c r="C35">
-        <v>124529.1492227176</v>
+        <v>97432.75579192923</v>
       </c>
       <c r="D35">
-        <v>-386787.5348867558</v>
+        <v>-66566.77939608713</v>
       </c>
       <c r="E35">
-        <v>-160603.2078284556</v>
+        <v>-62417.56697107138</v>
       </c>
       <c r="F35">
-        <v>24876.3536807866</v>
+        <v>29704.89548400194</v>
       </c>
       <c r="G35">
-        <v>-244502.0141490261</v>
+        <v>23706.14573212525</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3153,22 +3153,22 @@
         <v>45412</v>
       </c>
       <c r="B36">
-        <v>-64314.23</v>
+        <v>-19405.18</v>
       </c>
       <c r="C36">
-        <v>19933.72238850033</v>
+        <v>10982.46124829997</v>
       </c>
       <c r="D36">
-        <v>-358402.6032152387</v>
+        <v>-65183.33533420382</v>
       </c>
       <c r="E36">
-        <v>80270.1394967026</v>
+        <v>-9078.205921356086</v>
       </c>
       <c r="F36">
-        <v>-14724.64549737098</v>
+        <v>-16734.77496696056</v>
       </c>
       <c r="G36">
-        <v>-337237.6168274067</v>
+        <v>-99419.03497422051</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3176,22 +3176,22 @@
         <v>45443</v>
       </c>
       <c r="B37">
-        <v>4868.496902286715</v>
+        <v>-6218.527262807649</v>
       </c>
       <c r="C37">
-        <v>70984.55453692688</v>
+        <v>53162.05310699774</v>
       </c>
       <c r="D37">
-        <v>-250706.3408792449</v>
+        <v>-58650.48862758421</v>
       </c>
       <c r="E37">
-        <v>-641376.4348081371</v>
+        <v>-82553.5655063669</v>
       </c>
       <c r="F37">
-        <v>-26422.99319952921</v>
+        <v>-31511.9672868106</v>
       </c>
       <c r="G37">
-        <v>-842652.7174476977</v>
+        <v>-125772.4955765714</v>
       </c>
     </row>
   </sheetData>
@@ -3235,22 +3235,22 @@
         <v>44377</v>
       </c>
       <c r="B2">
-        <v>35.53897849462366</v>
+        <v>35.27956989247312</v>
       </c>
       <c r="C2">
         <v>36.31560283687944</v>
       </c>
       <c r="D2">
-        <v>59.74187837837837</v>
+        <v>60.79925675675675</v>
       </c>
       <c r="E2">
-        <v>74.09095699341343</v>
+        <v>71.7019817900039</v>
       </c>
       <c r="F2">
-        <v>45.57958762886598</v>
+        <v>38.70525773195876</v>
       </c>
       <c r="G2">
-        <v>41.08086345381526</v>
+        <v>38.88570281124498</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3258,22 +3258,22 @@
         <v>44407</v>
       </c>
       <c r="B3">
-        <v>39.04145077720207</v>
+        <v>38.75647668393783</v>
       </c>
       <c r="C3">
         <v>39.36842105263158</v>
       </c>
       <c r="D3">
-        <v>56.85093167701864</v>
+        <v>57.85714285714286</v>
       </c>
       <c r="E3">
-        <v>64.26527437400107</v>
+        <v>62.19311667554609</v>
       </c>
       <c r="F3">
-        <v>44.96363870967741</v>
+        <v>38.1822064516129</v>
       </c>
       <c r="G3">
-        <v>37.51849394890184</v>
+        <v>35.51368892873151</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3281,22 +3281,22 @@
         <v>44439</v>
       </c>
       <c r="B4">
-        <v>35.9625</v>
+        <v>35.7</v>
       </c>
       <c r="C4">
         <v>38.72647058823529</v>
       </c>
       <c r="D4">
-        <v>53.88425925925925</v>
+        <v>54.83796296296295</v>
       </c>
       <c r="E4">
-        <v>77.40432432432432</v>
+        <v>74.90851351351351</v>
       </c>
       <c r="F4">
-        <v>56.38213733515234</v>
+        <v>47.87856298317416</v>
       </c>
       <c r="G4">
-        <v>40.81092024539878</v>
+        <v>38.63018404907976</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3304,22 +3304,22 @@
         <v>44469</v>
       </c>
       <c r="B5">
-        <v>38.54978354978355</v>
+        <v>38.26839826839826</v>
       </c>
       <c r="C5">
         <v>45.9298245614035</v>
       </c>
       <c r="D5">
-        <v>63.68592233009709</v>
+        <v>64.81310679611651</v>
       </c>
       <c r="E5">
-        <v>69.0609486166008</v>
+        <v>66.83416007905139</v>
       </c>
       <c r="F5">
-        <v>67.62783742331288</v>
+        <v>57.42818251533742</v>
       </c>
       <c r="G5">
-        <v>40.19053170539583</v>
+        <v>38.04294604174872</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3327,22 +3327,22 @@
         <v>44498</v>
       </c>
       <c r="B6">
-        <v>47.09375</v>
+        <v>46.75</v>
       </c>
       <c r="C6">
         <v>37.55637254901961</v>
       </c>
       <c r="D6">
-        <v>51.24418604651163</v>
+        <v>52.15116279069768</v>
       </c>
       <c r="E6">
-        <v>64.5867055393586</v>
+        <v>62.50418367346939</v>
       </c>
       <c r="F6">
-        <v>34.4056334231806</v>
+        <v>29.21656334231806</v>
       </c>
       <c r="G6">
-        <v>41.18918763479511</v>
+        <v>38.98823867721064</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3350,22 +3350,22 @@
         <v>44530</v>
       </c>
       <c r="B7">
-        <v>39.75874125874126</v>
+        <v>39.46853146853147</v>
       </c>
       <c r="C7">
         <v>40.57977386934674</v>
       </c>
       <c r="D7">
-        <v>50.85</v>
+        <v>51.75</v>
       </c>
       <c r="E7">
-        <v>87.19350025549311</v>
+        <v>84.38204905467553</v>
       </c>
       <c r="F7">
-        <v>64.64377653631284</v>
+        <v>54.89417877094971</v>
       </c>
       <c r="G7">
-        <v>38.38249679897567</v>
+        <v>36.33152368758002</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3373,22 +3373,22 @@
         <v>44561</v>
       </c>
       <c r="B8">
-        <v>42.09036144578313</v>
+        <v>41.78313253012048</v>
       </c>
       <c r="C8">
         <v>39.69308700834326</v>
       </c>
       <c r="D8">
-        <v>53.35338461538461</v>
+        <v>54.29769230769231</v>
       </c>
       <c r="E8">
-        <v>72.29059838131882</v>
+        <v>69.95967361018972</v>
       </c>
       <c r="F8">
-        <v>48.04782251437963</v>
+        <v>40.8012325390304</v>
       </c>
       <c r="G8">
-        <v>37.61130620985011</v>
+        <v>35.60154175588865</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3396,22 +3396,22 @@
         <v>44592</v>
       </c>
       <c r="B9">
-        <v>37.94362745098039</v>
+        <v>37.66666666666667</v>
       </c>
       <c r="C9">
         <v>42.28323699421966</v>
       </c>
       <c r="D9">
-        <v>56.10648826979472</v>
+        <v>57.09952346041055</v>
       </c>
       <c r="E9">
-        <v>75.26064323111444</v>
+        <v>72.83395287958116</v>
       </c>
       <c r="F9">
-        <v>53.4470704607046</v>
+        <v>45.38616395663956</v>
       </c>
       <c r="G9">
-        <v>31.76671837708831</v>
+        <v>30.06926014319809</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3419,22 +3419,22 @@
         <v>44620</v>
       </c>
       <c r="B10">
-        <v>29.09734513274336</v>
+        <v>28.88495575221239</v>
       </c>
       <c r="C10">
         <v>36.06842105263158</v>
       </c>
       <c r="D10">
-        <v>54.56661129568106</v>
+        <v>55.53239202657807</v>
       </c>
       <c r="E10">
-        <v>62.51788052649341</v>
+        <v>60.50206547418157</v>
       </c>
       <c r="F10">
-        <v>44.65791400024105</v>
+        <v>37.9225912534651</v>
       </c>
       <c r="G10">
-        <v>37.36230106786083</v>
+        <v>35.36584223217361</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3442,22 +3442,22 @@
         <v>44651</v>
       </c>
       <c r="B11">
-        <v>21.76302083333333</v>
+        <v>21.60416666666666</v>
       </c>
       <c r="C11">
         <v>41.52808988764045</v>
       </c>
       <c r="D11">
-        <v>47.79585139318886</v>
+        <v>48.64179566563467</v>
       </c>
       <c r="E11">
-        <v>63.35436812515278</v>
+        <v>61.31158152041066</v>
       </c>
       <c r="F11">
-        <v>46.21640059230185</v>
+        <v>39.24602633384993</v>
       </c>
       <c r="G11">
-        <v>38.34219817382482</v>
+        <v>36.29337842407845</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3465,22 +3465,22 @@
         <v>44680</v>
       </c>
       <c r="B12">
-        <v>31.44262295081967</v>
+        <v>31.21311475409836</v>
       </c>
       <c r="C12">
         <v>38.90104166666667</v>
       </c>
       <c r="D12">
-        <v>50.85</v>
+        <v>51.75</v>
       </c>
       <c r="E12">
-        <v>74.79031446540881</v>
+        <v>72.37878930817612</v>
       </c>
       <c r="F12">
-        <v>50.66457700937046</v>
+        <v>43.02332717434341</v>
       </c>
       <c r="G12">
-        <v>36.12226463927531</v>
+        <v>34.19206729213847</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3488,22 +3488,22 @@
         <v>44712</v>
       </c>
       <c r="B13">
-        <v>43.42410714285714</v>
+        <v>43.10714285714285</v>
       </c>
       <c r="C13">
         <v>37.70618556701031</v>
       </c>
       <c r="D13">
-        <v>51.49986166007906</v>
+        <v>52.41136363636364</v>
       </c>
       <c r="E13">
-        <v>67.61288910042836</v>
+        <v>65.43279152784389</v>
       </c>
       <c r="F13">
-        <v>48.62326439628482</v>
+        <v>41.28988606811145</v>
       </c>
       <c r="G13">
-        <v>39.35508541392903</v>
+        <v>37.25214191852825</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3511,22 +3511,22 @@
         <v>44742</v>
       </c>
       <c r="B14">
-        <v>33.86408450704226</v>
+        <v>33.6169014084507</v>
       </c>
       <c r="C14">
         <v>39.91842105263157</v>
       </c>
       <c r="D14">
-        <v>50.2744893976844</v>
+        <v>51.16430336932483</v>
       </c>
       <c r="E14">
-        <v>72.96975376524026</v>
+        <v>70.61693043270381</v>
       </c>
       <c r="F14">
-        <v>48.92147475481293</v>
+        <v>41.54312023247365</v>
       </c>
       <c r="G14">
-        <v>35.14137170851195</v>
+        <v>33.26358848744642</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3534,22 +3534,22 @@
         <v>44771</v>
       </c>
       <c r="B15">
-        <v>28.2977207977208</v>
+        <v>28.09116809116809</v>
       </c>
       <c r="C15">
         <v>39.86802030456852</v>
       </c>
       <c r="D15">
-        <v>53.72703947368421</v>
+        <v>54.67796052631579</v>
       </c>
       <c r="E15">
-        <v>59.14662216288384</v>
+        <v>57.2395093457944</v>
       </c>
       <c r="F15">
-        <v>43.81466290151783</v>
+        <v>37.20651959054006</v>
       </c>
       <c r="G15">
-        <v>33.93691275167785</v>
+        <v>32.1234899328859</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3557,22 +3557,22 @@
         <v>44804</v>
       </c>
       <c r="B16">
-        <v>33.65948275862069</v>
+        <v>33.41379310344828</v>
       </c>
       <c r="C16">
         <v>44.35049019607843</v>
       </c>
       <c r="D16">
-        <v>54.83947696139477</v>
+        <v>55.81008717310087</v>
       </c>
       <c r="E16">
-        <v>69.08280567267153</v>
+        <v>66.85531238022232</v>
       </c>
       <c r="F16">
-        <v>58.92580875781948</v>
+        <v>50.03859696157284</v>
       </c>
       <c r="G16">
-        <v>34.41204835924007</v>
+        <v>32.57323661485319</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3580,22 +3580,22 @@
         <v>44834</v>
       </c>
       <c r="B17">
-        <v>36.95394736842105</v>
+        <v>36.68421052631579</v>
       </c>
       <c r="C17">
         <v>42.10425531914893</v>
       </c>
       <c r="D17">
-        <v>45.80023094688222</v>
+        <v>46.6108545034642</v>
       </c>
       <c r="E17">
-        <v>56.93131013691747</v>
+        <v>55.09562743373949</v>
       </c>
       <c r="F17">
-        <v>36.73834792460604</v>
+        <v>31.19745699866104</v>
       </c>
       <c r="G17">
-        <v>36.2478350515464</v>
+        <v>34.31092783505154</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3603,22 +3603,22 @@
         <v>44865</v>
       </c>
       <c r="B18">
-        <v>33.13617886178862</v>
+        <v>32.89430894308943</v>
       </c>
       <c r="C18">
         <v>38.94941634241245</v>
       </c>
       <c r="D18">
-        <v>55.41346153846153</v>
+        <v>56.39423076923077</v>
       </c>
       <c r="E18">
-        <v>81.39610969578901</v>
+        <v>78.77158849093362</v>
       </c>
       <c r="F18">
-        <v>49.20006664001066</v>
+        <v>41.77969478875116</v>
       </c>
       <c r="G18">
-        <v>41.09417287630402</v>
+        <v>38.89830104321907</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3626,22 +3626,22 @@
         <v>44895</v>
       </c>
       <c r="B19">
-        <v>36.84033613445378</v>
+        <v>36.57142857142857</v>
       </c>
       <c r="C19">
         <v>38.64807692307692</v>
       </c>
       <c r="D19">
-        <v>49.95264705882353</v>
+        <v>50.83676470588235</v>
       </c>
       <c r="E19">
-        <v>71.9287748005502</v>
+        <v>69.60951660247592</v>
       </c>
       <c r="F19">
-        <v>43.66455634256278</v>
+        <v>37.07905215711526</v>
       </c>
       <c r="G19">
-        <v>32.60579980046558</v>
+        <v>30.86350515463917</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3649,22 +3649,22 @@
         <v>44925</v>
       </c>
       <c r="B20">
-        <v>36.123046875</v>
+        <v>35.859375</v>
       </c>
       <c r="C20">
         <v>33.63218390804598</v>
       </c>
       <c r="D20">
-        <v>46.53840718562874</v>
+        <v>47.36209580838324</v>
       </c>
       <c r="E20">
-        <v>65.3536598599197</v>
+        <v>63.24640845984278</v>
       </c>
       <c r="F20">
-        <v>46.36016545148626</v>
+        <v>39.36810852495794</v>
       </c>
       <c r="G20">
-        <v>39.82243172465395</v>
+        <v>37.69451552562663</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3672,22 +3672,22 @@
         <v>44957</v>
       </c>
       <c r="B21">
-        <v>39.07037037037038</v>
+        <v>38.78518518518518</v>
       </c>
       <c r="C21">
         <v>33.88675438596491</v>
       </c>
       <c r="D21">
-        <v>47.90892436534939</v>
+        <v>48.75686992933787</v>
       </c>
       <c r="E21">
-        <v>75.22125414161248</v>
+        <v>72.79583384464352</v>
       </c>
       <c r="F21">
-        <v>50.280983465133</v>
+        <v>42.69758734723221</v>
       </c>
       <c r="G21">
-        <v>35.5171605789111</v>
+        <v>33.61929703652654</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3695,22 +3695,22 @@
         <v>44985</v>
       </c>
       <c r="B22">
-        <v>31.80357142857143</v>
+        <v>31.57142857142857</v>
       </c>
       <c r="C22">
         <v>33.18965517241379</v>
       </c>
       <c r="D22">
-        <v>47.31875</v>
+        <v>48.15625</v>
       </c>
       <c r="E22">
-        <v>72.68379967645429</v>
+        <v>70.34019659501385</v>
       </c>
       <c r="F22">
-        <v>52.49046764545948</v>
+        <v>44.57383632408917</v>
       </c>
       <c r="G22">
-        <v>37.56762989323843</v>
+        <v>35.56019928825622</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3718,22 +3718,22 @@
         <v>45016</v>
       </c>
       <c r="B23">
-        <v>37.12412587412587</v>
+        <v>36.85314685314685</v>
       </c>
       <c r="C23">
         <v>43.61849710982659</v>
       </c>
       <c r="D23">
-        <v>41.36305970149254</v>
+        <v>42.09514925373134</v>
       </c>
       <c r="E23">
-        <v>63.35590633215017</v>
+        <v>61.31307012974428</v>
       </c>
       <c r="F23">
-        <v>43.27298941147501</v>
+        <v>36.74654149224329</v>
       </c>
       <c r="G23">
-        <v>38.12018068102849</v>
+        <v>36.08322446143155</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3741,22 +3741,22 @@
         <v>45044</v>
       </c>
       <c r="B24">
-        <v>33.25564516129032</v>
+        <v>33.01290322580645</v>
       </c>
       <c r="C24">
         <v>42.625</v>
       </c>
       <c r="D24">
-        <v>52.24954128440368</v>
+        <v>53.1743119266055</v>
       </c>
       <c r="E24">
-        <v>64.55754911754912</v>
+        <v>62.47596736596736</v>
       </c>
       <c r="F24">
-        <v>39.37981333694034</v>
+        <v>33.44053564182334</v>
       </c>
       <c r="G24">
-        <v>38.07803410230692</v>
+        <v>36.04332998996991</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3764,22 +3764,22 @@
         <v>45077</v>
       </c>
       <c r="B25">
-        <v>31.63289036544851</v>
+        <v>31.40199335548173</v>
       </c>
       <c r="C25">
         <v>41.51612903225806</v>
       </c>
       <c r="D25">
-        <v>49.94196428571428</v>
+        <v>50.82589285714285</v>
       </c>
       <c r="E25">
-        <v>62.9626252481607</v>
+        <v>60.93246992876329</v>
       </c>
       <c r="F25">
-        <v>40.54562704114957</v>
+        <v>34.43052090137165</v>
       </c>
       <c r="G25">
-        <v>36.50280193236715</v>
+        <v>34.55227053140096</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3787,22 +3787,22 @@
         <v>45107</v>
       </c>
       <c r="B26">
-        <v>31.39172661870504</v>
+        <v>31.16258992805755</v>
       </c>
       <c r="C26">
         <v>37.67735042735043</v>
       </c>
       <c r="D26">
-        <v>39.29318181818182</v>
+        <v>39.98863636363636</v>
       </c>
       <c r="E26">
-        <v>75.37254724111868</v>
+        <v>72.94224867724868</v>
       </c>
       <c r="F26">
-        <v>49.06004212138618</v>
+        <v>41.66078881868658</v>
       </c>
       <c r="G26">
-        <v>38.2231715210356</v>
+        <v>36.18071197411003</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3810,22 +3810,22 @@
         <v>45138</v>
       </c>
       <c r="B27">
-        <v>31.45408163265306</v>
+        <v>31.22448979591837</v>
       </c>
       <c r="C27">
         <v>37.65938864628821</v>
       </c>
       <c r="D27">
-        <v>78.36882352941177</v>
+        <v>79.75588235294119</v>
       </c>
       <c r="E27">
-        <v>66.06952118061074</v>
+        <v>63.93918767964581</v>
       </c>
       <c r="F27">
-        <v>40.13116883116884</v>
+        <v>34.07857142857143</v>
       </c>
       <c r="G27">
-        <v>42.03391304347826</v>
+        <v>39.78782608695651</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3833,22 +3833,22 @@
         <v>45169</v>
       </c>
       <c r="B28">
-        <v>36.2991452991453</v>
+        <v>36.03418803418803</v>
       </c>
       <c r="C28">
         <v>37.125</v>
       </c>
       <c r="D28">
-        <v>52.01450381679389</v>
+        <v>52.93511450381679</v>
       </c>
       <c r="E28">
-        <v>67.26212945059278</v>
+        <v>65.09334170770705</v>
       </c>
       <c r="F28">
-        <v>49.37890989010989</v>
+        <v>41.93156483516483</v>
       </c>
       <c r="G28">
-        <v>36.17304065040651</v>
+        <v>34.24013008130081</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3856,22 +3856,22 @@
         <v>45198</v>
       </c>
       <c r="B29">
-        <v>33.53185483870968</v>
+        <v>33.28709677419355</v>
       </c>
       <c r="C29">
         <v>36.7175925925926</v>
       </c>
       <c r="D29">
-        <v>48.57313432835821</v>
+        <v>49.43283582089552</v>
       </c>
       <c r="E29">
-        <v>65.36679707753947</v>
+        <v>63.25912208343154</v>
       </c>
       <c r="F29">
-        <v>39.43224714346171</v>
+        <v>33.48506136267457</v>
       </c>
       <c r="G29">
-        <v>36.62960153888432</v>
+        <v>34.67229458642485</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3879,22 +3879,22 @@
         <v>45230</v>
       </c>
       <c r="B30">
-        <v>34.13714991762767</v>
+        <v>33.88797364085667</v>
       </c>
       <c r="C30">
         <v>36.07038950804368</v>
       </c>
       <c r="D30">
-        <v>55.061015625</v>
+        <v>56.03554687499999</v>
       </c>
       <c r="E30">
-        <v>65.74110444471654</v>
+        <v>63.62136035263867</v>
       </c>
       <c r="F30">
-        <v>47.41872448979591</v>
+        <v>40.26701530612245</v>
       </c>
       <c r="G30">
-        <v>38.09309851403412</v>
+        <v>36.05758943313153</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3902,22 +3902,22 @@
         <v>45260</v>
       </c>
       <c r="B31">
-        <v>35.66528925619835</v>
+        <v>35.40495867768595</v>
       </c>
       <c r="C31">
         <v>38.49999876343558</v>
       </c>
       <c r="D31">
-        <v>53.38149350649351</v>
+        <v>54.32629870129871</v>
       </c>
       <c r="E31">
-        <v>60.84016698292221</v>
+        <v>58.87844781783682</v>
       </c>
       <c r="F31">
-        <v>49.35162659846547</v>
+        <v>41.90839641943734</v>
       </c>
       <c r="G31">
-        <v>37.58387917329094</v>
+        <v>35.57558028616852</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3925,22 +3925,22 @@
         <v>45289</v>
       </c>
       <c r="B32">
-        <v>36.42460317460318</v>
+        <v>36.15873015873016</v>
       </c>
       <c r="C32">
         <v>39.49740932642457</v>
       </c>
       <c r="D32">
-        <v>47.46000000000001</v>
+        <v>48.3</v>
       </c>
       <c r="E32">
-        <v>74.87410252789155</v>
+        <v>72.45987572376784</v>
       </c>
       <c r="F32">
-        <v>51.61586104951958</v>
+        <v>43.83113821138211</v>
       </c>
       <c r="G32">
-        <v>38.04589604344453</v>
+        <v>36.01290923196276</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3948,22 +3948,22 @@
         <v>45322</v>
       </c>
       <c r="B33">
-        <v>35.78358208955223</v>
+        <v>35.52238805970149</v>
       </c>
       <c r="C33">
         <v>35.77777777777778</v>
       </c>
       <c r="D33">
-        <v>53.50857879234168</v>
+        <v>54.45563328424154</v>
       </c>
       <c r="E33">
-        <v>54.21592621060723</v>
+        <v>52.46779784780938</v>
       </c>
       <c r="F33">
-        <v>35.77096437485817</v>
+        <v>30.37597458588608</v>
       </c>
       <c r="G33">
-        <v>37.91455497382199</v>
+        <v>35.88858638743455</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3971,22 +3971,22 @@
         <v>45351</v>
       </c>
       <c r="B34">
-        <v>35.22857142857143</v>
+        <v>34.97142857142857</v>
       </c>
       <c r="C34">
         <v>37.03532608695652</v>
       </c>
       <c r="D34">
-        <v>47.78974807557734</v>
+        <v>48.63558432470259</v>
       </c>
       <c r="E34">
-        <v>59.15612903225806</v>
+        <v>57.24870967741936</v>
       </c>
       <c r="F34">
-        <v>48.48621230398071</v>
+        <v>41.17350422195417</v>
       </c>
       <c r="G34">
-        <v>35.88376266280753</v>
+        <v>33.96630969609262</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3994,22 +3994,22 @@
         <v>45379</v>
       </c>
       <c r="B35">
-        <v>32.109375</v>
+        <v>31.875</v>
       </c>
       <c r="C35">
         <v>39.80508474576271</v>
       </c>
       <c r="D35">
-        <v>44.18611317944899</v>
+        <v>44.96816827997021</v>
       </c>
       <c r="E35">
-        <v>75.81709231619678</v>
+        <v>73.37245992260917</v>
       </c>
       <c r="F35">
-        <v>52.57232406859846</v>
+        <v>44.64334713187463</v>
       </c>
       <c r="G35">
-        <v>34.59097633136094</v>
+        <v>32.74260355029585</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -4017,22 +4017,22 @@
         <v>45412</v>
       </c>
       <c r="B36">
-        <v>34.25</v>
+        <v>34</v>
       </c>
       <c r="C36">
         <v>39.1311475409836</v>
       </c>
       <c r="D36">
-        <v>48.14845758354755</v>
+        <v>49.00064267352185</v>
       </c>
       <c r="E36">
-        <v>75.31966985803898</v>
+        <v>72.89107626279302</v>
       </c>
       <c r="F36">
-        <v>45.48078074866311</v>
+        <v>38.62135294117648</v>
       </c>
       <c r="G36">
-        <v>36.16216470588235</v>
+        <v>34.22983529411765</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -4040,45 +4040,45 @@
         <v>45443</v>
       </c>
       <c r="B37">
-        <v>33.48888888888889</v>
+        <v>33.24444444444444</v>
       </c>
       <c r="C37">
         <v>38.08602150537634</v>
       </c>
       <c r="D37">
-        <v>46.01809954751131</v>
+        <v>46.83257918552036</v>
       </c>
       <c r="E37">
-        <v>73.39970229234891</v>
+        <v>71.0330157785055</v>
       </c>
       <c r="F37">
-        <v>64.5869032979318</v>
+        <v>54.84588317495807</v>
       </c>
       <c r="G37">
-        <v>36.76754176610978</v>
+        <v>34.80286396181384</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45463</v>
+        <v>45469</v>
       </c>
       <c r="B38">
-        <v>35.54734848484848</v>
+        <v>35.28787878787879</v>
       </c>
       <c r="C38">
-        <v>37.78858695652173</v>
+        <v>37.66304347826087</v>
       </c>
       <c r="D38">
-        <v>49.833</v>
+        <v>52.2675</v>
       </c>
       <c r="E38">
-        <v>63.39200000000001</v>
+        <v>60.0261570247934</v>
       </c>
       <c r="F38">
-        <v>44.54735651100596</v>
+        <v>38.18581773297675</v>
       </c>
       <c r="G38">
-        <v>34.09881481481482</v>
+        <v>33.2962962962963</v>
       </c>
     </row>
   </sheetData>
@@ -4122,22 +4122,22 @@
         <v>44377</v>
       </c>
       <c r="B2">
-        <v>1.288978494623656</v>
+        <v>1.27956989247312</v>
       </c>
       <c r="C2">
         <v>-2.184397163120565</v>
       </c>
       <c r="D2">
-        <v>8.891878378378372</v>
+        <v>9.049256756756748</v>
       </c>
       <c r="E2">
-        <v>6.170956993413427</v>
+        <v>5.971981790003895</v>
       </c>
       <c r="F2">
-        <v>-1.960412371134019</v>
+        <v>-1.664742268041238</v>
       </c>
       <c r="G2">
-        <v>4.400863453815262</v>
+        <v>4.165702811244977</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4145,22 +4145,22 @@
         <v>44407</v>
       </c>
       <c r="B3">
-        <v>4.791450777202073</v>
+        <v>4.756476683937827</v>
       </c>
       <c r="C3">
         <v>0.8684210526315752</v>
       </c>
       <c r="D3">
-        <v>6.000931677018642</v>
+        <v>6.107142857142861</v>
       </c>
       <c r="E3">
-        <v>-3.654725625998935</v>
+        <v>-3.536883324453918</v>
       </c>
       <c r="F3">
-        <v>-2.576361290322588</v>
+        <v>-2.187793548387098</v>
       </c>
       <c r="G3">
-        <v>0.8384939489018421</v>
+        <v>0.7936889287315125</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4168,22 +4168,22 @@
         <v>44439</v>
       </c>
       <c r="B4">
-        <v>1.712499999999999</v>
+        <v>1.700000000000003</v>
       </c>
       <c r="C4">
         <v>0.2264705882352942</v>
       </c>
       <c r="D4">
-        <v>3.034259259259251</v>
+        <v>3.087962962962955</v>
       </c>
       <c r="E4">
-        <v>9.484324324324319</v>
+        <v>9.178513513513508</v>
       </c>
       <c r="F4">
-        <v>8.842137335152337</v>
+        <v>7.508562983174166</v>
       </c>
       <c r="G4">
-        <v>4.130920245398777</v>
+        <v>3.91018404907976</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4191,22 +4191,22 @@
         <v>44469</v>
       </c>
       <c r="B5">
-        <v>4.299783549783548</v>
+        <v>4.268398268398265</v>
       </c>
       <c r="C5">
         <v>7.4298245614035</v>
       </c>
       <c r="D5">
-        <v>12.83592233009709</v>
+        <v>13.06310679611651</v>
       </c>
       <c r="E5">
-        <v>1.140948616600795</v>
+        <v>1.104160079051383</v>
       </c>
       <c r="F5">
-        <v>20.08783742331288</v>
+        <v>17.05818251533742</v>
       </c>
       <c r="G5">
-        <v>3.510531705395827</v>
+        <v>3.322946041748722</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4214,22 +4214,22 @@
         <v>44498</v>
       </c>
       <c r="B6">
-        <v>12.84375</v>
+        <v>12.75</v>
       </c>
       <c r="C6">
         <v>-0.9436274509803937</v>
       </c>
       <c r="D6">
-        <v>0.3941860465116278</v>
+        <v>0.4011627906976756</v>
       </c>
       <c r="E6">
-        <v>-3.333294460641397</v>
+        <v>-3.225816326530612</v>
       </c>
       <c r="F6">
-        <v>-13.1343665768194</v>
+        <v>-11.15343665768194</v>
       </c>
       <c r="G6">
-        <v>4.509187634795111</v>
+        <v>4.26823867721064</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4237,7 +4237,7 @@
         <v>44530</v>
       </c>
       <c r="B7">
-        <v>5.50874125874126</v>
+        <v>5.468531468531467</v>
       </c>
       <c r="C7">
         <v>2.079773869346738</v>
@@ -4246,13 +4246,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>19.2735002554931</v>
+        <v>18.65204905467553</v>
       </c>
       <c r="F7">
-        <v>17.10377653631284</v>
+        <v>14.52417877094972</v>
       </c>
       <c r="G7">
-        <v>1.702496798975673</v>
+        <v>1.611523687580025</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4260,22 +4260,22 @@
         <v>44561</v>
       </c>
       <c r="B8">
-        <v>7.840361445783131</v>
+        <v>7.783132530120483</v>
       </c>
       <c r="C8">
         <v>1.193087008343262</v>
       </c>
       <c r="D8">
-        <v>2.503384615384611</v>
+        <v>2.547692307692309</v>
       </c>
       <c r="E8">
-        <v>4.370598381318814</v>
+        <v>4.229673610189721</v>
       </c>
       <c r="F8">
-        <v>0.507822514379626</v>
+        <v>0.4312325390304039</v>
       </c>
       <c r="G8">
-        <v>0.9313062098501064</v>
+        <v>0.8815417558886551</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4283,22 +4283,22 @@
         <v>44592</v>
       </c>
       <c r="B9">
-        <v>3.693627450980394</v>
+        <v>3.666666666666671</v>
       </c>
       <c r="C9">
         <v>3.783236994219656</v>
       </c>
       <c r="D9">
-        <v>5.256488269794716</v>
+        <v>5.349523460410552</v>
       </c>
       <c r="E9">
-        <v>7.340643231114441</v>
+        <v>7.103952879581158</v>
       </c>
       <c r="F9">
-        <v>5.907070460704603</v>
+        <v>5.016163956639566</v>
       </c>
       <c r="G9">
-        <v>-4.913281622911693</v>
+        <v>-4.650739856801909</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4306,22 +4306,22 @@
         <v>44620</v>
       </c>
       <c r="B10">
-        <v>-5.152654867256636</v>
+        <v>-5.115044247787612</v>
       </c>
       <c r="C10">
         <v>-2.431578947368422</v>
       </c>
       <c r="D10">
-        <v>3.716611295681062</v>
+        <v>3.782392026578073</v>
       </c>
       <c r="E10">
-        <v>-5.402119473506588</v>
+        <v>-5.227934525818434</v>
       </c>
       <c r="F10">
-        <v>-2.882085999758949</v>
+        <v>-2.447408746534897</v>
       </c>
       <c r="G10">
-        <v>0.6823010678608341</v>
+        <v>0.6458422321736137</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4329,22 +4329,22 @@
         <v>44651</v>
       </c>
       <c r="B11">
-        <v>-12.48697916666667</v>
+        <v>-12.39583333333334</v>
       </c>
       <c r="C11">
         <v>3.028089887640448</v>
       </c>
       <c r="D11">
-        <v>-3.05414860681114</v>
+        <v>-3.108204334365325</v>
       </c>
       <c r="E11">
-        <v>-4.56563187484722</v>
+        <v>-4.418418479589342</v>
       </c>
       <c r="F11">
-        <v>-1.323599407698154</v>
+        <v>-1.123973666150071</v>
       </c>
       <c r="G11">
-        <v>1.662198173824819</v>
+        <v>1.573378424078456</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4352,7 +4352,7 @@
         <v>44680</v>
       </c>
       <c r="B12">
-        <v>-2.807377049180328</v>
+        <v>-2.78688524590164</v>
       </c>
       <c r="C12">
         <v>0.4010416666666714</v>
@@ -4361,13 +4361,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.870314465408811</v>
+        <v>6.64878930817612</v>
       </c>
       <c r="F12">
-        <v>3.124577009370462</v>
+        <v>2.65332717434341</v>
       </c>
       <c r="G12">
-        <v>-0.5577353607246849</v>
+        <v>-0.527932707861531</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4375,22 +4375,22 @@
         <v>44712</v>
       </c>
       <c r="B13">
-        <v>9.174107142857139</v>
+        <v>9.107142857142854</v>
       </c>
       <c r="C13">
         <v>-0.7938144329896915</v>
       </c>
       <c r="D13">
-        <v>0.6498616600790541</v>
+        <v>0.6613636363636388</v>
       </c>
       <c r="E13">
-        <v>-0.3071108995716401</v>
+        <v>-0.2972084721561146</v>
       </c>
       <c r="F13">
-        <v>1.083264396284825</v>
+        <v>0.9198860681114525</v>
       </c>
       <c r="G13">
-        <v>2.675085413929033</v>
+        <v>2.532141918528247</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4398,22 +4398,22 @@
         <v>44742</v>
       </c>
       <c r="B14">
-        <v>-0.3859154929577429</v>
+        <v>-0.3830985915492988</v>
       </c>
       <c r="C14">
         <v>1.418421052631572</v>
       </c>
       <c r="D14">
-        <v>-0.5755106023156031</v>
+        <v>-0.585696630675173</v>
       </c>
       <c r="E14">
-        <v>5.049753765240254</v>
+        <v>4.886930432703807</v>
       </c>
       <c r="F14">
-        <v>1.381474754812928</v>
+        <v>1.173120232473657</v>
       </c>
       <c r="G14">
-        <v>-1.538628291488052</v>
+        <v>-1.456411512553579</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4421,22 +4421,22 @@
         <v>44771</v>
       </c>
       <c r="B15">
-        <v>-5.952279202279204</v>
+        <v>-5.90883190883191</v>
       </c>
       <c r="C15">
         <v>1.368020304568525</v>
       </c>
       <c r="D15">
-        <v>2.877039473684214</v>
+        <v>2.927960526315793</v>
       </c>
       <c r="E15">
-        <v>-8.773377837116158</v>
+        <v>-8.490490654205608</v>
       </c>
       <c r="F15">
-        <v>-3.725337098482171</v>
+        <v>-3.163480409459936</v>
       </c>
       <c r="G15">
-        <v>-2.743087248322148</v>
+        <v>-2.596510067114096</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4444,22 +4444,22 @@
         <v>44804</v>
       </c>
       <c r="B16">
-        <v>-0.5905172413793096</v>
+        <v>-0.5862068965517224</v>
       </c>
       <c r="C16">
         <v>5.850490196078425</v>
       </c>
       <c r="D16">
-        <v>3.989476961394764</v>
+        <v>4.060087173100868</v>
       </c>
       <c r="E16">
-        <v>1.162805672671524</v>
+        <v>1.125312380222312</v>
       </c>
       <c r="F16">
-        <v>11.38580875781948</v>
+        <v>9.668596961572838</v>
       </c>
       <c r="G16">
-        <v>-2.267951640759932</v>
+        <v>-2.146763385146805</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4467,22 +4467,22 @@
         <v>44834</v>
       </c>
       <c r="B17">
-        <v>2.703947368421055</v>
+        <v>2.684210526315788</v>
       </c>
       <c r="C17">
         <v>3.604255319148933</v>
       </c>
       <c r="D17">
-        <v>-5.049769053117778</v>
+        <v>-5.139145496535797</v>
       </c>
       <c r="E17">
-        <v>-10.98868986308253</v>
+        <v>-10.63437256626052</v>
       </c>
       <c r="F17">
-        <v>-10.80165207539396</v>
+        <v>-9.172543001338962</v>
       </c>
       <c r="G17">
-        <v>-0.4321649484536039</v>
+        <v>-0.409072164948455</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4490,22 +4490,22 @@
         <v>44865</v>
       </c>
       <c r="B18">
-        <v>-1.113821138211378</v>
+        <v>-1.105691056910565</v>
       </c>
       <c r="C18">
         <v>0.449416342412448</v>
       </c>
       <c r="D18">
-        <v>4.563461538461532</v>
+        <v>4.644230769230766</v>
       </c>
       <c r="E18">
-        <v>13.47610969578901</v>
+        <v>13.04158849093362</v>
       </c>
       <c r="F18">
-        <v>1.660066640010662</v>
+        <v>1.409694788751167</v>
       </c>
       <c r="G18">
-        <v>4.414172876304022</v>
+        <v>4.178301043219072</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4513,22 +4513,22 @@
         <v>44895</v>
       </c>
       <c r="B19">
-        <v>2.590336134453779</v>
+        <v>2.571428571428569</v>
       </c>
       <c r="C19">
         <v>0.1480769230769212</v>
       </c>
       <c r="D19">
-        <v>-0.8973529411764716</v>
+        <v>-0.9132352941176478</v>
       </c>
       <c r="E19">
-        <v>4.008774800550199</v>
+        <v>3.879516602475917</v>
       </c>
       <c r="F19">
-        <v>-3.875443657437224</v>
+        <v>-3.290947842884741</v>
       </c>
       <c r="G19">
-        <v>-4.074200199534417</v>
+        <v>-3.856494845360825</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4536,22 +4536,22 @@
         <v>44925</v>
       </c>
       <c r="B20">
-        <v>1.873046875</v>
+        <v>1.859375</v>
       </c>
       <c r="C20">
         <v>-4.867816091954019</v>
       </c>
       <c r="D20">
-        <v>-4.311592814371259</v>
+        <v>-4.387904191616762</v>
       </c>
       <c r="E20">
-        <v>-2.5663401400803</v>
+        <v>-2.483591540157221</v>
       </c>
       <c r="F20">
-        <v>-1.179834548513739</v>
+        <v>-1.001891475042058</v>
       </c>
       <c r="G20">
-        <v>3.142431724653946</v>
+        <v>2.974515525626636</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4559,22 +4559,22 @@
         <v>44957</v>
       </c>
       <c r="B21">
-        <v>4.820370370370377</v>
+        <v>4.785185185185185</v>
       </c>
       <c r="C21">
         <v>-4.613245614035087</v>
       </c>
       <c r="D21">
-        <v>-2.941075634650616</v>
+        <v>-2.993130070662126</v>
       </c>
       <c r="E21">
-        <v>7.301254141612475</v>
+        <v>7.065833844643521</v>
       </c>
       <c r="F21">
-        <v>2.740983465133006</v>
+        <v>2.32758734723221</v>
       </c>
       <c r="G21">
-        <v>-1.162839421088897</v>
+        <v>-1.100702963473459</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4582,22 +4582,22 @@
         <v>44985</v>
       </c>
       <c r="B22">
-        <v>-2.446428571428569</v>
+        <v>-2.428571428571427</v>
       </c>
       <c r="C22">
         <v>-5.310344827586206</v>
       </c>
       <c r="D22">
-        <v>-3.53125</v>
+        <v>-3.59375</v>
       </c>
       <c r="E22">
-        <v>4.763799676454283</v>
+        <v>4.610196595013846</v>
       </c>
       <c r="F22">
-        <v>4.950467645459483</v>
+        <v>4.203836324089174</v>
       </c>
       <c r="G22">
-        <v>0.887629893238433</v>
+        <v>0.8401992882562226</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4605,22 +4605,22 @@
         <v>45016</v>
       </c>
       <c r="B23">
-        <v>2.874125874125873</v>
+        <v>2.853146853146853</v>
       </c>
       <c r="C23">
         <v>5.118497109826592</v>
       </c>
       <c r="D23">
-        <v>-9.486940298507463</v>
+        <v>-9.654850746268657</v>
       </c>
       <c r="E23">
-        <v>-4.564093667849832</v>
+        <v>-4.416929870255728</v>
       </c>
       <c r="F23">
-        <v>-4.26701058852499</v>
+        <v>-3.623458507756709</v>
       </c>
       <c r="G23">
-        <v>1.440180681028494</v>
+        <v>1.36322446143155</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4628,22 +4628,22 @@
         <v>45044</v>
       </c>
       <c r="B24">
-        <v>-0.9943548387096754</v>
+        <v>-0.9870967741935459</v>
       </c>
       <c r="C24">
         <v>4.125</v>
       </c>
       <c r="D24">
-        <v>1.399541284403675</v>
+        <v>1.424311926605505</v>
       </c>
       <c r="E24">
-        <v>-3.362450882450887</v>
+        <v>-3.25403263403264</v>
       </c>
       <c r="F24">
-        <v>-8.160186663059655</v>
+        <v>-6.929464358176659</v>
       </c>
       <c r="G24">
-        <v>1.398034102306923</v>
+        <v>1.323329989969913</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4651,22 +4651,22 @@
         <v>45077</v>
       </c>
       <c r="B25">
-        <v>-2.617109634551493</v>
+        <v>-2.598006644518271</v>
       </c>
       <c r="C25">
         <v>3.016129032258064</v>
       </c>
       <c r="D25">
-        <v>-0.9080357142857167</v>
+        <v>-0.9241071428571459</v>
       </c>
       <c r="E25">
-        <v>-4.957374751839303</v>
+        <v>-4.797530071236714</v>
       </c>
       <c r="F25">
-        <v>-6.994372958850427</v>
+        <v>-5.939479098628347</v>
       </c>
       <c r="G25">
-        <v>-0.1771980676328511</v>
+        <v>-0.1677294685990347</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4674,22 +4674,22 @@
         <v>45107</v>
       </c>
       <c r="B26">
-        <v>-2.858273381294964</v>
+        <v>-2.837410071942447</v>
       </c>
       <c r="C26">
         <v>-0.8226495726495742</v>
       </c>
       <c r="D26">
-        <v>-11.55681818181818</v>
+        <v>-11.76136363636364</v>
       </c>
       <c r="E26">
-        <v>7.45254724111868</v>
+        <v>7.212248677248681</v>
       </c>
       <c r="F26">
-        <v>1.520042121386176</v>
+        <v>1.290788818686579</v>
       </c>
       <c r="G26">
-        <v>1.543171521035603</v>
+        <v>1.460711974110033</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4697,22 +4697,22 @@
         <v>45138</v>
       </c>
       <c r="B27">
-        <v>-2.795918367346943</v>
+        <v>-2.775510204081634</v>
       </c>
       <c r="C27">
         <v>-0.8406113537117932</v>
       </c>
       <c r="D27">
-        <v>27.51882352941177</v>
+        <v>28.00588235294119</v>
       </c>
       <c r="E27">
-        <v>-1.850478819389267</v>
+        <v>-1.790812320354192</v>
       </c>
       <c r="F27">
-        <v>-7.408831168831163</v>
+        <v>-6.291428571428568</v>
       </c>
       <c r="G27">
-        <v>5.353913043478258</v>
+        <v>5.067826086956515</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4720,22 +4720,22 @@
         <v>45169</v>
       </c>
       <c r="B28">
-        <v>2.049145299145302</v>
+        <v>2.034188034188034</v>
       </c>
       <c r="C28">
         <v>-1.375</v>
       </c>
       <c r="D28">
-        <v>1.164503816793889</v>
+        <v>1.185114503816791</v>
       </c>
       <c r="E28">
-        <v>-0.657870549407221</v>
+        <v>-0.6366582922929496</v>
       </c>
       <c r="F28">
-        <v>1.838909890109889</v>
+        <v>1.56156483516483</v>
       </c>
       <c r="G28">
-        <v>-0.5069593495934939</v>
+        <v>-0.4798699186991868</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4743,22 +4743,22 @@
         <v>45198</v>
       </c>
       <c r="B29">
-        <v>-0.7181451612903231</v>
+        <v>-0.7129032258064498</v>
       </c>
       <c r="C29">
         <v>-1.782407407407405</v>
       </c>
       <c r="D29">
-        <v>-2.276865671641794</v>
+        <v>-2.317164179104481</v>
       </c>
       <c r="E29">
-        <v>-2.553202922460528</v>
+        <v>-2.470877916568469</v>
       </c>
       <c r="F29">
-        <v>-8.107752856538291</v>
+        <v>-6.884938637325426</v>
       </c>
       <c r="G29">
-        <v>-0.0503984611156838</v>
+        <v>-0.04770541357515157</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4766,22 +4766,22 @@
         <v>45230</v>
       </c>
       <c r="B30">
-        <v>-0.1128500823723257</v>
+        <v>-0.1120263591433286</v>
       </c>
       <c r="C30">
         <v>-2.429610491956325</v>
       </c>
       <c r="D30">
-        <v>4.211015624999995</v>
+        <v>4.285546874999994</v>
       </c>
       <c r="E30">
-        <v>-2.178895555283461</v>
+        <v>-2.108639647361336</v>
       </c>
       <c r="F30">
-        <v>-0.1212755102040859</v>
+        <v>-0.102984693877552</v>
       </c>
       <c r="G30">
-        <v>1.413098514034118</v>
+        <v>1.337589433131534</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -4789,22 +4789,22 @@
         <v>45260</v>
       </c>
       <c r="B31">
-        <v>1.415289256198349</v>
+        <v>1.404958677685954</v>
       </c>
       <c r="C31">
         <v>-1.236564422413267E-06</v>
       </c>
       <c r="D31">
-        <v>2.531493506493511</v>
+        <v>2.576298701298711</v>
       </c>
       <c r="E31">
-        <v>-7.079833017077789</v>
+        <v>-6.851552182163182</v>
       </c>
       <c r="F31">
-        <v>1.811626598465473</v>
+        <v>1.538396419437341</v>
       </c>
       <c r="G31">
-        <v>0.9038791732909388</v>
+        <v>0.855580286168518</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4812,22 +4812,22 @@
         <v>45289</v>
       </c>
       <c r="B32">
-        <v>2.174603174603178</v>
+        <v>2.158730158730158</v>
       </c>
       <c r="C32">
         <v>0.9974093264245667</v>
       </c>
       <c r="D32">
-        <v>-3.389999999999993</v>
+        <v>-3.449999999999996</v>
       </c>
       <c r="E32">
-        <v>6.95410252789155</v>
+        <v>6.729875723767833</v>
       </c>
       <c r="F32">
-        <v>4.075861049519581</v>
+        <v>3.461138211382114</v>
       </c>
       <c r="G32">
-        <v>1.365896043444529</v>
+        <v>1.29290923196276</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -4835,22 +4835,22 @@
         <v>45322</v>
       </c>
       <c r="B33">
-        <v>1.533582089552233</v>
+        <v>1.522388059701491</v>
       </c>
       <c r="C33">
         <v>-2.722222222222221</v>
       </c>
       <c r="D33">
-        <v>2.658578792341679</v>
+        <v>2.705633284241536</v>
       </c>
       <c r="E33">
-        <v>-13.70407378939277</v>
+        <v>-13.26220215219062</v>
       </c>
       <c r="F33">
-        <v>-11.76903562514183</v>
+        <v>-9.994025414113914</v>
       </c>
       <c r="G33">
-        <v>1.234554973821986</v>
+        <v>1.168586387434551</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -4858,22 +4858,22 @@
         <v>45351</v>
       </c>
       <c r="B34">
-        <v>0.9785714285714278</v>
+        <v>0.971428571428568</v>
       </c>
       <c r="C34">
         <v>-1.464673913043477</v>
       </c>
       <c r="D34">
-        <v>-3.060251924422666</v>
+        <v>-3.114415675297408</v>
       </c>
       <c r="E34">
-        <v>-8.763870967741937</v>
+        <v>-8.481290322580648</v>
       </c>
       <c r="F34">
-        <v>0.9462123039807082</v>
+        <v>0.8035042219541708</v>
       </c>
       <c r="G34">
-        <v>-0.7962373371924727</v>
+        <v>-0.7536903039073835</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -4881,22 +4881,22 @@
         <v>45379</v>
       </c>
       <c r="B35">
-        <v>-2.140625</v>
+        <v>-2.125</v>
       </c>
       <c r="C35">
         <v>1.305084745762706</v>
       </c>
       <c r="D35">
-        <v>-6.663886820551006</v>
+        <v>-6.781831720029786</v>
       </c>
       <c r="E35">
-        <v>7.897092316196776</v>
+        <v>7.642459922609163</v>
       </c>
       <c r="F35">
-        <v>5.032324068598463</v>
+        <v>4.27334713187463</v>
       </c>
       <c r="G35">
-        <v>-2.089023668639058</v>
+        <v>-1.977396449704145</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -4910,16 +4910,16 @@
         <v>0.6311475409836049</v>
       </c>
       <c r="D36">
-        <v>-2.701542416452448</v>
+        <v>-2.749357326478155</v>
       </c>
       <c r="E36">
-        <v>7.399669858038976</v>
+        <v>7.161076262793017</v>
       </c>
       <c r="F36">
-        <v>-2.059219251336891</v>
+        <v>-1.748647058823522</v>
       </c>
       <c r="G36">
-        <v>-0.5178352941176456</v>
+        <v>-0.4901647058823499</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -4927,22 +4927,22 @@
         <v>45443</v>
       </c>
       <c r="B37">
-        <v>-0.7611111111111128</v>
+        <v>-0.75555555555556</v>
       </c>
       <c r="C37">
         <v>-0.413978494623656</v>
       </c>
       <c r="D37">
-        <v>-4.831900452488689</v>
+        <v>-4.917420814479641</v>
       </c>
       <c r="E37">
-        <v>5.479702292348904</v>
+        <v>5.303015778505497</v>
       </c>
       <c r="F37">
-        <v>17.0469032979318</v>
+        <v>14.47588317495807</v>
       </c>
       <c r="G37">
-        <v>0.08754176610977993</v>
+        <v>0.08286396181384248</v>
       </c>
     </row>
   </sheetData>
@@ -4980,13 +4980,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>32.39</v>
+        <v>32.15</v>
       </c>
       <c r="D2">
-        <v>33.66</v>
+        <v>33.42</v>
       </c>
       <c r="E2">
-        <v>34.25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5014,13 +5014,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>46.68</v>
+        <v>47.51</v>
       </c>
       <c r="D4">
-        <v>49.25</v>
+        <v>50.12</v>
       </c>
       <c r="E4">
-        <v>50.54</v>
+        <v>51.43</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5031,13 +5031,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>61</v>
+        <v>59.03</v>
       </c>
       <c r="D5">
-        <v>64.77</v>
+        <v>62.69</v>
       </c>
       <c r="E5">
-        <v>66.45999999999999</v>
+        <v>64.31999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5048,13 +5048,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>42.81</v>
+        <v>36.35</v>
       </c>
       <c r="D6">
-        <v>44.62</v>
+        <v>37.79</v>
       </c>
       <c r="E6">
-        <v>46.46</v>
+        <v>39.39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5065,13 +5065,13 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>34.75</v>
+        <v>32.9</v>
       </c>
       <c r="D7">
-        <v>35.89</v>
+        <v>33.83</v>
       </c>
       <c r="E7">
-        <v>36.55</v>
+        <v>34.57</v>
       </c>
     </row>
   </sheetData>
@@ -5109,13 +5109,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>29.1</v>
+        <v>28.88</v>
       </c>
       <c r="D2">
-        <v>31.45</v>
+        <v>31.22</v>
       </c>
       <c r="E2">
-        <v>33.53</v>
+        <v>33.29</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5132,7 +5132,7 @@
         <v>36.07</v>
       </c>
       <c r="E3">
-        <v>37.68</v>
+        <v>37.66</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>44.19</v>
+        <v>44.97</v>
       </c>
       <c r="D4">
-        <v>46.54</v>
+        <v>47.36</v>
       </c>
       <c r="E4">
-        <v>48.57</v>
+        <v>49.43</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5160,13 +5160,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>59.15</v>
+        <v>57.24</v>
       </c>
       <c r="D5">
-        <v>62.52</v>
+        <v>60.03</v>
       </c>
       <c r="E5">
-        <v>64.59</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5177,13 +5177,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>36.74</v>
+        <v>31.2</v>
       </c>
       <c r="D6">
-        <v>40.13</v>
+        <v>34.08</v>
       </c>
       <c r="E6">
-        <v>44.96</v>
+        <v>38.19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5194,13 +5194,13 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>33.94</v>
+        <v>32.12</v>
       </c>
       <c r="D7">
-        <v>34.59</v>
+        <v>33.26</v>
       </c>
       <c r="E7">
-        <v>36.25</v>
+        <v>34.31</v>
       </c>
     </row>
   </sheetData>
